--- a/Figures/figure5.xlsx
+++ b/Figures/figure5.xlsx
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.277598434396967</v>
+        <v>4.277598434397113</v>
       </c>
       <c r="C2" t="n">
-        <v>3.625736142530619</v>
+        <v>3.625736142530759</v>
       </c>
       <c r="D2" t="n">
-        <v>4.883860979207221</v>
+        <v>4.883860979207373</v>
       </c>
       <c r="E2" t="n">
-        <v>3.923680103429708</v>
+        <v>3.923680103429793</v>
       </c>
       <c r="F2" t="n">
-        <v>3.906346074257424</v>
+        <v>3.906346074257591</v>
       </c>
       <c r="G2" t="n">
-        <v>1.445190303703529</v>
+        <v>1.445190303703568</v>
       </c>
       <c r="H2" t="n">
-        <v>5.50857720762377</v>
+        <v>5.508577207623936</v>
       </c>
       <c r="I2" t="n">
-        <v>1.001435065903514</v>
+        <v>1.001435065903572</v>
       </c>
       <c r="J2" t="n">
-        <v>2.860374600359917</v>
+        <v>2.860374600360009</v>
       </c>
       <c r="K2" t="n">
-        <v>1.189066048255496</v>
+        <v>1.189066048255517</v>
       </c>
       <c r="L2" t="n">
-        <v>1.348215735246663</v>
+        <v>1.348215735246709</v>
       </c>
       <c r="M2" t="n">
-        <v>1.311987341086981</v>
+        <v>1.311987341087026</v>
       </c>
     </row>
     <row r="3">
@@ -554,40 +554,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.389774505806685</v>
+        <v>5.389774505806809</v>
       </c>
       <c r="C3" t="n">
-        <v>13.73107411465704</v>
+        <v>13.73107411465722</v>
       </c>
       <c r="D3" t="n">
-        <v>7.068054983044392</v>
+        <v>7.068054983044548</v>
       </c>
       <c r="E3" t="n">
-        <v>2.270500411762651</v>
+        <v>2.27050041176275</v>
       </c>
       <c r="F3" t="n">
-        <v>5.608554379989304</v>
+        <v>5.608554379989453</v>
       </c>
       <c r="G3" t="n">
-        <v>2.035255700984636</v>
+        <v>2.03525570098471</v>
       </c>
       <c r="H3" t="n">
-        <v>6.28965853518115</v>
+        <v>6.289658535181264</v>
       </c>
       <c r="I3" t="n">
-        <v>1.86794890200363</v>
+        <v>1.86794890200369</v>
       </c>
       <c r="J3" t="n">
-        <v>2.516362019253713</v>
+        <v>2.516362019253798</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7806256093770447</v>
+        <v>0.7806256093770815</v>
       </c>
       <c r="L3" t="n">
-        <v>4.54099625882199</v>
+        <v>4.54099625882208</v>
       </c>
       <c r="M3" t="n">
-        <v>1.701099825768654</v>
+        <v>1.701099825768727</v>
       </c>
     </row>
     <row r="4">
@@ -597,40 +597,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.042546478917439</v>
+        <v>5.042546478917609</v>
       </c>
       <c r="C4" t="n">
-        <v>5.131407651472671</v>
+        <v>5.131407651472802</v>
       </c>
       <c r="D4" t="n">
-        <v>6.637697422782141</v>
+        <v>6.637697422782295</v>
       </c>
       <c r="E4" t="n">
-        <v>5.976788362988914</v>
+        <v>5.976788362989052</v>
       </c>
       <c r="F4" t="n">
-        <v>6.804221238542122</v>
+        <v>6.804221238542293</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0373440444898</v>
+        <v>2.037344044489884</v>
       </c>
       <c r="H4" t="n">
-        <v>5.479331119751635</v>
+        <v>5.479331119751828</v>
       </c>
       <c r="I4" t="n">
-        <v>2.338107538765416</v>
+        <v>2.338107538765501</v>
       </c>
       <c r="J4" t="n">
-        <v>3.458345462376771</v>
+        <v>3.458345462376883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.934929803346603</v>
+        <v>0.9349298033466301</v>
       </c>
       <c r="L4" t="n">
-        <v>1.973621726895249</v>
+        <v>1.973621726895325</v>
       </c>
       <c r="M4" t="n">
-        <v>1.710575922590479</v>
+        <v>1.710575922590554</v>
       </c>
     </row>
     <row r="5">
@@ -640,40 +640,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.544205054574139</v>
+        <v>3.544205054574311</v>
       </c>
       <c r="C5" t="n">
-        <v>5.499528688513149</v>
+        <v>5.499528688513244</v>
       </c>
       <c r="D5" t="n">
-        <v>4.065361380291448</v>
+        <v>4.065361380291614</v>
       </c>
       <c r="E5" t="n">
-        <v>1.334986008582892</v>
+        <v>1.334986008582949</v>
       </c>
       <c r="F5" t="n">
-        <v>3.730342044934173</v>
+        <v>3.730342044934331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.612090949861976</v>
+        <v>0.6120909498620069</v>
       </c>
       <c r="H5" t="n">
-        <v>5.667561477980875</v>
+        <v>5.667561477981115</v>
       </c>
       <c r="I5" t="n">
-        <v>1.146836476482951</v>
+        <v>1.146836476483013</v>
       </c>
       <c r="J5" t="n">
-        <v>2.734253845375902</v>
+        <v>2.734253845376015</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2658723428917583</v>
+        <v>0.2658723428917711</v>
       </c>
       <c r="L5" t="n">
-        <v>1.418233939790343</v>
+        <v>1.418233939790418</v>
       </c>
       <c r="M5" t="n">
-        <v>1.291931458451569</v>
+        <v>1.291931458451632</v>
       </c>
     </row>
     <row r="6">
@@ -683,40 +683,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.509704152837552</v>
+        <v>6.509704152837628</v>
       </c>
       <c r="C6" t="n">
-        <v>15.61755706530271</v>
+        <v>15.61755706530277</v>
       </c>
       <c r="D6" t="n">
-        <v>4.446585522728835</v>
+        <v>4.446585522728934</v>
       </c>
       <c r="E6" t="n">
-        <v>2.175115874015631</v>
+        <v>2.175115874015678</v>
       </c>
       <c r="F6" t="n">
-        <v>3.317005928964623</v>
+        <v>3.317005928964701</v>
       </c>
       <c r="G6" t="n">
-        <v>1.714670672942051</v>
+        <v>1.714670672942095</v>
       </c>
       <c r="H6" t="n">
-        <v>5.220373799612924</v>
+        <v>5.22037379961303</v>
       </c>
       <c r="I6" t="n">
-        <v>2.269070608134907</v>
+        <v>2.26907060813497</v>
       </c>
       <c r="J6" t="n">
-        <v>3.10923384123053</v>
+        <v>3.109233841230591</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4533160597832929</v>
+        <v>0.453316059783306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8533248742804684</v>
+        <v>0.8533248742805088</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7841899935323313</v>
+        <v>0.7841899935323602</v>
       </c>
     </row>
     <row r="7">
@@ -726,40 +726,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.743660432526387</v>
+        <v>5.743660432526504</v>
       </c>
       <c r="C7" t="n">
-        <v>5.25745976888974</v>
+        <v>5.257459768889885</v>
       </c>
       <c r="D7" t="n">
-        <v>8.068180686158941</v>
+        <v>8.068180686159094</v>
       </c>
       <c r="E7" t="n">
-        <v>3.830570206150699</v>
+        <v>3.830570206150771</v>
       </c>
       <c r="F7" t="n">
-        <v>6.581093404213219</v>
+        <v>6.581093404213389</v>
       </c>
       <c r="G7" t="n">
-        <v>1.76004356888518</v>
+        <v>1.760043568885219</v>
       </c>
       <c r="H7" t="n">
-        <v>7.379645349483436</v>
+        <v>7.379645349483548</v>
       </c>
       <c r="I7" t="n">
-        <v>2.681089196857231</v>
+        <v>2.681089196857305</v>
       </c>
       <c r="J7" t="n">
-        <v>6.062210235445487</v>
+        <v>6.062210235445584</v>
       </c>
       <c r="K7" t="n">
-        <v>1.203130486764114</v>
+        <v>1.203130486764149</v>
       </c>
       <c r="L7" t="n">
-        <v>3.522548904600911</v>
+        <v>3.522548904601027</v>
       </c>
       <c r="M7" t="n">
-        <v>2.782453782921148</v>
+        <v>2.7824537829212</v>
       </c>
     </row>
     <row r="8">
@@ -769,40 +769,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.714007765496597</v>
+        <v>3.714007765496756</v>
       </c>
       <c r="C8" t="n">
-        <v>2.640176846130044</v>
+        <v>2.64017684613015</v>
       </c>
       <c r="D8" t="n">
-        <v>5.461485385475441</v>
+        <v>5.461485385475597</v>
       </c>
       <c r="E8" t="n">
-        <v>1.932526885151733</v>
+        <v>1.932526885151816</v>
       </c>
       <c r="F8" t="n">
-        <v>6.972912895071249</v>
+        <v>6.972912895071424</v>
       </c>
       <c r="G8" t="n">
-        <v>2.340390318003001</v>
+        <v>2.340390318003119</v>
       </c>
       <c r="H8" t="n">
-        <v>6.586759027893875</v>
+        <v>6.586759027894051</v>
       </c>
       <c r="I8" t="n">
-        <v>1.008031625736461</v>
+        <v>1.008031625736518</v>
       </c>
       <c r="J8" t="n">
-        <v>2.307973370489107</v>
+        <v>2.307973370489197</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9364136502589233</v>
+        <v>0.9364136502589662</v>
       </c>
       <c r="L8" t="n">
-        <v>2.117011147463749</v>
+        <v>2.11701114746385</v>
       </c>
       <c r="M8" t="n">
-        <v>1.784609076485103</v>
+        <v>1.784609076485195</v>
       </c>
     </row>
     <row r="9">
@@ -812,40 +812,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.772608548283403</v>
+        <v>3.77260854828348</v>
       </c>
       <c r="C9" t="n">
-        <v>33.30631717218282</v>
+        <v>33.30631717218291</v>
       </c>
       <c r="D9" t="n">
-        <v>9.370296660175976</v>
+        <v>9.370296660176036</v>
       </c>
       <c r="E9" t="n">
-        <v>2.447068194753678</v>
+        <v>2.447068194753713</v>
       </c>
       <c r="F9" t="n">
-        <v>3.415669883561046</v>
+        <v>3.415669883561122</v>
       </c>
       <c r="G9" t="n">
-        <v>2.728208507371646</v>
+        <v>2.728208507371693</v>
       </c>
       <c r="H9" t="n">
-        <v>3.566775835263717</v>
+        <v>3.566775835263804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.593369833202917</v>
+        <v>1.593369833202954</v>
       </c>
       <c r="J9" t="n">
-        <v>3.118299112938761</v>
+        <v>3.118299112938828</v>
       </c>
       <c r="K9" t="n">
-        <v>1.386178359547636</v>
+        <v>1.38617835954767</v>
       </c>
       <c r="L9" t="n">
-        <v>2.033551362553438</v>
+        <v>2.033551362553499</v>
       </c>
       <c r="M9" t="n">
-        <v>3.33926766037022</v>
+        <v>3.339267660370295</v>
       </c>
     </row>
     <row r="10">
@@ -855,40 +855,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.402676309718027</v>
+        <v>4.402676309718197</v>
       </c>
       <c r="C10" t="n">
-        <v>7.726943907551777</v>
+        <v>7.726943907551903</v>
       </c>
       <c r="D10" t="n">
-        <v>6.202319183566308</v>
+        <v>6.202319183566469</v>
       </c>
       <c r="E10" t="n">
-        <v>1.054065033993508</v>
+        <v>1.054065033993556</v>
       </c>
       <c r="F10" t="n">
-        <v>5.115215317428692</v>
+        <v>5.115215317428872</v>
       </c>
       <c r="G10" t="n">
-        <v>1.282161976983474</v>
+        <v>1.282161976983578</v>
       </c>
       <c r="H10" t="n">
-        <v>10.20634605303545</v>
+        <v>10.20634605303563</v>
       </c>
       <c r="I10" t="n">
-        <v>1.374611059815868</v>
+        <v>1.374611059815929</v>
       </c>
       <c r="J10" t="n">
-        <v>2.448393881084483</v>
+        <v>2.44839388108458</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3511859550245227</v>
+        <v>0.351185955024545</v>
       </c>
       <c r="L10" t="n">
-        <v>1.627478115296541</v>
+        <v>1.627478115296621</v>
       </c>
       <c r="M10" t="n">
-        <v>1.113514230839323</v>
+        <v>1.113514230839393</v>
       </c>
     </row>
     <row r="11">
@@ -898,40 +898,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.754387884285459</v>
+        <v>3.754387884285606</v>
       </c>
       <c r="C11" t="n">
-        <v>3.434786555615573</v>
+        <v>3.434786555615676</v>
       </c>
       <c r="D11" t="n">
-        <v>6.25974715394753</v>
+        <v>6.259747153947708</v>
       </c>
       <c r="E11" t="n">
-        <v>2.660189839675807</v>
+        <v>2.660189839675893</v>
       </c>
       <c r="F11" t="n">
-        <v>4.305470952792459</v>
+        <v>4.305470952792636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8176346673601135</v>
+        <v>0.8176346673601372</v>
       </c>
       <c r="H11" t="n">
-        <v>5.221154820007511</v>
+        <v>5.221154820007677</v>
       </c>
       <c r="I11" t="n">
-        <v>1.202085744961414</v>
+        <v>1.202085744961461</v>
       </c>
       <c r="J11" t="n">
-        <v>2.363505974851605</v>
+        <v>2.363505974851647</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5881053800298882</v>
+        <v>0.588105380029904</v>
       </c>
       <c r="L11" t="n">
-        <v>1.783209195814966</v>
+        <v>1.783209195815051</v>
       </c>
       <c r="M11" t="n">
-        <v>1.598734777434912</v>
+        <v>1.598734777434961</v>
       </c>
     </row>
     <row r="12">
@@ -941,40 +941,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.410622368569046</v>
+        <v>3.410622368569146</v>
       </c>
       <c r="C12" t="n">
-        <v>3.716326603720431</v>
+        <v>3.716326603720542</v>
       </c>
       <c r="D12" t="n">
-        <v>5.497741160521896</v>
+        <v>5.497741160522041</v>
       </c>
       <c r="E12" t="n">
-        <v>3.53182078479009</v>
+        <v>3.531820784790186</v>
       </c>
       <c r="F12" t="n">
-        <v>4.329269233490271</v>
+        <v>4.32926923349044</v>
       </c>
       <c r="G12" t="n">
-        <v>1.436650113021967</v>
+        <v>1.436650113022006</v>
       </c>
       <c r="H12" t="n">
-        <v>6.340859287351269</v>
+        <v>6.340859287351431</v>
       </c>
       <c r="I12" t="n">
-        <v>1.193736330586584</v>
+        <v>1.193736330586638</v>
       </c>
       <c r="J12" t="n">
-        <v>2.868308470830347</v>
+        <v>2.868308470830448</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6630582145658063</v>
+        <v>0.6630582145658248</v>
       </c>
       <c r="L12" t="n">
-        <v>1.526271680914229</v>
+        <v>1.526271680914284</v>
       </c>
       <c r="M12" t="n">
-        <v>1.663599223403786</v>
+        <v>1.663599223403837</v>
       </c>
     </row>
     <row r="13">
@@ -984,40 +984,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.566168354307428</v>
+        <v>5.566168354307604</v>
       </c>
       <c r="C13" t="n">
-        <v>5.187281097814272</v>
+        <v>5.187281097814396</v>
       </c>
       <c r="D13" t="n">
-        <v>6.447730553994737</v>
+        <v>6.447730553994901</v>
       </c>
       <c r="E13" t="n">
-        <v>3.25386256027252</v>
+        <v>3.253862560272659</v>
       </c>
       <c r="F13" t="n">
-        <v>4.727338066059061</v>
+        <v>4.727338066059224</v>
       </c>
       <c r="G13" t="n">
-        <v>1.618167879144686</v>
+        <v>1.618167879144734</v>
       </c>
       <c r="H13" t="n">
-        <v>15.45228478157917</v>
+        <v>15.45228478157938</v>
       </c>
       <c r="I13" t="n">
-        <v>1.587243484598914</v>
+        <v>1.587243484598963</v>
       </c>
       <c r="J13" t="n">
-        <v>3.898237750365225</v>
+        <v>3.89823775036535</v>
       </c>
       <c r="K13" t="n">
-        <v>1.170738402099204</v>
+        <v>1.170738402099244</v>
       </c>
       <c r="L13" t="n">
-        <v>1.629698141926917</v>
+        <v>1.629698141926997</v>
       </c>
       <c r="M13" t="n">
-        <v>1.852524542333849</v>
+        <v>1.852524542333922</v>
       </c>
     </row>
     <row r="14">
@@ -1027,40 +1027,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.920643975071033</v>
+        <v>4.920643975071202</v>
       </c>
       <c r="C14" t="n">
-        <v>3.77168691294132</v>
+        <v>3.771686912941453</v>
       </c>
       <c r="D14" t="n">
-        <v>5.601062136808535</v>
+        <v>5.601062136808716</v>
       </c>
       <c r="E14" t="n">
-        <v>1.691566570704242</v>
+        <v>1.691566570704323</v>
       </c>
       <c r="F14" t="n">
-        <v>4.556563305689367</v>
+        <v>4.556563305689563</v>
       </c>
       <c r="G14" t="n">
-        <v>1.46912957817001</v>
+        <v>1.469129578170068</v>
       </c>
       <c r="H14" t="n">
-        <v>5.487458096508298</v>
+        <v>5.487458096508479</v>
       </c>
       <c r="I14" t="n">
-        <v>0.88531318102798</v>
+        <v>0.8853131810280225</v>
       </c>
       <c r="J14" t="n">
-        <v>4.360824456931992</v>
+        <v>4.360824456932137</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7451108967711403</v>
+        <v>0.7451108967711648</v>
       </c>
       <c r="L14" t="n">
-        <v>2.202467701289582</v>
+        <v>2.202467701289666</v>
       </c>
       <c r="M14" t="n">
-        <v>1.602122181799098</v>
+        <v>1.602122181799166</v>
       </c>
     </row>
     <row r="15">
@@ -1070,40 +1070,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.244679721488804</v>
+        <v>3.244679721488914</v>
       </c>
       <c r="C15" t="n">
-        <v>7.470731438344302</v>
+        <v>7.470731438344384</v>
       </c>
       <c r="D15" t="n">
-        <v>5.309658063112635</v>
+        <v>5.309658063112753</v>
       </c>
       <c r="E15" t="n">
-        <v>1.611194188675693</v>
+        <v>1.611194188675747</v>
       </c>
       <c r="F15" t="n">
-        <v>4.787432803619634</v>
+        <v>4.78743280361978</v>
       </c>
       <c r="G15" t="n">
-        <v>1.335879760721469</v>
+        <v>1.335879760721515</v>
       </c>
       <c r="H15" t="n">
-        <v>4.0170443569668</v>
+        <v>4.017044356966906</v>
       </c>
       <c r="I15" t="n">
-        <v>1.714510106996202</v>
+        <v>1.714510106996267</v>
       </c>
       <c r="J15" t="n">
-        <v>2.150545904149026</v>
+        <v>2.150545904149091</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4445150184887913</v>
+        <v>0.4445150184888055</v>
       </c>
       <c r="L15" t="n">
-        <v>1.228720427629516</v>
+        <v>1.228720427629567</v>
       </c>
       <c r="M15" t="n">
-        <v>1.233010276316053</v>
+        <v>1.233010276316093</v>
       </c>
     </row>
     <row r="16">
@@ -1113,40 +1113,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.152361658927696</v>
+        <v>5.152361658927881</v>
       </c>
       <c r="C16" t="n">
-        <v>5.36626368200568</v>
+        <v>5.366263682005872</v>
       </c>
       <c r="D16" t="n">
-        <v>7.12811197392324</v>
+        <v>7.12811197392343</v>
       </c>
       <c r="E16" t="n">
-        <v>4.413644112201196</v>
+        <v>4.413644112201343</v>
       </c>
       <c r="F16" t="n">
-        <v>5.958859059293441</v>
+        <v>5.958859059293637</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6575938860761</v>
+        <v>1.657593886076153</v>
       </c>
       <c r="H16" t="n">
-        <v>6.928930090233094</v>
+        <v>6.928930090233258</v>
       </c>
       <c r="I16" t="n">
-        <v>1.136054904814481</v>
+        <v>1.136054904814531</v>
       </c>
       <c r="J16" t="n">
-        <v>6.365502128049759</v>
+        <v>6.365502128049885</v>
       </c>
       <c r="K16" t="n">
-        <v>1.429846771034842</v>
+        <v>1.429846771034875</v>
       </c>
       <c r="L16" t="n">
-        <v>2.796325812192153</v>
+        <v>2.796325812192273</v>
       </c>
       <c r="M16" t="n">
-        <v>2.661520960917452</v>
+        <v>2.661520960917582</v>
       </c>
     </row>
     <row r="17">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.753765575087715</v>
+        <v>3.753765575087837</v>
       </c>
       <c r="C17" t="n">
-        <v>3.383521117296173</v>
+        <v>3.383521117296283</v>
       </c>
       <c r="D17" t="n">
-        <v>5.980881901845341</v>
+        <v>5.980881901845489</v>
       </c>
       <c r="E17" t="n">
-        <v>2.455823516143628</v>
+        <v>2.455823516143702</v>
       </c>
       <c r="F17" t="n">
-        <v>4.836725566983604</v>
+        <v>4.836725566983755</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7823424339412732</v>
+        <v>0.7823424339413094</v>
       </c>
       <c r="H17" t="n">
-        <v>6.756416682290951</v>
+        <v>6.756416682291085</v>
       </c>
       <c r="I17" t="n">
-        <v>1.129549900805441</v>
+        <v>1.129549900805491</v>
       </c>
       <c r="J17" t="n">
-        <v>2.985701856499625</v>
+        <v>2.98570185649971</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6170475208701017</v>
+        <v>0.6170475208701226</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27842216494689</v>
+        <v>1.278422164946941</v>
       </c>
       <c r="M17" t="n">
-        <v>1.267027654272328</v>
+        <v>1.267027654272385</v>
       </c>
     </row>
     <row r="18">
@@ -1199,40 +1199,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.002212692818548</v>
+        <v>3.002212692818651</v>
       </c>
       <c r="C18" t="n">
-        <v>4.853212364567115</v>
+        <v>4.853212364567277</v>
       </c>
       <c r="D18" t="n">
-        <v>6.378646715794643</v>
+        <v>6.378646715794776</v>
       </c>
       <c r="E18" t="n">
-        <v>1.744169114020666</v>
+        <v>1.744169114020731</v>
       </c>
       <c r="F18" t="n">
-        <v>4.414863887217243</v>
+        <v>4.414863887217376</v>
       </c>
       <c r="G18" t="n">
-        <v>1.355040552851429</v>
+        <v>1.35504055285149</v>
       </c>
       <c r="H18" t="n">
-        <v>6.459617879452244</v>
+        <v>6.459617879452363</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8449446971490818</v>
+        <v>0.8449446971491336</v>
       </c>
       <c r="J18" t="n">
-        <v>1.599635287657547</v>
+        <v>1.599635287657609</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6573619004012621</v>
+        <v>0.6573619004012794</v>
       </c>
       <c r="L18" t="n">
-        <v>1.386415851659808</v>
+        <v>1.38641585165987</v>
       </c>
       <c r="M18" t="n">
-        <v>1.336264934755574</v>
+        <v>1.33626493475564</v>
       </c>
     </row>
     <row r="19">
@@ -1242,40 +1242,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.25948376696573</v>
+        <v>5.259483766965906</v>
       </c>
       <c r="C19" t="n">
-        <v>4.493982264847312</v>
+        <v>4.493982264847441</v>
       </c>
       <c r="D19" t="n">
-        <v>5.772778903738114</v>
+        <v>5.772778903738276</v>
       </c>
       <c r="E19" t="n">
-        <v>2.385211733770497</v>
+        <v>2.385211733770542</v>
       </c>
       <c r="F19" t="n">
-        <v>10.11282785200106</v>
+        <v>10.11282785200125</v>
       </c>
       <c r="G19" t="n">
-        <v>1.309388865284993</v>
+        <v>1.309388865285048</v>
       </c>
       <c r="H19" t="n">
-        <v>30.71280182800967</v>
+        <v>30.71280182800983</v>
       </c>
       <c r="I19" t="n">
-        <v>3.40708846093588</v>
+        <v>3.40708846093598</v>
       </c>
       <c r="J19" t="n">
-        <v>8.45715198893225</v>
+        <v>8.45715198893237</v>
       </c>
       <c r="K19" t="n">
-        <v>0.299328301090956</v>
+        <v>0.2993283010909701</v>
       </c>
       <c r="L19" t="n">
-        <v>1.507940685721621</v>
+        <v>1.507940685721701</v>
       </c>
       <c r="M19" t="n">
-        <v>3.990902622095187</v>
+        <v>3.99090262209525</v>
       </c>
     </row>
     <row r="20">
@@ -1285,40 +1285,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.522457028782216</v>
+        <v>5.522457028782399</v>
       </c>
       <c r="C20" t="n">
-        <v>5.149439900890939</v>
+        <v>5.149439900891104</v>
       </c>
       <c r="D20" t="n">
-        <v>4.77818601243828</v>
+        <v>4.778186012438452</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0419315498382</v>
+        <v>1.041931549838255</v>
       </c>
       <c r="F20" t="n">
-        <v>4.492764956905996</v>
+        <v>4.492764956906583</v>
       </c>
       <c r="G20" t="n">
-        <v>0.834504108475188</v>
+        <v>0.8345041084752204</v>
       </c>
       <c r="H20" t="n">
-        <v>5.477432955635956</v>
+        <v>5.477432955636271</v>
       </c>
       <c r="I20" t="n">
-        <v>1.170108150671985</v>
+        <v>1.170108150672108</v>
       </c>
       <c r="J20" t="n">
-        <v>3.025421795357593</v>
+        <v>3.02542179535779</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3602666090794391</v>
+        <v>0.3602666090794617</v>
       </c>
       <c r="L20" t="n">
-        <v>2.092219234035892</v>
+        <v>2.092219234036002</v>
       </c>
       <c r="M20" t="n">
-        <v>1.493116976738144</v>
+        <v>1.49311697673822</v>
       </c>
     </row>
     <row r="21">
@@ -1328,40 +1328,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.580856632344322</v>
+        <v>4.580856632344492</v>
       </c>
       <c r="C21" t="n">
-        <v>2.803465519987248</v>
+        <v>2.803465519987361</v>
       </c>
       <c r="D21" t="n">
-        <v>4.386857415658407</v>
+        <v>4.386857415658551</v>
       </c>
       <c r="E21" t="n">
-        <v>2.152221798714398</v>
+        <v>2.152221798714451</v>
       </c>
       <c r="F21" t="n">
-        <v>3.876015420314115</v>
+        <v>3.876015420314288</v>
       </c>
       <c r="G21" t="n">
-        <v>1.132760711648674</v>
+        <v>1.132760711648719</v>
       </c>
       <c r="H21" t="n">
-        <v>4.160776396126242</v>
+        <v>4.160776396126416</v>
       </c>
       <c r="I21" t="n">
-        <v>1.062797251581811</v>
+        <v>1.062797251581863</v>
       </c>
       <c r="J21" t="n">
-        <v>2.301829259735618</v>
+        <v>2.301829259735689</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5301660990999342</v>
+        <v>0.5301660990999489</v>
       </c>
       <c r="L21" t="n">
-        <v>1.184293647621393</v>
+        <v>1.184293647621442</v>
       </c>
       <c r="M21" t="n">
-        <v>1.135828022268322</v>
+        <v>1.135828022268373</v>
       </c>
     </row>
     <row r="22">
@@ -1371,40 +1371,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.811959391454108</v>
+        <v>1.811959391454151</v>
       </c>
       <c r="C22" t="n">
-        <v>3.065548053308743</v>
+        <v>3.065548053308805</v>
       </c>
       <c r="D22" t="n">
-        <v>5.2528773433446</v>
+        <v>5.252877343344661</v>
       </c>
       <c r="E22" t="n">
-        <v>1.09562618463995</v>
+        <v>1.095626184639966</v>
       </c>
       <c r="F22" t="n">
-        <v>5.934779399329964</v>
+        <v>5.934779399330036</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7820375112903085</v>
+        <v>0.7820375112903269</v>
       </c>
       <c r="H22" t="n">
-        <v>3.055799978766471</v>
+        <v>3.055799978766523</v>
       </c>
       <c r="I22" t="n">
-        <v>3.031453458718036</v>
+        <v>3.031453458718067</v>
       </c>
       <c r="J22" t="n">
-        <v>2.635698172731463</v>
+        <v>2.63569817273152</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5369182876651525</v>
+        <v>0.5369182876651633</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4697530478681116</v>
+        <v>0.469753047868129</v>
       </c>
       <c r="M22" t="n">
-        <v>2.316238704935629</v>
+        <v>2.316238704935665</v>
       </c>
     </row>
     <row r="23">
@@ -1414,40 +1414,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.786958876896138</v>
+        <v>3.786958876896281</v>
       </c>
       <c r="C23" t="n">
-        <v>5.975789769583324</v>
+        <v>5.975789769583548</v>
       </c>
       <c r="D23" t="n">
-        <v>4.981699327080611</v>
+        <v>4.981699327080734</v>
       </c>
       <c r="E23" t="n">
-        <v>3.994126488138869</v>
+        <v>3.99412648813899</v>
       </c>
       <c r="F23" t="n">
-        <v>3.730288327599252</v>
+        <v>3.730288327599395</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9325208208347607</v>
+        <v>0.9325208208348026</v>
       </c>
       <c r="H23" t="n">
-        <v>6.343802135288778</v>
+        <v>6.343802135288898</v>
       </c>
       <c r="I23" t="n">
-        <v>1.571390575982395</v>
+        <v>1.571390575982479</v>
       </c>
       <c r="J23" t="n">
-        <v>4.434537440361129</v>
+        <v>4.434537440361255</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7042877663995625</v>
+        <v>0.7042877663995896</v>
       </c>
       <c r="L23" t="n">
-        <v>1.721120925919856</v>
+        <v>1.721120925919926</v>
       </c>
       <c r="M23" t="n">
-        <v>1.446035910159656</v>
+        <v>1.446035910159731</v>
       </c>
     </row>
     <row r="24">
@@ -1457,40 +1457,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.998105748109778</v>
+        <v>2.998105748109809</v>
       </c>
       <c r="C24" t="n">
-        <v>14.86622046529242</v>
+        <v>14.86622046529252</v>
       </c>
       <c r="D24" t="n">
-        <v>1.849496730821186</v>
+        <v>1.849496730821216</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8967750929634286</v>
+        <v>0.8967750929634399</v>
       </c>
       <c r="F24" t="n">
-        <v>3.272828295682724</v>
+        <v>3.272828295682727</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4864465448910221</v>
+        <v>0.4864465448910332</v>
       </c>
       <c r="H24" t="n">
-        <v>3.800580730896701</v>
+        <v>3.800580730896759</v>
       </c>
       <c r="I24" t="n">
-        <v>1.078669417432083</v>
+        <v>1.078669417432095</v>
       </c>
       <c r="J24" t="n">
-        <v>1.900132134687909</v>
+        <v>1.900132134687938</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2066925304870147</v>
+        <v>0.2066925304870185</v>
       </c>
       <c r="L24" t="n">
-        <v>3.611447181327507</v>
+        <v>3.611447181327532</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8729534408030765</v>
+        <v>0.872953440803092</v>
       </c>
     </row>
     <row r="25">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.626571691737968</v>
+        <v>3.626571691738085</v>
       </c>
       <c r="C25" t="n">
-        <v>3.021087774338326</v>
+        <v>3.021087774338427</v>
       </c>
       <c r="D25" t="n">
-        <v>3.648068798590129</v>
+        <v>3.648068798590236</v>
       </c>
       <c r="E25" t="n">
-        <v>1.5662822238704</v>
+        <v>1.566282223870442</v>
       </c>
       <c r="F25" t="n">
-        <v>5.165827795659552</v>
+        <v>5.165827795659713</v>
       </c>
       <c r="G25" t="n">
-        <v>1.448518086293926</v>
+        <v>1.448518086293957</v>
       </c>
       <c r="H25" t="n">
-        <v>5.086986541033283</v>
+        <v>5.086986541033423</v>
       </c>
       <c r="I25" t="n">
-        <v>1.300687924899316</v>
+        <v>1.300687924899369</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38372069940559</v>
+        <v>2.38372069940567</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5778327256106701</v>
+        <v>0.5778327256106899</v>
       </c>
       <c r="L25" t="n">
-        <v>2.091006324801105</v>
+        <v>2.091006324801167</v>
       </c>
       <c r="M25" t="n">
-        <v>1.744465984846228</v>
+        <v>1.74446598484628</v>
       </c>
     </row>
     <row r="26">
@@ -1543,40 +1543,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.155939191440759</v>
+        <v>5.155939191440895</v>
       </c>
       <c r="C26" t="n">
-        <v>2.813850949351257</v>
+        <v>2.813850949351309</v>
       </c>
       <c r="D26" t="n">
-        <v>6.38285560409717</v>
+        <v>6.382855604097291</v>
       </c>
       <c r="E26" t="n">
-        <v>1.705108072200701</v>
+        <v>1.70510807220075</v>
       </c>
       <c r="F26" t="n">
-        <v>5.612417895053309</v>
+        <v>5.612417895053435</v>
       </c>
       <c r="G26" t="n">
-        <v>2.201191554862241</v>
+        <v>2.201191554862286</v>
       </c>
       <c r="H26" t="n">
-        <v>4.13672014623653</v>
+        <v>4.136720146236606</v>
       </c>
       <c r="I26" t="n">
-        <v>1.135400011973607</v>
+        <v>1.135400011973641</v>
       </c>
       <c r="J26" t="n">
-        <v>3.443730275917381</v>
+        <v>3.443730275917465</v>
       </c>
       <c r="K26" t="n">
-        <v>1.039845504934056</v>
+        <v>1.039845504934082</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9644611680333837</v>
+        <v>0.964461168033373</v>
       </c>
       <c r="M26" t="n">
-        <v>2.460815513926081</v>
+        <v>2.460815513926137</v>
       </c>
     </row>
     <row r="27">
@@ -1586,40 +1586,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.096929322115644</v>
+        <v>9.096929322115589</v>
       </c>
       <c r="C27" t="n">
-        <v>4.288025116848264</v>
+        <v>4.288025116848184</v>
       </c>
       <c r="D27" t="n">
-        <v>9.017207080632732</v>
+        <v>9.017207080632767</v>
       </c>
       <c r="E27" t="n">
-        <v>2.641353039259981</v>
+        <v>2.641353039259692</v>
       </c>
       <c r="F27" t="n">
-        <v>5.747175272062194</v>
+        <v>5.74717527206221</v>
       </c>
       <c r="G27" t="n">
-        <v>1.295520773739729</v>
+        <v>1.295520773739399</v>
       </c>
       <c r="H27" t="n">
-        <v>5.320604896902871</v>
+        <v>5.320604896902867</v>
       </c>
       <c r="I27" t="n">
-        <v>1.403280220773486</v>
+        <v>1.403280220773421</v>
       </c>
       <c r="J27" t="n">
-        <v>3.285418905600757</v>
+        <v>3.285418905598516</v>
       </c>
       <c r="K27" t="n">
-        <v>1.778031689976553</v>
+        <v>1.778031689975728</v>
       </c>
       <c r="L27" t="n">
-        <v>2.605838382856603</v>
+        <v>2.60583838285694</v>
       </c>
       <c r="M27" t="n">
-        <v>2.463633106671964</v>
+        <v>2.46363310667159</v>
       </c>
     </row>
     <row r="28">
@@ -1629,40 +1629,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.897320095161182</v>
+        <v>3.897320095161309</v>
       </c>
       <c r="C28" t="n">
-        <v>3.127609670440293</v>
+        <v>3.127609670440391</v>
       </c>
       <c r="D28" t="n">
-        <v>4.755023421884061</v>
+        <v>4.755023421884263</v>
       </c>
       <c r="E28" t="n">
-        <v>2.924194247524439</v>
+        <v>2.924194247524486</v>
       </c>
       <c r="F28" t="n">
-        <v>5.403112529096834</v>
+        <v>5.403112529097021</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5259680721364934</v>
+        <v>0.5259680721365213</v>
       </c>
       <c r="H28" t="n">
-        <v>3.837049934433951</v>
+        <v>3.837049934434079</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8052068534324749</v>
+        <v>0.8052068534325066</v>
       </c>
       <c r="J28" t="n">
-        <v>4.312034318527603</v>
+        <v>4.312034318527711</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2072021303605275</v>
+        <v>0.207202130360542</v>
       </c>
       <c r="L28" t="n">
-        <v>1.118259664374037</v>
+        <v>1.11825966437408</v>
       </c>
       <c r="M28" t="n">
-        <v>1.380923675388753</v>
+        <v>1.380923675388797</v>
       </c>
     </row>
     <row r="29">
@@ -1672,40 +1672,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.547907226740636</v>
+        <v>4.547907226740779</v>
       </c>
       <c r="C29" t="n">
-        <v>2.775815890920942</v>
+        <v>2.77581589092108</v>
       </c>
       <c r="D29" t="n">
-        <v>7.669588359354677</v>
+        <v>7.669588359354846</v>
       </c>
       <c r="E29" t="n">
-        <v>12.04290198639026</v>
+        <v>12.04290198639046</v>
       </c>
       <c r="F29" t="n">
-        <v>8.294803086284109</v>
+        <v>8.294803086284295</v>
       </c>
       <c r="G29" t="n">
-        <v>3.796841409719645</v>
+        <v>3.7968414097198</v>
       </c>
       <c r="H29" t="n">
-        <v>4.128943752285045</v>
+        <v>4.128943752285214</v>
       </c>
       <c r="I29" t="n">
-        <v>3.707013263984732</v>
+        <v>3.707013263984825</v>
       </c>
       <c r="J29" t="n">
-        <v>5.730945679270123</v>
+        <v>5.730945679270263</v>
       </c>
       <c r="K29" t="n">
-        <v>1.336563847727856</v>
+        <v>1.336563847727923</v>
       </c>
       <c r="L29" t="n">
-        <v>1.899347527717716</v>
+        <v>1.899347527717799</v>
       </c>
       <c r="M29" t="n">
-        <v>2.56192304056903</v>
+        <v>2.561923040569143</v>
       </c>
     </row>
     <row r="30">
@@ -1715,40 +1715,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.347390900417041</v>
+        <v>5.347390900417211</v>
       </c>
       <c r="C30" t="n">
-        <v>2.949150916312482</v>
+        <v>2.949150916312586</v>
       </c>
       <c r="D30" t="n">
-        <v>6.604514930367266</v>
+        <v>6.604514930367477</v>
       </c>
       <c r="E30" t="n">
-        <v>5.43689209153277</v>
+        <v>5.436892091532875</v>
       </c>
       <c r="F30" t="n">
-        <v>5.026602566247674</v>
+        <v>5.026602566247846</v>
       </c>
       <c r="G30" t="n">
-        <v>1.613863707812457</v>
+        <v>1.613863707812514</v>
       </c>
       <c r="H30" t="n">
-        <v>6.276007652378382</v>
+        <v>6.276007652378548</v>
       </c>
       <c r="I30" t="n">
-        <v>1.564642004046783</v>
+        <v>1.564642004046857</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75560030428648</v>
+        <v>3.755600304286582</v>
       </c>
       <c r="K30" t="n">
-        <v>0.422313165972847</v>
+        <v>0.422313165972866</v>
       </c>
       <c r="L30" t="n">
-        <v>3.887378717274925</v>
+        <v>3.887378717275152</v>
       </c>
       <c r="M30" t="n">
-        <v>2.545802349849851</v>
+        <v>2.54580234984999</v>
       </c>
     </row>
     <row r="31">
@@ -1758,40 +1758,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.381538706929385</v>
+        <v>3.381538706929516</v>
       </c>
       <c r="C31" t="n">
-        <v>3.170205139999476</v>
+        <v>3.170205139999619</v>
       </c>
       <c r="D31" t="n">
-        <v>9.017381194829559</v>
+        <v>9.017381194829701</v>
       </c>
       <c r="E31" t="n">
-        <v>1.368036170053079</v>
+        <v>1.368036170053128</v>
       </c>
       <c r="F31" t="n">
-        <v>4.541822486364444</v>
+        <v>4.541822486364604</v>
       </c>
       <c r="G31" t="n">
-        <v>3.223985656234894</v>
+        <v>3.223985656235009</v>
       </c>
       <c r="H31" t="n">
-        <v>5.590377867777002</v>
+        <v>5.590377867777168</v>
       </c>
       <c r="I31" t="n">
-        <v>2.056395562098503</v>
+        <v>2.056395562098584</v>
       </c>
       <c r="J31" t="n">
-        <v>2.677156005360075</v>
+        <v>2.677156005360209</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6207594493725017</v>
+        <v>0.6207594493725276</v>
       </c>
       <c r="L31" t="n">
-        <v>1.589356157282088</v>
+        <v>1.589356157282289</v>
       </c>
       <c r="M31" t="n">
-        <v>3.245174449199844</v>
+        <v>3.245174449199973</v>
       </c>
     </row>
     <row r="32">
@@ -1801,40 +1801,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.568929635544712</v>
+        <v>4.568929635544798</v>
       </c>
       <c r="C32" t="n">
-        <v>4.035051621616283</v>
+        <v>4.035051621616353</v>
       </c>
       <c r="D32" t="n">
-        <v>4.819042682246573</v>
+        <v>4.819042682246657</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7902953984632305</v>
+        <v>0.7902953984632539</v>
       </c>
       <c r="F32" t="n">
-        <v>3.831423405486637</v>
+        <v>3.831423405486716</v>
       </c>
       <c r="G32" t="n">
-        <v>1.04562538641058</v>
+        <v>1.045625386410613</v>
       </c>
       <c r="H32" t="n">
-        <v>2.26504871279811</v>
+        <v>2.26504871279817</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6398491524303411</v>
+        <v>0.6398491524303614</v>
       </c>
       <c r="J32" t="n">
-        <v>2.310332450717177</v>
+        <v>2.310332450717233</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0832834926000755</v>
+        <v>0.08328349260007757</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3982005732777879</v>
+        <v>0.3982005732778148</v>
       </c>
       <c r="M32" t="n">
-        <v>1.162667614382384</v>
+        <v>1.162667614382418</v>
       </c>
     </row>
     <row r="33">
@@ -1844,40 +1844,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.164507754258522</v>
+        <v>4.164507754258644</v>
       </c>
       <c r="C33" t="n">
-        <v>2.991998110491002</v>
+        <v>2.991998110491123</v>
       </c>
       <c r="D33" t="n">
-        <v>7.035034514798833</v>
+        <v>7.035034514798979</v>
       </c>
       <c r="E33" t="n">
-        <v>5.149481373490349</v>
+        <v>5.149481373490469</v>
       </c>
       <c r="F33" t="n">
-        <v>5.655028869842107</v>
+        <v>5.65502886984227</v>
       </c>
       <c r="G33" t="n">
-        <v>1.520127142988296</v>
+        <v>1.52012714298835</v>
       </c>
       <c r="H33" t="n">
-        <v>6.620728610722693</v>
+        <v>6.620728610722875</v>
       </c>
       <c r="I33" t="n">
-        <v>1.675670525489986</v>
+        <v>1.675670525490061</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6609813060599</v>
+        <v>2.660981306059984</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8558736553866126</v>
+        <v>0.8558736553866471</v>
       </c>
       <c r="L33" t="n">
-        <v>1.87361253511743</v>
+        <v>1.873612535117539</v>
       </c>
       <c r="M33" t="n">
-        <v>1.773548745093541</v>
+        <v>1.773548745093616</v>
       </c>
     </row>
     <row r="34">
@@ -1887,40 +1887,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.246117432713044</v>
+        <v>6.246117432713247</v>
       </c>
       <c r="C34" t="n">
-        <v>9.409621770222422</v>
+        <v>9.409621770222678</v>
       </c>
       <c r="D34" t="n">
-        <v>7.533990549029053</v>
+        <v>7.533990549029252</v>
       </c>
       <c r="E34" t="n">
-        <v>3.832164302256717</v>
+        <v>3.832164302256816</v>
       </c>
       <c r="F34" t="n">
-        <v>4.230547720504799</v>
+        <v>4.230547720504935</v>
       </c>
       <c r="G34" t="n">
-        <v>1.190031294494328</v>
+        <v>1.190031294494368</v>
       </c>
       <c r="H34" t="n">
-        <v>12.40600309109715</v>
+        <v>12.40600309109735</v>
       </c>
       <c r="I34" t="n">
-        <v>1.237441526983987</v>
+        <v>1.237441526984046</v>
       </c>
       <c r="J34" t="n">
-        <v>3.86096985594219</v>
+        <v>3.86096985594234</v>
       </c>
       <c r="K34" t="n">
-        <v>1.325022710352535</v>
+        <v>1.32502271035257</v>
       </c>
       <c r="L34" t="n">
-        <v>3.086905411268404</v>
+        <v>3.086905411268513</v>
       </c>
       <c r="M34" t="n">
-        <v>2.24972933955805</v>
+        <v>2.249729339558115</v>
       </c>
     </row>
     <row r="35">
@@ -1930,40 +1930,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.266739804785113</v>
+        <v>3.266739804785212</v>
       </c>
       <c r="C35" t="n">
-        <v>3.546346465625403</v>
+        <v>3.546346465625508</v>
       </c>
       <c r="D35" t="n">
-        <v>4.708746113909438</v>
+        <v>4.708746113909581</v>
       </c>
       <c r="E35" t="n">
-        <v>1.707318659303691</v>
+        <v>1.707318659303735</v>
       </c>
       <c r="F35" t="n">
-        <v>3.884578537482454</v>
+        <v>3.884578537482583</v>
       </c>
       <c r="G35" t="n">
-        <v>1.772143495052043</v>
+        <v>1.772143495052064</v>
       </c>
       <c r="H35" t="n">
-        <v>2.719522364416382</v>
+        <v>2.719522364416501</v>
       </c>
       <c r="I35" t="n">
-        <v>1.431266741184749</v>
+        <v>1.431266741184777</v>
       </c>
       <c r="J35" t="n">
-        <v>3.093911335401108</v>
+        <v>3.093911335401175</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4996612626730821</v>
+        <v>0.4996612626730929</v>
       </c>
       <c r="L35" t="n">
-        <v>1.390770632253403</v>
+        <v>1.390770632253459</v>
       </c>
       <c r="M35" t="n">
-        <v>1.455960320173274</v>
+        <v>1.455960320173308</v>
       </c>
     </row>
     <row r="36">
@@ -1973,40 +1973,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.09585219540481</v>
+        <v>4.095852195404938</v>
       </c>
       <c r="C36" t="n">
-        <v>3.8532774717203</v>
+        <v>3.853277471720418</v>
       </c>
       <c r="D36" t="n">
-        <v>4.149598258927228</v>
+        <v>4.149598258927345</v>
       </c>
       <c r="E36" t="n">
-        <v>2.383529081043905</v>
+        <v>2.383529081043952</v>
       </c>
       <c r="F36" t="n">
-        <v>3.700179528643566</v>
+        <v>3.700179528643675</v>
       </c>
       <c r="G36" t="n">
-        <v>1.152841120438955</v>
+        <v>1.152841120438975</v>
       </c>
       <c r="H36" t="n">
-        <v>5.504777546154573</v>
+        <v>5.504777546154707</v>
       </c>
       <c r="I36" t="n">
-        <v>1.189370737723088</v>
+        <v>1.189370737723131</v>
       </c>
       <c r="J36" t="n">
-        <v>2.887009610428252</v>
+        <v>2.887009610428331</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2393609611515602</v>
+        <v>0.2393609611515714</v>
       </c>
       <c r="L36" t="n">
-        <v>1.374233514827038</v>
+        <v>1.374233514827073</v>
       </c>
       <c r="M36" t="n">
-        <v>1.317246563374154</v>
+        <v>1.317246563374191</v>
       </c>
     </row>
     <row r="37">
@@ -2016,40 +2016,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.813186779165428</v>
+        <v>1.813186779165521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.200299298508448</v>
+        <v>2.200299298508564</v>
       </c>
       <c r="D37" t="n">
-        <v>3.042070006360331</v>
+        <v>3.04207000636047</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9340154234815663</v>
+        <v>0.9340154234816511</v>
       </c>
       <c r="F37" t="n">
-        <v>2.590193669492798</v>
+        <v>2.590193669492892</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2043494138483479</v>
+        <v>0.2043494138483647</v>
       </c>
       <c r="H37" t="n">
-        <v>2.23965768689989</v>
+        <v>2.23965768690006</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6749846124970506</v>
+        <v>0.6749846124971146</v>
       </c>
       <c r="J37" t="n">
-        <v>1.956477357868405</v>
+        <v>1.956477357868471</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1134513067965557</v>
+        <v>0.1134513067965661</v>
       </c>
       <c r="L37" t="n">
-        <v>1.695610889233607</v>
+        <v>1.695610889233704</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4184545770977214</v>
+        <v>0.4184545770977668</v>
       </c>
     </row>
     <row r="38">
@@ -2059,40 +2059,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.493880020264613</v>
+        <v>4.493880020264723</v>
       </c>
       <c r="C38" t="n">
-        <v>3.466347344214464</v>
+        <v>3.466347344214547</v>
       </c>
       <c r="D38" t="n">
-        <v>7.622532373948071</v>
+        <v>7.622532373948214</v>
       </c>
       <c r="E38" t="n">
-        <v>2.98666647316196</v>
+        <v>2.986666473162005</v>
       </c>
       <c r="F38" t="n">
-        <v>4.740245786656458</v>
+        <v>4.740245786656569</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6961891479726618</v>
+        <v>0.6961891479726743</v>
       </c>
       <c r="H38" t="n">
-        <v>5.843919479931562</v>
+        <v>5.843919479931665</v>
       </c>
       <c r="I38" t="n">
-        <v>1.403759624087298</v>
+        <v>1.403759624087322</v>
       </c>
       <c r="J38" t="n">
-        <v>4.302787204344503</v>
+        <v>4.302787204344589</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3192730799954616</v>
+        <v>0.3192730799954682</v>
       </c>
       <c r="L38" t="n">
-        <v>2.800141668477021</v>
+        <v>2.800141668477115</v>
       </c>
       <c r="M38" t="n">
-        <v>1.106630790477166</v>
+        <v>1.106630790477185</v>
       </c>
     </row>
     <row r="39">
@@ -2102,40 +2102,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.007291578849282</v>
+        <v>4.007291578849437</v>
       </c>
       <c r="C39" t="n">
-        <v>5.517849356530284</v>
+        <v>5.517849356530459</v>
       </c>
       <c r="D39" t="n">
-        <v>6.530261040181577</v>
+        <v>6.530261040181754</v>
       </c>
       <c r="E39" t="n">
-        <v>2.920083091091541</v>
+        <v>2.92008309109163</v>
       </c>
       <c r="F39" t="n">
-        <v>4.676844763538558</v>
+        <v>4.676844763538723</v>
       </c>
       <c r="G39" t="n">
-        <v>1.06709074803503</v>
+        <v>1.067090748035084</v>
       </c>
       <c r="H39" t="n">
-        <v>4.723969475767152</v>
+        <v>4.723969475767338</v>
       </c>
       <c r="I39" t="n">
-        <v>1.022377674149757</v>
+        <v>1.022377674149816</v>
       </c>
       <c r="J39" t="n">
-        <v>4.433014487211589</v>
+        <v>4.433014487211694</v>
       </c>
       <c r="K39" t="n">
-        <v>1.045906054019637</v>
+        <v>1.045906054019685</v>
       </c>
       <c r="L39" t="n">
-        <v>2.537683345479844</v>
+        <v>2.537683345479942</v>
       </c>
       <c r="M39" t="n">
-        <v>1.560677796894563</v>
+        <v>1.560677796894632</v>
       </c>
     </row>
     <row r="40">
@@ -2145,40 +2145,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.478264137099703</v>
+        <v>3.478264137099837</v>
       </c>
       <c r="C40" t="n">
-        <v>5.882842785336183</v>
+        <v>5.882842785336321</v>
       </c>
       <c r="D40" t="n">
-        <v>5.046645115708706</v>
+        <v>5.04664511570887</v>
       </c>
       <c r="E40" t="n">
-        <v>1.947922251679552</v>
+        <v>1.947922251679627</v>
       </c>
       <c r="F40" t="n">
-        <v>4.209710993248582</v>
+        <v>4.20971099324877</v>
       </c>
       <c r="G40" t="n">
-        <v>1.65493497256198</v>
+        <v>1.65493497256203</v>
       </c>
       <c r="H40" t="n">
-        <v>3.916927242992584</v>
+        <v>3.91692724299275</v>
       </c>
       <c r="I40" t="n">
-        <v>1.335885417954152</v>
+        <v>1.335885417954182</v>
       </c>
       <c r="J40" t="n">
-        <v>3.145363818575121</v>
+        <v>3.14536381857523</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6629103085592865</v>
+        <v>0.6629103085593224</v>
       </c>
       <c r="L40" t="n">
-        <v>1.886180612571152</v>
+        <v>1.886180612571235</v>
       </c>
       <c r="M40" t="n">
-        <v>1.707057090981996</v>
+        <v>1.707057090982055</v>
       </c>
     </row>
     <row r="41">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.661738929062909</v>
+        <v>3.661738929063043</v>
       </c>
       <c r="C41" t="n">
-        <v>3.235452145711198</v>
+        <v>3.235452145711311</v>
       </c>
       <c r="D41" t="n">
-        <v>4.589556196093861</v>
+        <v>4.589556196094013</v>
       </c>
       <c r="E41" t="n">
-        <v>4.847534983904763</v>
+        <v>4.84753498390487</v>
       </c>
       <c r="F41" t="n">
-        <v>3.747372555214562</v>
+        <v>3.747372555214724</v>
       </c>
       <c r="G41" t="n">
-        <v>1.00819579399632</v>
+        <v>1.008195793996351</v>
       </c>
       <c r="H41" t="n">
-        <v>3.882676901321079</v>
+        <v>3.882676901321212</v>
       </c>
       <c r="I41" t="n">
-        <v>1.451723761842826</v>
+        <v>1.451723761842884</v>
       </c>
       <c r="J41" t="n">
-        <v>2.515316171951735</v>
+        <v>2.515316171951811</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6841270623759239</v>
+        <v>0.6841270623759399</v>
       </c>
       <c r="L41" t="n">
-        <v>1.652115149422022</v>
+        <v>1.652115149422087</v>
       </c>
       <c r="M41" t="n">
-        <v>1.312301969679873</v>
+        <v>1.312301969679915</v>
       </c>
     </row>
     <row r="42">
@@ -2231,40 +2231,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.533344168365614</v>
+        <v>4.533344168365746</v>
       </c>
       <c r="C42" t="n">
-        <v>5.500636426798977</v>
+        <v>5.500636426799156</v>
       </c>
       <c r="D42" t="n">
-        <v>3.913174521461175</v>
+        <v>3.913174521461279</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8790653866306027</v>
+        <v>0.8790653866306332</v>
       </c>
       <c r="F42" t="n">
-        <v>4.759826953675192</v>
+        <v>4.759826953675333</v>
       </c>
       <c r="G42" t="n">
-        <v>0.909994631307058</v>
+        <v>0.9099946313070808</v>
       </c>
       <c r="H42" t="n">
-        <v>2.66102484785051</v>
+        <v>2.661024847850618</v>
       </c>
       <c r="I42" t="n">
-        <v>2.00098812704136</v>
+        <v>2.000988127041439</v>
       </c>
       <c r="J42" t="n">
-        <v>2.406079178659963</v>
+        <v>2.406079178660039</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2400518530466784</v>
+        <v>0.2400518530466877</v>
       </c>
       <c r="L42" t="n">
-        <v>2.00539707419667</v>
+        <v>2.005397074196748</v>
       </c>
       <c r="M42" t="n">
-        <v>1.581824424165247</v>
+        <v>1.581824424165301</v>
       </c>
     </row>
     <row r="43">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.159103731857659</v>
+        <v>5.159103731857688</v>
       </c>
       <c r="C43" t="n">
-        <v>5.215151496056788</v>
+        <v>5.215151496056873</v>
       </c>
       <c r="D43" t="n">
-        <v>3.882642400611658</v>
+        <v>3.882642400611714</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8710409486620321</v>
+        <v>0.8710409486620624</v>
       </c>
       <c r="F43" t="n">
-        <v>5.204242872061915</v>
+        <v>5.204242872062077</v>
       </c>
       <c r="G43" t="n">
-        <v>1.322270342688912</v>
+        <v>1.32227034268894</v>
       </c>
       <c r="H43" t="n">
-        <v>12.26869330343483</v>
+        <v>12.26869330343493</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7800400278278393</v>
+        <v>0.7800400278278595</v>
       </c>
       <c r="J43" t="n">
-        <v>2.366839410948643</v>
+        <v>2.366839410948712</v>
       </c>
       <c r="K43" t="n">
-        <v>1.040609454355198</v>
+        <v>1.040609454355221</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4314782382381847</v>
+        <v>0.4314782382382003</v>
       </c>
       <c r="M43" t="n">
-        <v>1.542229740507946</v>
+        <v>1.542229740507999</v>
       </c>
     </row>
     <row r="44">
@@ -2317,40 +2317,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.266688616385667</v>
+        <v>5.266688616385752</v>
       </c>
       <c r="C44" t="n">
-        <v>5.042811025361407</v>
+        <v>5.042811025361512</v>
       </c>
       <c r="D44" t="n">
-        <v>7.518641015043603</v>
+        <v>7.518641015043721</v>
       </c>
       <c r="E44" t="n">
-        <v>2.003042305943279</v>
+        <v>2.003042305943328</v>
       </c>
       <c r="F44" t="n">
-        <v>5.64535417041115</v>
+        <v>5.64535417041127</v>
       </c>
       <c r="G44" t="n">
-        <v>1.675435244372856</v>
+        <v>1.675435244372908</v>
       </c>
       <c r="H44" t="n">
-        <v>3.850282061350147</v>
+        <v>3.850282061350204</v>
       </c>
       <c r="I44" t="n">
-        <v>1.308485294627356</v>
+        <v>1.308485294627403</v>
       </c>
       <c r="J44" t="n">
-        <v>3.234685625554513</v>
+        <v>3.234685625554577</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25536542437031</v>
+        <v>2.255365424370368</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7231260238049859</v>
+        <v>0.7231260238050127</v>
       </c>
       <c r="M44" t="n">
-        <v>1.907884945874936</v>
+        <v>1.90788494587499</v>
       </c>
     </row>
     <row r="45">
@@ -2360,40 +2360,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.756005056609954</v>
+        <v>3.756005056610023</v>
       </c>
       <c r="C45" t="n">
-        <v>7.238243417969771</v>
+        <v>7.238243417969832</v>
       </c>
       <c r="D45" t="n">
-        <v>5.337972555194977</v>
+        <v>5.337972555195054</v>
       </c>
       <c r="E45" t="n">
-        <v>1.698968231385964</v>
+        <v>1.698968231386004</v>
       </c>
       <c r="F45" t="n">
-        <v>4.585721670840257</v>
+        <v>4.585721670840353</v>
       </c>
       <c r="G45" t="n">
-        <v>1.156725460385585</v>
+        <v>1.156725460385617</v>
       </c>
       <c r="H45" t="n">
-        <v>3.579182359004768</v>
+        <v>3.579182359004864</v>
       </c>
       <c r="I45" t="n">
-        <v>1.899686265911795</v>
+        <v>1.89968626591184</v>
       </c>
       <c r="J45" t="n">
-        <v>3.030380548151639</v>
+        <v>3.030380548151694</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3966820780751896</v>
+        <v>0.3966820780751992</v>
       </c>
       <c r="L45" t="n">
-        <v>1.142192681094794</v>
+        <v>1.14219268109484</v>
       </c>
       <c r="M45" t="n">
-        <v>1.744687832605958</v>
+        <v>1.744687832606014</v>
       </c>
     </row>
     <row r="46">
@@ -2403,40 +2403,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.571904939531124</v>
+        <v>3.571904939531226</v>
       </c>
       <c r="C46" t="n">
-        <v>2.630687609756189</v>
+        <v>2.630687609756267</v>
       </c>
       <c r="D46" t="n">
-        <v>6.459412974495072</v>
+        <v>6.459412974495295</v>
       </c>
       <c r="E46" t="n">
-        <v>1.720366372250792</v>
+        <v>1.720366372250842</v>
       </c>
       <c r="F46" t="n">
-        <v>4.900132443548619</v>
+        <v>4.900132443548761</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7968271441612296</v>
+        <v>0.7968271441612644</v>
       </c>
       <c r="H46" t="n">
-        <v>5.559105150780877</v>
+        <v>5.559105150781045</v>
       </c>
       <c r="I46" t="n">
-        <v>1.017817204790259</v>
+        <v>1.017817204790302</v>
       </c>
       <c r="J46" t="n">
-        <v>4.854350152978957</v>
+        <v>4.85435015297909</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4537797439748827</v>
+        <v>0.4537797439748941</v>
       </c>
       <c r="L46" t="n">
-        <v>2.939688805165168</v>
+        <v>2.939688805165281</v>
       </c>
       <c r="M46" t="n">
-        <v>1.870490810206781</v>
+        <v>1.870490810206846</v>
       </c>
     </row>
     <row r="47">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.431676569375357</v>
+        <v>2.431676569375425</v>
       </c>
       <c r="C47" t="n">
-        <v>2.711744193493775</v>
+        <v>2.711744193493841</v>
       </c>
       <c r="D47" t="n">
-        <v>3.220326355476719</v>
+        <v>3.220326355476774</v>
       </c>
       <c r="E47" t="n">
-        <v>1.11969593370607</v>
+        <v>1.119695933706098</v>
       </c>
       <c r="F47" t="n">
-        <v>2.818724978084983</v>
+        <v>2.818724978085052</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8544971566526586</v>
+        <v>0.8544971566526912</v>
       </c>
       <c r="H47" t="n">
-        <v>2.555214657726184</v>
+        <v>2.555214657726266</v>
       </c>
       <c r="I47" t="n">
-        <v>1.215769536271922</v>
+        <v>1.215769536271966</v>
       </c>
       <c r="J47" t="n">
-        <v>2.455255988098558</v>
+        <v>2.455255988098618</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4137226542158411</v>
+        <v>0.4137226542158582</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9413886666349899</v>
+        <v>0.9413886666350241</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07235731386796</v>
+        <v>1.072357313868008</v>
       </c>
     </row>
     <row r="48">
@@ -2489,40 +2489,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.402612617600906</v>
+        <v>4.402612617601005</v>
       </c>
       <c r="C48" t="n">
-        <v>5.555314596012923</v>
+        <v>5.55531459601301</v>
       </c>
       <c r="D48" t="n">
-        <v>7.212692711107515</v>
+        <v>7.212692711107638</v>
       </c>
       <c r="E48" t="n">
-        <v>1.358278932583457</v>
+        <v>1.358278932583501</v>
       </c>
       <c r="F48" t="n">
-        <v>3.658816003602247</v>
+        <v>3.658816003602348</v>
       </c>
       <c r="G48" t="n">
-        <v>1.003819009397435</v>
+        <v>1.003819009397482</v>
       </c>
       <c r="H48" t="n">
-        <v>3.390943167108091</v>
+        <v>3.390943167108179</v>
       </c>
       <c r="I48" t="n">
-        <v>1.432684730661668</v>
+        <v>1.432684730661727</v>
       </c>
       <c r="J48" t="n">
-        <v>3.072767083947088</v>
+        <v>3.072767083947173</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4426673157367243</v>
+        <v>0.4426673157367432</v>
       </c>
       <c r="L48" t="n">
-        <v>1.077950953010329</v>
+        <v>1.077950953010375</v>
       </c>
       <c r="M48" t="n">
-        <v>1.484258833916217</v>
+        <v>1.484258833916276</v>
       </c>
     </row>
     <row r="49">
@@ -2532,40 +2532,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.666981048839695</v>
+        <v>3.666981048839784</v>
       </c>
       <c r="C49" t="n">
-        <v>6.100993916830713</v>
+        <v>6.100993916830836</v>
       </c>
       <c r="D49" t="n">
-        <v>9.551553927280684</v>
+        <v>9.55155392728077</v>
       </c>
       <c r="E49" t="n">
-        <v>1.690783801839371</v>
+        <v>1.690783801839413</v>
       </c>
       <c r="F49" t="n">
-        <v>5.969382153589764</v>
+        <v>5.969382153589869</v>
       </c>
       <c r="G49" t="n">
-        <v>1.126620353659996</v>
+        <v>1.126620353660029</v>
       </c>
       <c r="H49" t="n">
-        <v>5.369084994386836</v>
+        <v>5.369084994386913</v>
       </c>
       <c r="I49" t="n">
-        <v>1.220505716422192</v>
+        <v>1.220505716422229</v>
       </c>
       <c r="J49" t="n">
-        <v>3.8150345925843</v>
+        <v>3.815034592584401</v>
       </c>
       <c r="K49" t="n">
-        <v>1.10081119199805</v>
+        <v>1.100811191998087</v>
       </c>
       <c r="L49" t="n">
-        <v>1.843440111285684</v>
+        <v>1.843440111285748</v>
       </c>
       <c r="M49" t="n">
-        <v>2.250708338439579</v>
+        <v>2.250708338439641</v>
       </c>
     </row>
     <row r="50">
@@ -2575,40 +2575,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.879483691548372</v>
+        <v>7.879483691548513</v>
       </c>
       <c r="C50" t="n">
-        <v>4.452019216018382</v>
+        <v>4.452019216018526</v>
       </c>
       <c r="D50" t="n">
-        <v>6.008649446791724</v>
+        <v>6.008649446791869</v>
       </c>
       <c r="E50" t="n">
-        <v>1.745626288693652</v>
+        <v>1.745626288693682</v>
       </c>
       <c r="F50" t="n">
-        <v>5.085352240352288</v>
+        <v>5.08535224035237</v>
       </c>
       <c r="G50" t="n">
-        <v>1.77819178439284</v>
+        <v>1.778191784392893</v>
       </c>
       <c r="H50" t="n">
-        <v>9.10410334315066</v>
+        <v>9.104103343150802</v>
       </c>
       <c r="I50" t="n">
-        <v>4.565789448499321</v>
+        <v>4.565789448499379</v>
       </c>
       <c r="J50" t="n">
-        <v>5.563032542515461</v>
+        <v>5.563032542515567</v>
       </c>
       <c r="K50" t="n">
-        <v>1.044391506506759</v>
+        <v>1.044391506506796</v>
       </c>
       <c r="L50" t="n">
-        <v>1.607840916801565</v>
+        <v>1.607840916801635</v>
       </c>
       <c r="M50" t="n">
-        <v>1.471520933978762</v>
+        <v>1.471520933978803</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.962818001598307</v>
+        <v>3.962818001598389</v>
       </c>
     </row>
     <row r="3">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.409583784508562</v>
+        <v>6.409583784508648</v>
       </c>
     </row>
     <row r="4">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.184000748634072</v>
+        <v>5.184000748634162</v>
       </c>
     </row>
     <row r="5">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.846980610469811</v>
+        <v>1.846980610469851</v>
       </c>
     </row>
     <row r="6">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.635389517203453</v>
+        <v>4.63538951720356</v>
       </c>
     </row>
     <row r="7">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.531378736105014</v>
+        <v>1.531378736105046</v>
       </c>
     </row>
     <row r="8">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.614134561885865</v>
+        <v>4.614134561885957</v>
       </c>
     </row>
     <row r="9">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.378185335284848</v>
+        <v>1.37818533528489</v>
       </c>
     </row>
     <row r="10">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.072560318507953</v>
+        <v>3.072560318507993</v>
       </c>
     </row>
     <row r="11">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6964971603713491</v>
+        <v>0.6964971603713522</v>
       </c>
     </row>
     <row r="12">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.336414013114835</v>
+        <v>1.336414013114877</v>
       </c>
     </row>
     <row r="13">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.95695804887232</v>
+        <v>1.956958048872367</v>
       </c>
     </row>
   </sheetData>
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01012233173029103</v>
+        <v>0.01012233173029181</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05284647177491842</v>
+        <v>-0.05284647177491739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02326445321585514</v>
+        <v>0.02326445321585592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06290365371592792</v>
+        <v>0.06290365371592928</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02783429113022585</v>
+        <v>0.02783429113022679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01649144436191272</v>
+        <v>0.01649144436191346</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03317525833216699</v>
+        <v>0.03317525833216771</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002790687910166713</v>
+        <v>0.002790687910167082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01243902294480231</v>
+        <v>0.01243902294480242</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01148232600778246</v>
+        <v>0.01148232600778276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005659550105779774</v>
+        <v>0.005659550105780196</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00657985341080527</v>
+        <v>0.006579853410805738</v>
       </c>
     </row>
     <row r="3">
@@ -2891,40 +2891,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.004733597974205</v>
+        <v>4.004733597974298</v>
       </c>
       <c r="C3" t="n">
-        <v>7.614627387479008</v>
+        <v>7.614627387479086</v>
       </c>
       <c r="D3" t="n">
-        <v>4.994046645151755</v>
+        <v>4.994046645151863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2348079105261807</v>
+        <v>0.2348079105261913</v>
       </c>
       <c r="F3" t="n">
-        <v>3.831557783902946</v>
+        <v>3.831557783903058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7733159679751838</v>
+        <v>0.7733159679751954</v>
       </c>
       <c r="H3" t="n">
-        <v>4.867294307214115</v>
+        <v>4.867294307214226</v>
       </c>
       <c r="I3" t="n">
-        <v>1.44257733450195</v>
+        <v>1.442577334501988</v>
       </c>
       <c r="J3" t="n">
-        <v>2.915229059659206</v>
+        <v>2.915229059659247</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3005661296920673</v>
+        <v>0.3005661296920626</v>
       </c>
       <c r="L3" t="n">
-        <v>1.614340162842374</v>
+        <v>1.614340162842436</v>
       </c>
       <c r="M3" t="n">
-        <v>1.503899119200185</v>
+        <v>1.50389911920022</v>
       </c>
     </row>
     <row r="4">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.153881038190756</v>
+        <v>0.1538810381907677</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.214717995908595</v>
+        <v>-0.2147179959085907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2796648351404957</v>
+        <v>0.2796648351405039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6750434708824057</v>
+        <v>0.6750434708824087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4189081396764503</v>
+        <v>0.4189081396764599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4978634864243157</v>
+        <v>0.4978634864243208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1514079568269954</v>
+        <v>0.1514079568269982</v>
       </c>
       <c r="I4" t="n">
-        <v>0.071906644116507</v>
+        <v>0.07190664411651566</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1912525237197422</v>
+        <v>0.191252523719741</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5133896547619708</v>
+        <v>0.5133896547620183</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1296041454343523</v>
+        <v>0.1296041454343576</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1946520843170517</v>
+        <v>0.1946520843170642</v>
       </c>
     </row>
     <row r="5">
@@ -2977,40 +2977,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2911220037172457</v>
+        <v>0.2911220037172084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1384556168006067</v>
+        <v>0.1384556168006148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05163742519284657</v>
+        <v>0.05163742519283938</v>
       </c>
       <c r="E5" t="n">
-        <v>1.039261905479078e-07</v>
+        <v>1.039261905478894e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002737507969983532</v>
+        <v>0.002737507969982851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002726722146920147</v>
+        <v>0.0002726722146919703</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2990386441457336</v>
+        <v>0.2990386441457246</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6234343131275377</v>
+        <v>0.6234343131274958</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1880410231971119</v>
+        <v>0.1880410231971147</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001616926132191253</v>
+        <v>0.0001616926132188605</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3747773423988797</v>
+        <v>0.3747773423988602</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1801640438904282</v>
+        <v>0.1801640438903997</v>
       </c>
     </row>
     <row r="6">
@@ -3020,40 +3020,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009480751458213083</v>
+        <v>0.009480751458213076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03506300865263177</v>
+        <v>0.03506300865263182</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01164988088710018</v>
+        <v>0.0116498808871002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0100281512756362</v>
+        <v>0.01002815127563633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00880059374415066</v>
+        <v>0.008800593744150716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00419031341558827</v>
+        <v>0.004190313415588398</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03159226591811192</v>
+        <v>0.03159226591811202</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005646347910316932</v>
+        <v>0.005646347910316994</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009311905314486502</v>
+        <v>0.009311905314486644</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002799625113180301</v>
+        <v>0.002799625113180021</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006315905642181335</v>
+        <v>0.006315905642181544</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004836383412112447</v>
+        <v>0.004836383412112468</v>
       </c>
     </row>
     <row r="7">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0236793739146649</v>
+        <v>0.02367937391466851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04610381776700342</v>
+        <v>0.04610381776700157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07821242001416065</v>
+        <v>0.07821242001416524</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4556836875809653</v>
+        <v>0.4556836875809693</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1754840294871844</v>
+        <v>0.1754840294871924</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2478680511145747</v>
+        <v>0.2478680511145798</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0229243693905253</v>
+        <v>0.02292436939052614</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005170565468097991</v>
+        <v>0.005170565468099237</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03657752782917055</v>
+        <v>0.03657752782917009</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2635689376166156</v>
+        <v>0.2635689376166643</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01679723451376873</v>
+        <v>0.0167972345137701</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03788943392897259</v>
+        <v>0.03788943392897746</v>
       </c>
     </row>
   </sheetData>
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07643634989937616</v>
+        <v>0.07643634989938952</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5697369951189435</v>
+        <v>-0.5697369951189181</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05964101215485021</v>
+        <v>-0.05964101215483642</v>
       </c>
       <c r="E2" t="n">
         <v>0.7534778119874864</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1711178045083787</v>
+        <v>-0.1711178045083588</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05792745337768428</v>
+        <v>-0.0579274533776784</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1771820466375827</v>
+        <v>0.1771820466375928</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3193336222197726</v>
+        <v>-0.3193336222197447</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07155859859949171</v>
+        <v>-0.07155859859947239</v>
       </c>
       <c r="K2" t="n">
-        <v>0.534859728349658</v>
+        <v>0.5348597283496714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008792123504631913</v>
+        <v>0.008792123504635435</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3998482098231172</v>
+        <v>-0.3998482098231074</v>
       </c>
     </row>
     <row r="3">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3075481596357768</v>
+        <v>0.3075481596357791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7618671113300083</v>
+        <v>0.7618671113300081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3100082301165175</v>
+        <v>0.3100082301165224</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2064480495978159</v>
+        <v>0.2064480495978377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1905727663329738</v>
+        <v>0.1905727663329775</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2844529982551834</v>
+        <v>0.2844529982551986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.309782459153402</v>
+        <v>0.3097824591534</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3040733256444487</v>
+        <v>0.304073325644451</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1996969786877796</v>
+        <v>-0.1996969786877592</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1140319452924521</v>
+        <v>0.1140319452924947</v>
       </c>
       <c r="L3" t="n">
-        <v>1.223156511084461</v>
+        <v>1.22315651108445</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1401162535260735</v>
+        <v>-0.1401162535260543</v>
       </c>
     </row>
     <row r="4">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2409558194864307</v>
+        <v>0.2409558194864438</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2224143190688856</v>
+        <v>-0.2224143190688734</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2471880262086588</v>
+        <v>0.2471880262086646</v>
       </c>
       <c r="E4" t="n">
-        <v>1.174331157335865</v>
+        <v>1.174331157335866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3838229562392746</v>
+        <v>0.3838229562392768</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2854785562862778</v>
+        <v>0.2854785562862981</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1718587119199801</v>
+        <v>0.1718587119199952</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5285741986420259</v>
+        <v>0.5285741986420321</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1182790906347276</v>
+        <v>0.1182790906347472</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2944077336214419</v>
+        <v>0.2944077336214664</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3898803777712514</v>
+        <v>0.3898803777712592</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1345611410889323</v>
+        <v>-0.134561141088912</v>
       </c>
     </row>
     <row r="5">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1116414980407608</v>
+        <v>-0.1116414980407333</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1531319410414769</v>
+        <v>-0.1531319410414731</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2430744639733353</v>
+        <v>-0.243074463973312</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.32463139197629</v>
+        <v>-0.3246313919762692</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2172203032122239</v>
+        <v>-0.2172203032122044</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9170428609611099</v>
+        <v>-0.9170428609610803</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2056346276502236</v>
+        <v>0.205634627650246</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1837603976912612</v>
+        <v>-0.1837603976912374</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1166526123956557</v>
+        <v>-0.1166526123956273</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.9630474365688164</v>
+        <v>-0.9630474365687723</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05942247603357242</v>
+        <v>0.05942247603359398</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4152528985176241</v>
+        <v>-0.4152528985175994</v>
       </c>
     </row>
     <row r="6">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4963386214025804</v>
+        <v>0.4963386214025712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8906013977017351</v>
+        <v>0.8906013977017262</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1534406000714146</v>
+        <v>-0.1534406000714099</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1635297352197199</v>
+        <v>0.1635297352197195</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3346576863072021</v>
+        <v>-0.3346576863072014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1130525704038594</v>
+        <v>0.1130525704038642</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1234446853012625</v>
+        <v>0.1234446853012629</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4986026645271311</v>
+        <v>0.4986026645271287</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01186514853804558</v>
+        <v>0.01186514853805194</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4294741302973769</v>
+        <v>-0.4294741302973523</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4486048603428107</v>
+        <v>-0.4486048603427942</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.9144952010385229</v>
+        <v>-0.91449520103851</v>
       </c>
     </row>
     <row r="7">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3711413243458415</v>
+        <v>0.3711413243458409</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1981463601819948</v>
+        <v>-0.1981463601819807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.442350911787684</v>
+        <v>0.4423509117876857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7294614676903852</v>
+        <v>0.7294614676903824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3504806686670502</v>
+        <v>0.3504806686670532</v>
       </c>
       <c r="G7" t="n">
-        <v>0.13917009945668</v>
+        <v>0.1391700994566812</v>
       </c>
       <c r="H7" t="n">
-        <v>0.469601258681398</v>
+        <v>0.4696012586813931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6654554692953397</v>
+        <v>0.6654554692953374</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6795632649050912</v>
+        <v>0.6795632649050941</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5466184616788617</v>
+        <v>0.5466184616788865</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9691949310219578</v>
+        <v>0.9691949310219599</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3519419423813648</v>
+        <v>0.3519419423813597</v>
       </c>
     </row>
     <row r="8">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06484383495281988</v>
+        <v>-0.06484383495279784</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8869484345252827</v>
+        <v>-0.886948434525256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0521436979177733</v>
+        <v>0.05214369791778447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04527621018090282</v>
+        <v>0.04527621018092404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4083128226987597</v>
+        <v>0.4083128226987618</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4241492536896168</v>
+        <v>0.4241492536896466</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3559371028560981</v>
+        <v>0.3559371028561047</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3127681155047324</v>
+        <v>-0.312768115504706</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2861413833380982</v>
+        <v>-0.2861413833380723</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2959935966766136</v>
+        <v>0.2959935966766549</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4600153406634662</v>
+        <v>0.4600153406634832</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.09219186526040915</v>
+        <v>-0.09219186526038201</v>
       </c>
     </row>
     <row r="9">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.04918870393918834</v>
+        <v>-0.0491887039391888</v>
       </c>
       <c r="C9" t="n">
-        <v>1.647952747254621</v>
+        <v>1.64795274725461</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5919676529245211</v>
+        <v>0.5919676529245101</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2813384494791793</v>
+        <v>0.2813384494791719</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3053466007636611</v>
+        <v>-0.3053466007636617</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5774767050460224</v>
+        <v>0.5774767050460186</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2574622628015244</v>
+        <v>-0.2574622628015201</v>
       </c>
       <c r="I9" t="n">
-        <v>0.145083506040528</v>
+        <v>0.1450835060405209</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01477650305934223</v>
+        <v>0.01477650305935054</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6882421417985473</v>
+        <v>0.6882421417985671</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4197937870835352</v>
+        <v>0.4197937870835342</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5343602678479592</v>
+        <v>0.534360267847958</v>
       </c>
     </row>
     <row r="10">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1052572194698543</v>
+        <v>0.1052572194698723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1869190930357388</v>
+        <v>0.1869190930357418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1793461805104816</v>
+        <v>0.1793461805104901</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5608980530145268</v>
+        <v>-0.5608980530145022</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09849926009318334</v>
+        <v>0.09849926009319541</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1776207667170272</v>
+        <v>-0.1776207667169675</v>
       </c>
       <c r="H10" t="n">
-        <v>0.793885365739224</v>
+        <v>0.7938853657392213</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002596833884227131</v>
+        <v>-0.002596833884212995</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2270789431580373</v>
+        <v>-0.2270789431580108</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.684747846640953</v>
+        <v>-0.6847478466408938</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1970417310233135</v>
+        <v>0.1970417310233321</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.5638702638253033</v>
+        <v>-0.5638702638252638</v>
       </c>
     </row>
     <row r="11">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05403013033052408</v>
+        <v>-0.05403013033050568</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6238395509699587</v>
+        <v>-0.6238395509699421</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1885626900906732</v>
+        <v>0.1885626900906842</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3648452852348585</v>
+        <v>0.3648452852348688</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07383370512233169</v>
+        <v>-0.07383370512231339</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6275081233969849</v>
+        <v>-0.6275081233969766</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1235942841625972</v>
+        <v>0.1235942841626089</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1367094905890664</v>
+        <v>-0.1367094905890568</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2623650947854215</v>
+        <v>-0.2623650947854169</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1691575666352526</v>
+        <v>-0.1691575666352302</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2884247428290835</v>
+        <v>0.2884247428290999</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.202178699413014</v>
+        <v>-0.2021786994130076</v>
       </c>
     </row>
     <row r="12">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1500606013337654</v>
+        <v>-0.1500606013337567</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5450586283153386</v>
+        <v>-0.5450586283153219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05876020632953968</v>
+        <v>0.0587602063295489</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6482613377098884</v>
+        <v>0.6482613377098938</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06832147419401671</v>
+        <v>-0.06832147419400054</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06385437121270345</v>
+        <v>-0.06385437121269705</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3178899703970042</v>
+        <v>0.3178899703970096</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1436794974705649</v>
+        <v>-0.1436794974705502</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.06878872096989709</v>
+        <v>-0.06878872096987484</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.04920092510798368</v>
+        <v>-0.04920092510796012</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1328380345266282</v>
+        <v>0.132838034526633</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1624077896668749</v>
+        <v>-0.1624077896668683</v>
       </c>
     </row>
     <row r="13">
@@ -3665,40 +3665,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.339751520804808</v>
+        <v>0.3397515208048187</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2115846499556893</v>
+        <v>-0.2115846499556788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2181511133369705</v>
+        <v>0.2181511133369787</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5662905674307862</v>
+        <v>0.5662905674308072</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01964203363547685</v>
+        <v>0.01964203363548839</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05512610611548014</v>
+        <v>0.05512610611548875</v>
       </c>
       <c r="H13" t="n">
-        <v>1.208632551562379</v>
+        <v>1.208632551562373</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1412311948236206</v>
+        <v>0.141231194823621</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2380133981348443</v>
+        <v>0.2380133981348632</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5193262254149021</v>
+        <v>0.5193262254149321</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1984048915027168</v>
+        <v>0.198404891502735</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.05484192541296676</v>
+        <v>-0.0548419254129507</v>
       </c>
     </row>
     <row r="14">
@@ -3708,40 +3708,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2164840224284407</v>
+        <v>0.2164840224284541</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5302719782159429</v>
+        <v>-0.530271978215921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07737914358137615</v>
+        <v>0.07737914358139115</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08789713882925178</v>
+        <v>-0.0878971388292256</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01715155537039178</v>
+        <v>-0.01715155537037168</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04149836261306918</v>
+        <v>-0.04149836261305077</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1733408190498016</v>
+        <v>0.1733408190498145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.44258147910637</v>
+        <v>-0.442581479106352</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3501499411101645</v>
+        <v>0.3501499411101847</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0674693458139526</v>
+        <v>0.06746934581398104</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4995884969884826</v>
+        <v>0.4995884969884898</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2000621377097505</v>
+        <v>-0.2000621377097321</v>
       </c>
     </row>
     <row r="15">
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1999387425465787</v>
+        <v>-0.1999387425465657</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153198574520445</v>
+        <v>0.1531985745204425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02395033482396503</v>
+        <v>0.0239503348239698</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1365765671655556</v>
+        <v>-0.136576567165544</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03227408489239468</v>
+        <v>0.03227408489240242</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1365783927310955</v>
+        <v>-0.1365783927310824</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.13857792552267</v>
+        <v>-0.1385779255226638</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2183597285140851</v>
+        <v>0.2183597285140929</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3567894751843731</v>
+        <v>-0.356789475184356</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.4490798744546671</v>
+        <v>-0.4490798744546396</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.08401659201083841</v>
+        <v>-0.08401659201082778</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.4619326931885464</v>
+        <v>-0.4619326931885379</v>
       </c>
     </row>
     <row r="16">
@@ -3794,40 +3794,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2624997953589305</v>
+        <v>0.2624997953589455</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1776624464170496</v>
+        <v>-0.1776624464170274</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3184692956067464</v>
+        <v>0.3184692956067558</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8711484742226568</v>
+        <v>0.8711484742226683</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2511587960287643</v>
+        <v>0.2511587960287744</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07919862032150629</v>
+        <v>0.07919862032151777</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4065810899982606</v>
+        <v>0.4065810899982643</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1932060085663772</v>
+        <v>-0.1932060085663632</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7283819238283639</v>
+        <v>0.7283819238283705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7192588481759544</v>
+        <v>0.7192588481759735</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7383164283839653</v>
+        <v>0.7383164283839774</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3075064974659732</v>
+        <v>0.3075064974659982</v>
       </c>
     </row>
     <row r="17">
@@ -3837,40 +3837,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05419589923829505</v>
+        <v>-0.05419589923828333</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6388774186818515</v>
+        <v>-0.6388774186818325</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1429909288517119</v>
+        <v>0.1429909288517194</v>
       </c>
       <c r="E17" t="n">
-        <v>0.284909946143931</v>
+        <v>0.2849099461439392</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04251772230937157</v>
+        <v>0.04251772230937987</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6716312035547004</v>
+        <v>-0.671631203554675</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3813683497797105</v>
+        <v>0.3813683497797103</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1989484238969626</v>
+        <v>-0.1989484238969484</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02867634698913272</v>
+        <v>-0.02867634698911741</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1211176760362312</v>
+        <v>-0.1211176760362019</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.04436328324758698</v>
+        <v>-0.0443632832475777</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.4347175240594858</v>
+        <v>-0.4347175240594652</v>
       </c>
     </row>
     <row r="18">
@@ -3880,40 +3880,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2776058076785047</v>
+        <v>-0.2776058076784911</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2781535077037875</v>
+        <v>-0.2781535077037676</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2073788578832345</v>
+        <v>0.2073788578832381</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.05727391347718824</v>
+        <v>-0.05727391347717284</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04874322976008907</v>
+        <v>-0.04874322976008196</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.122337082147918</v>
+        <v>-0.1223370821478937</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3364458411066722</v>
+        <v>0.3364458411066706</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4892517603278576</v>
+        <v>-0.4892517603278265</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.6527355359528141</v>
+        <v>-0.6527355359527884</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.05782901163576035</v>
+        <v>-0.05782901163573847</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03673197587365656</v>
+        <v>0.03673197587367026</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.3815128918242254</v>
+        <v>-0.3815128918242</v>
       </c>
     </row>
     <row r="19">
@@ -3923,40 +3923,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2830774900182479</v>
+        <v>0.2830774900182606</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3550551092620056</v>
+        <v>-0.3550551092619904</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1075764735525125</v>
+        <v>0.1075764735525232</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2557356943507705</v>
+        <v>0.2557356943507674</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7800844686104969</v>
+        <v>0.7800844686104927</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1566079510239417</v>
+        <v>-0.1566079510239202</v>
       </c>
       <c r="H19" t="n">
-        <v>1.895555242178106</v>
+        <v>1.895555242178091</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9050904434075371</v>
+        <v>0.9050904434075364</v>
       </c>
       <c r="J19" t="n">
-        <v>1.012501278605401</v>
+        <v>1.012501278605402</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.8445227482215762</v>
+        <v>-0.8445227482215335</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1207550185718878</v>
+        <v>0.1207550185719102</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7126261746574161</v>
+        <v>0.7126261746574077</v>
       </c>
     </row>
     <row r="20">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3318674864124092</v>
+        <v>0.3318674864124214</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2189063849578323</v>
+        <v>-0.2189063849578136</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.08151612429140122</v>
+        <v>-0.08151612429138243</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5724759532720756</v>
+        <v>-0.5724759532720447</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03125191817347738</v>
+        <v>-0.03125191817336993</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6070860769501066</v>
+        <v>-0.6070860769500888</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1715122293049289</v>
+        <v>0.1715122293049665</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1636714783908259</v>
+        <v>-0.1636714783907513</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.01546067575676638</v>
+        <v>-0.01546067575671452</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.6592193780824541</v>
+        <v>-0.6592193780823959</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4482354199317262</v>
+        <v>0.4482354199317479</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.2705253861228544</v>
+        <v>-0.2705253861228275</v>
       </c>
     </row>
     <row r="21">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1449306295138948</v>
+        <v>0.1449306295139111</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8269379990211033</v>
+        <v>-0.8269379990210762</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1669639833660253</v>
+        <v>-0.1669639833660098</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1529484999943405</v>
+        <v>0.1529484999943436</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1789125612885811</v>
+        <v>-0.1789125612885596</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3015107034930406</v>
+        <v>-0.3015107034930212</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1034226326072586</v>
+        <v>-0.1034226326072368</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2598633105164689</v>
+        <v>-0.2598633105164507</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.2888070568536831</v>
+        <v>-0.2888070568536651</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2728733642376666</v>
+        <v>-0.2728733642376431</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1208433982590921</v>
+        <v>-0.120843398259082</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.5440293317465114</v>
+        <v>-0.544029331746491</v>
       </c>
     </row>
     <row r="22">
@@ -4052,40 +4052,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7825465922802383</v>
+        <v>-0.7825465922802356</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7375679729919802</v>
+        <v>-0.7375679729919734</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01319888840711576</v>
+        <v>0.01319888840711006</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5222261453727333</v>
+        <v>-0.5222261453727398</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2471096242050766</v>
+        <v>0.2471096242050657</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6720210355207209</v>
+        <v>-0.6720210355207181</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.4120829059628461</v>
+        <v>-0.412082905962849</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7882745344527238</v>
+        <v>0.7882745344527036</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1533630859153371</v>
+        <v>-0.1533630859153287</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.260217797780454</v>
+        <v>-0.2602177977804383</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.045538069597093</v>
+        <v>-1.045538069597087</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1685533704244153</v>
+        <v>0.1685533704244069</v>
       </c>
     </row>
     <row r="23">
@@ -4095,40 +4095,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04539209891062019</v>
+        <v>-0.04539209891060335</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0700780685179782</v>
+        <v>-0.07007806851795415</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03980604029419711</v>
+        <v>-0.03980604029418983</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7712727007198509</v>
+        <v>0.7712727007198595</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2172347034256749</v>
+        <v>-0.2172347034256596</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.496032264075875</v>
+        <v>-0.4960322640758512</v>
       </c>
       <c r="H23" t="n">
-        <v>0.318353971428211</v>
+        <v>0.31835397142821</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1311932851301627</v>
+        <v>0.1311932851301859</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3669121187700755</v>
+        <v>0.366912118770091</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01112331551488747</v>
+        <v>0.01112331551492151</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2529858625121394</v>
+        <v>0.2529858625121493</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.3025652941731953</v>
+        <v>-0.3025652941731675</v>
       </c>
     </row>
     <row r="24">
@@ -4138,40 +4138,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.2789747168090913</v>
+        <v>-0.278974716809102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8412972197517021</v>
+        <v>0.8412972197516952</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.030663538775004</v>
+        <v>-1.030663538775005</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7225023841555563</v>
+        <v>-0.7225023841555656</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.348065700411796</v>
+        <v>-0.3480657004118181</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.146796724622459</v>
+        <v>-1.146796724622457</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1939704441745849</v>
+        <v>-0.1939704441745898</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2450393987220488</v>
+        <v>-0.2450393987220683</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.4805877656741905</v>
+        <v>-0.4805877656741885</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.214831387155661</v>
+        <v>-1.214831387155647</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9941186561030625</v>
+        <v>0.9941186561030385</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.8072643087149023</v>
+        <v>-0.8072643087149084</v>
       </c>
     </row>
     <row r="25">
@@ -4181,40 +4181,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.08866762427572829</v>
+        <v>-0.08866762427571701</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.752177379898316</v>
+        <v>-0.752177379898296</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3513791721655037</v>
+        <v>-0.3513791721654917</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1648474023951313</v>
+        <v>-0.1648474023951261</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1083451262261229</v>
+        <v>0.1083451262261311</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.05562743996312303</v>
+        <v>-0.05562743996312269</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09756129692923529</v>
+        <v>0.09756129692924295</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.05787436189597817</v>
+        <v>-0.05787436189596724</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2538486079508898</v>
+        <v>-0.2538486079508695</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1867792914843477</v>
+        <v>-0.186779291484318</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4476555280508238</v>
+        <v>0.4476555280508224</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1149427687938854</v>
+        <v>-0.1149427687938794</v>
       </c>
     </row>
     <row r="26">
@@ -4224,40 +4224,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2631939025078441</v>
+        <v>0.2631939025078496</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.8232403468579373</v>
+        <v>-0.8232403468579323</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20803848060627</v>
+        <v>0.2080384806062716</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.07992370912966537</v>
+        <v>-0.07992370912965863</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1912613902992361</v>
+        <v>0.1912613902992355</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3628303652544428</v>
+        <v>0.3628303652544423</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1092210845062253</v>
+        <v>-0.1092210845062268</v>
       </c>
       <c r="I26" t="n">
         <v>-0.1937826371000801</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1140440724003229</v>
+        <v>0.1140440724003342</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4007637119381086</v>
+        <v>0.4007637119381297</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.326175625851981</v>
+        <v>-0.326175625852023</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2291015529963981</v>
+        <v>0.2291015529963965</v>
       </c>
     </row>
     <row r="27">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8309815306953299</v>
+        <v>0.8309815306953029</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4019680553851502</v>
+        <v>-0.4019680553851824</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5535575463714287</v>
+        <v>0.5535575463714155</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3577390974272112</v>
+        <v>0.3577390974270803</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2149882433519262</v>
+        <v>0.2149882433519061</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1672557081372917</v>
+        <v>-0.1672557081375673</v>
       </c>
       <c r="H27" t="n">
-        <v>0.14246267616455</v>
+        <v>0.1424626761645292</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01804485147984313</v>
+        <v>0.01804485147976615</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06698297053626331</v>
+        <v>0.06698297053556808</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9371985230846991</v>
+        <v>0.9371985230842308</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6677645422921682</v>
+        <v>0.6677645422922664</v>
       </c>
       <c r="M27" t="n">
-        <v>0.230245881334626</v>
+        <v>0.2302458813344501</v>
       </c>
     </row>
     <row r="28">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.01666622690314886</v>
+        <v>-0.01666622690313701</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7175253073786205</v>
+        <v>-0.7175253073786025</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.08637548173920467</v>
+        <v>-0.08637548173917962</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4594667684915885</v>
+        <v>0.4594667684915828</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1532549480776418</v>
+        <v>0.1532549480776534</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.068683231782364</v>
+        <v>-1.068683231782331</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1844204980446181</v>
+        <v>-0.1844204980446046</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5374237331869443</v>
+        <v>-0.5374237331869349</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3388985984161755</v>
+        <v>0.3388985984161876</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.212368924218955</v>
+        <v>-1.212368924218889</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1782163114618325</v>
+        <v>-0.1782163114618255</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.3486386464771666</v>
+        <v>-0.3486386464771586</v>
       </c>
     </row>
     <row r="29">
@@ -4353,40 +4353,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1377117882338351</v>
+        <v>0.1377117882338458</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8368496178796202</v>
+        <v>-0.8368496178795841</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3916858415527658</v>
+        <v>0.3916858415527704</v>
       </c>
       <c r="E29" t="n">
-        <v>1.874923236296533</v>
+        <v>1.874923236296529</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5819089507976435</v>
+        <v>0.581908950797643</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9080010487835569</v>
+        <v>0.9080010487835766</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1111026989394515</v>
+        <v>-0.1111026989394304</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9894588428532847</v>
+        <v>0.9894588428532796</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6233693631202241</v>
+        <v>0.6233693631202355</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6517935905603005</v>
+        <v>0.6517935905603462</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3515205035660699</v>
+        <v>0.3515205035660827</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2693669124767513</v>
+        <v>0.2693669124767716</v>
       </c>
     </row>
     <row r="30">
@@ -4396,40 +4396,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2996533710346458</v>
+        <v>0.2996533710346569</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.7762770326670884</v>
+        <v>-0.7762770326670668</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242176392052342</v>
+        <v>0.2421763920523568</v>
       </c>
       <c r="E30" t="n">
-        <v>1.079655387595129</v>
+        <v>1.079655387595127</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08102408803924677</v>
+        <v>0.08102408803925802</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05246265821227013</v>
+        <v>0.05246265821228446</v>
       </c>
       <c r="H30" t="n">
-        <v>0.307609731027538</v>
+        <v>0.3076097310275443</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1268893870164306</v>
+        <v>0.126889387016448</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2007369464232631</v>
+        <v>0.2007369464232771</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.5003165779361235</v>
+        <v>-0.500316577936083</v>
       </c>
       <c r="L30" t="n">
-        <v>1.067745161725582</v>
+        <v>1.067745161725609</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2630546137470868</v>
+        <v>0.2630546137471173</v>
       </c>
     </row>
     <row r="31">
@@ -4439,40 +4439,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1586245441108909</v>
+        <v>-0.158624544110873</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7039980378814519</v>
+        <v>-0.7039980378814203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5535768552898442</v>
+        <v>0.5535768552898427</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3001759443632239</v>
+        <v>-0.3001759443632098</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0203918735014598</v>
+        <v>-0.02039187350144745</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7444499112404521</v>
+        <v>0.7444499112404671</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1919225588295567</v>
+        <v>0.1919225588295662</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4001870637040595</v>
+        <v>0.4001870637040687</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.1377561549710406</v>
+        <v>-0.1377561549710035</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.1151200694327251</v>
+        <v>-0.1151200694326879</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1733390845333744</v>
+        <v>0.17333908453347</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5057778563579737</v>
+        <v>0.5057778563579896</v>
       </c>
     </row>
     <row r="32">
@@ -4482,40 +4482,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1423235733038804</v>
+        <v>0.1423235733038783</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4627752415090773</v>
+        <v>-0.4627752415090732</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.07300180876798226</v>
+        <v>-0.07300180876798203</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8489006846184922</v>
+        <v>-0.8489006846184843</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1904838532280837</v>
+        <v>-0.1904838532280861</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3815533020266263</v>
+        <v>-0.3815533020266155</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.711528057692861</v>
+        <v>-0.7115280576928545</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.767290489137749</v>
+        <v>-0.7672904891377473</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.2851197617631817</v>
+        <v>-0.2851197617631706</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.123813354745614</v>
+        <v>-2.123813354745593</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.210789364844542</v>
+        <v>-1.210789364844505</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5206742192359601</v>
+        <v>-0.520674219235955</v>
       </c>
     </row>
     <row r="33">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04964269362919814</v>
+        <v>0.04964269362920659</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.7618529080187938</v>
+        <v>-0.7618529080187669</v>
       </c>
       <c r="D33" t="n">
-        <v>0.305325493246691</v>
+        <v>0.3053254932466944</v>
       </c>
       <c r="E33" t="n">
-        <v>1.025343802116678</v>
+        <v>1.02534380211668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1988249810253526</v>
+        <v>0.1988249810253582</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.007374486272555849</v>
+        <v>-0.007374486272540974</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3610811027845136</v>
+        <v>0.361081102784521</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1954457394979464</v>
+        <v>0.1954457394979614</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1438162271861759</v>
+        <v>-0.1438162271861573</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2060590501863408</v>
+        <v>0.2060590501863766</v>
       </c>
       <c r="L33" t="n">
-        <v>0.337878487065928</v>
+        <v>0.337878487065955</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.09840877163138438</v>
+        <v>-0.09840877163136651</v>
       </c>
     </row>
     <row r="34">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4550046711984365</v>
+        <v>0.4550046711984482</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3839384217287043</v>
+        <v>0.3839384217287181</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3738477513640097</v>
+        <v>0.3738477513640187</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7298775322499145</v>
+        <v>0.7298775322499182</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09138876428973441</v>
+        <v>-0.09138876428972505</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.2521888596633295</v>
+        <v>-0.2521888596633166</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9890561525616368</v>
+        <v>0.9890561525616332</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1077216959779679</v>
+        <v>-0.1077216959779508</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2284072159317845</v>
+        <v>0.2284072159318103</v>
       </c>
       <c r="K34" t="n">
-        <v>0.643121161947938</v>
+        <v>0.6431211619479599</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8371791868975839</v>
+        <v>0.8371791868975883</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1394186637140113</v>
+        <v>0.1394186637140166</v>
       </c>
     </row>
     <row r="35">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1931629027748923</v>
+        <v>-0.1931629027748829</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5918764276892137</v>
+        <v>-0.5918764276891975</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.09615544872995918</v>
+        <v>-0.09615544872994609</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.07862809894597594</v>
+        <v>-0.0786280989459721</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1767057403441671</v>
+        <v>-0.1767057403441568</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1460213637178865</v>
+        <v>0.1460213637178772</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5286680595800413</v>
+        <v>-0.5286680595800173</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03779222574936045</v>
+        <v>0.03779222574934998</v>
       </c>
       <c r="J35" t="n">
-        <v>0.006924900790623473</v>
+        <v>0.006924900790632073</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3321333220355017</v>
+        <v>-0.3321333220354846</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03986808804185067</v>
+        <v>0.0398680880418607</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.2957255549618262</v>
+        <v>-0.2957255549618265</v>
       </c>
     </row>
     <row r="36">
@@ -4654,40 +4654,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0330194132272696</v>
+        <v>0.03301941322727991</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.508870259097798</v>
+        <v>-0.5088702590977811</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2225655789834832</v>
+        <v>-0.2225655789834726</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2550299932603706</v>
+        <v>0.2550299932603687</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2253388939903228</v>
+        <v>-0.2253388939903164</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2839390292137526</v>
+        <v>-0.2839390292137559</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1764920367895573</v>
+        <v>0.1764920367895615</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1473432839658917</v>
+        <v>-0.1473432839658852</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.06228996446253311</v>
+        <v>-0.06228996446251858</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.06809100592997</v>
+        <v>-1.068091005929928</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0279062147623793</v>
+        <v>0.02790621476237412</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.3958476305725797</v>
+        <v>-0.3958476305725757</v>
       </c>
     </row>
     <row r="37">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.7818694401321854</v>
+        <v>-0.7818694401321551</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.069200940722852</v>
+        <v>-1.069200940722813</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5330388966224041</v>
+        <v>-0.5330388966223757</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.6818145308374062</v>
+        <v>-0.681814530837337</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5819875849365855</v>
+        <v>-0.5819875849365722</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.014092401682528</v>
+        <v>-2.014092401682468</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.7228012873099525</v>
+        <v>-0.7228012873098965</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.7138330440703982</v>
+        <v>-0.7138330440703334</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.451365604173316</v>
+        <v>-0.4513656041732955</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.814689986354335</v>
+        <v>-1.814689986354247</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2380531653645801</v>
+        <v>0.2380531653646062</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.542578184080836</v>
+        <v>-1.542578184080752</v>
       </c>
     </row>
     <row r="38">
@@ -4740,40 +4740,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.125761086893706</v>
+        <v>0.1257610868937097</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6146929356196421</v>
+        <v>-0.6146929356196317</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3855315435650454</v>
+        <v>0.3855315435650469</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4806056702178759</v>
+        <v>0.4806056702178692</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02236875436921695</v>
+        <v>0.02236875436921738</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7883023555757932</v>
+        <v>-0.7883023555757962</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2362773923970111</v>
+        <v>0.2362773923970087</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01838642363055549</v>
+        <v>0.01838642363054241</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3367518057728239</v>
+        <v>0.3367518057728307</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.7800169294887935</v>
+        <v>-0.7800169294887774</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7396800946214176</v>
+        <v>0.7396800946214204</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.5700711762454348</v>
+        <v>-0.5700711762454417</v>
       </c>
     </row>
     <row r="39">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01116020762340833</v>
+        <v>0.01116020762342634</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1498061615630905</v>
+        <v>-0.1498061615630721</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2308698145524492</v>
+        <v>0.2308698145524591</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4580598684172689</v>
+        <v>0.4580598684172774</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008903453013852841</v>
+        <v>0.008903453013865165</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3612324459274733</v>
+        <v>-0.361232445927444</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02352511364089821</v>
+        <v>0.02352511364091751</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.298636691705561</v>
+        <v>-0.2986366917055336</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3665686297943239</v>
+        <v>0.3665686297943345</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4065751098643235</v>
+        <v>0.4065751098643652</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6412616789695149</v>
+        <v>0.6412616789695225</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.2262710396478049</v>
+        <v>-0.2262710396477846</v>
       </c>
     </row>
     <row r="40">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1304220305921512</v>
+        <v>-0.1304220305921337</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.08575422463845798</v>
+        <v>-0.08575422463844794</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.02685341446545567</v>
+        <v>-0.0268534144654405</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05321108924370146</v>
+        <v>0.0532110892437181</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.09632623606489374</v>
+        <v>-0.09632623606487221</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07759325221838245</v>
+        <v>0.0775932522183917</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.1638168433159301</v>
+        <v>-0.1638168433159079</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.03117335296823675</v>
+        <v>-0.03117335296824442</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02341837104266267</v>
+        <v>0.02341837104268414</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0494240163873825</v>
+        <v>-0.04942401638733268</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3445640273456015</v>
+        <v>0.3445640273456145</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1366203632686955</v>
+        <v>-0.1366203632686848</v>
       </c>
     </row>
     <row r="41">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.07901723694148237</v>
+        <v>-0.07901723694146663</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6836256515890569</v>
+        <v>-0.6836256515890351</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.121793773368828</v>
+        <v>-0.1217937733688122</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9649181216935887</v>
+        <v>0.9649181216935889</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2126652912501512</v>
+        <v>-0.212665291250131</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.4180060734726472</v>
+        <v>-0.4180060734726373</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1725994843821229</v>
+        <v>-0.1725994843821086</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05198399223840609</v>
+        <v>0.05198399223841621</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.2001126838570281</v>
+        <v>-0.2001126838570107</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.01792005213610378</v>
+        <v>-0.0179200521360848</v>
       </c>
       <c r="L41" t="n">
-        <v>0.212066458545145</v>
+        <v>0.2120664585451534</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3996084278805481</v>
+        <v>-0.3996084278805403</v>
       </c>
     </row>
     <row r="42">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1345045053990841</v>
+        <v>0.1345045053990923</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1529305371029069</v>
+        <v>-0.1529305371028878</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2812281608041667</v>
+        <v>-0.2812281608041574</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.7424481998543088</v>
+        <v>-0.7424481998542959</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02649107959417705</v>
+        <v>0.02649107959418375</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.520485043486595</v>
+        <v>-0.5204850434865909</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.5504129934120306</v>
+        <v>-0.5504129934120102</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3728734626711436</v>
+        <v>0.3728734626711529</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.2445126681538267</v>
+        <v>-0.2445126681538084</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.065208761847435</v>
+        <v>-1.065208761847401</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4058521659796948</v>
+        <v>0.4058521659797026</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.2128123720110257</v>
+        <v>-0.2128123720110154</v>
       </c>
     </row>
     <row r="43">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2638074802776532</v>
+        <v>0.2638074802776381</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2062261985208192</v>
+        <v>-0.2062261985208163</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2890611505381742</v>
+        <v>-0.2890611505381771</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.7516184931568134</v>
+        <v>-0.7516184931568004</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1157539961083831</v>
+        <v>0.1157539961083912</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1468182485860749</v>
+        <v>-0.1468182485860751</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9779264346634903</v>
+        <v>0.9779264346634785</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.5691777022874955</v>
+        <v>-0.5691777022874999</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.2609557107438971</v>
+        <v>-0.2609557107438813</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4014981180852528</v>
+        <v>0.4014981180852699</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.13052811971486</v>
+        <v>-1.130528119714855</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.2381619990370288</v>
+        <v>-0.2381619990370186</v>
       </c>
     </row>
     <row r="44">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2844464302716849</v>
+        <v>0.28444643027168</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2398306668807862</v>
+        <v>-0.2398306668807787</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3718083020836022</v>
+        <v>0.3718083020836005</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08111497443900584</v>
+        <v>0.0811149744390085</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1971127024662517</v>
+        <v>0.1971127024662498</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08990451457394763</v>
+        <v>0.08990451457395758</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1809779148462609</v>
+        <v>-0.1809779148462662</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.05189745481900605</v>
+        <v>-0.05189745481899997</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05142055011199426</v>
+        <v>0.051420550112001</v>
       </c>
       <c r="K44" t="n">
-        <v>1.175003573312316</v>
+        <v>1.175003573312337</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.6141616823932843</v>
+        <v>-0.6141616823932782</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02539598143291417</v>
+        <v>-0.0253959814329095</v>
       </c>
     </row>
     <row r="45">
@@ -5041,40 +5041,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.05359948113221578</v>
+        <v>-0.05359948113221824</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1215842185223701</v>
+        <v>0.121584218522365</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02926880610450061</v>
+        <v>0.02926880610449759</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.08353105921544263</v>
+        <v>-0.08353105921544129</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01077274217543393</v>
+        <v>-0.01077274217543606</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2805753300319942</v>
+        <v>-0.2805753300319881</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.2539899401628392</v>
+        <v>-0.2539899401628321</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3209210899334535</v>
+        <v>0.3209210899334469</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.01382298891659079</v>
+        <v>-0.01382298891658561</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.5629285672410755</v>
+        <v>-0.5629285672410559</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.157040097662864</v>
+        <v>-0.1570400976628552</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1148156045749165</v>
+        <v>-0.1148156045749086</v>
       </c>
     </row>
     <row r="46">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1038563387657351</v>
+        <v>-0.1038563387657273</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.8905490760159905</v>
+        <v>-0.8905490760159744</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2199613393819111</v>
+        <v>0.2199613393819282</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.07101492804620986</v>
+        <v>-0.07101492804620282</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05554200032853122</v>
+        <v>0.05554200032853732</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.6532859711599678</v>
+        <v>-0.6532859711599449</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1863128280547162</v>
+        <v>0.1863128280547263</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.3031073204697352</v>
+        <v>-0.3031073204697227</v>
       </c>
       <c r="J46" t="n">
-        <v>0.457364047697681</v>
+        <v>0.4573640476976955</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.4284517813237503</v>
+        <v>-0.4284517813237295</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7883138100004948</v>
+        <v>0.7883138100005027</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.04519038995700425</v>
+        <v>-0.04519038995699322</v>
       </c>
     </row>
     <row r="47">
@@ -5127,40 +5127,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.4883744230586363</v>
+        <v>-0.4883744230586294</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.8602022949140448</v>
+        <v>-0.860202294914034</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4760943964093925</v>
+        <v>-0.4760943964093929</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5004950426262377</v>
+        <v>-0.5004950426262343</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4974355864432802</v>
+        <v>-0.4974355864432788</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.5834105682657562</v>
+        <v>-0.5834105682657389</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.5909880882584692</v>
+        <v>-0.5909880882584569</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1253904199108194</v>
+        <v>-0.125390419910813</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.2242801660526297</v>
+        <v>-0.2242801660526182</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.5208678842368283</v>
+        <v>-0.5208678842367914</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.3503891060931235</v>
+        <v>-0.3503891060931181</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.6015319294499313</v>
+        <v>-0.6015319294499099</v>
       </c>
     </row>
     <row r="48">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1052427526834382</v>
+        <v>0.10524275268344</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1430392821768091</v>
+        <v>-0.1430392821768068</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3302652470592402</v>
+        <v>0.33026524705924</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3073337957204314</v>
+        <v>-0.307333795720421</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.2365806349248756</v>
+        <v>-0.2365806349248711</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.4223567288408105</v>
+        <v>-0.4223567288407846</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3080162200686119</v>
+        <v>-0.3080162200686059</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03878245872413464</v>
+        <v>0.03878245872414532</v>
       </c>
       <c r="J48" t="n">
-        <v>6.729191975370135e-05</v>
+        <v>6.729191976857733e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.4532452085742892</v>
+        <v>-0.4532452085742512</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.2149279438478594</v>
+        <v>-0.2149279438478473</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.2764757058147043</v>
+        <v>-0.2764757058146887</v>
       </c>
     </row>
     <row r="49">
@@ -5213,40 +5213,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.07758666770521622</v>
+        <v>-0.07758666770521262</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.04934264151863133</v>
+        <v>-0.04934264151862468</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6111267526921067</v>
+        <v>0.6111267526920984</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08835999382215859</v>
+        <v>-0.08835999382215531</v>
       </c>
       <c r="F49" t="n">
-        <v>0.252923196469446</v>
+        <v>0.2529231964694408</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.3069461505723812</v>
+        <v>-0.3069461505723726</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1515331787449307</v>
+        <v>0.1515331787449251</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1215023648879536</v>
+        <v>-0.1215023648879529</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2164385382130735</v>
+        <v>0.2164385382130871</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4577389180625811</v>
+        <v>0.4577389180626105</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3216435345804221</v>
+        <v>0.3216435345804258</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1398537320193709</v>
+        <v>0.1398537320193748</v>
       </c>
     </row>
     <row r="50">
@@ -5256,40 +5256,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6873069915934519</v>
+        <v>0.6873069915934489</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3644365869399721</v>
+        <v>-0.3644365869399531</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1476229021599908</v>
+        <v>0.1476229021599977</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.05643880735231989</v>
+        <v>-0.05643880735232459</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09264406385545976</v>
+        <v>0.09264406385545308</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1494285321771171</v>
+        <v>0.1494285321771263</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6796009055693804</v>
+        <v>0.679600905569376</v>
       </c>
       <c r="I50" t="n">
-        <v>1.197823774744244</v>
+        <v>1.197823774744226</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5936321868890206</v>
+        <v>0.5936321868890269</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4051259881636446</v>
+        <v>0.4051259881636752</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1849023163608502</v>
+        <v>0.1849023163608629</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.2850947368612559</v>
+        <v>-0.2850947368612519</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/figure5.xlsx
+++ b/Figures/figure5.xlsx
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.277598434397113</v>
+        <v>4.229652614120779</v>
       </c>
       <c r="C2" t="n">
-        <v>3.625736142530759</v>
+        <v>3.563093642180781</v>
       </c>
       <c r="D2" t="n">
-        <v>4.883860979207373</v>
+        <v>4.752995536800023</v>
       </c>
       <c r="E2" t="n">
-        <v>3.923680103429793</v>
+        <v>3.691012117249064</v>
       </c>
       <c r="F2" t="n">
-        <v>3.906346074257591</v>
+        <v>3.426626392491133</v>
       </c>
       <c r="G2" t="n">
-        <v>1.445190303703568</v>
+        <v>1.380485244780826</v>
       </c>
       <c r="H2" t="n">
-        <v>5.508577207623936</v>
+        <v>4.868211784710043</v>
       </c>
       <c r="I2" t="n">
-        <v>1.001435065903572</v>
+        <v>0.707251876440781</v>
       </c>
       <c r="J2" t="n">
-        <v>2.860374600360009</v>
+        <v>2.63530828344475</v>
       </c>
       <c r="K2" t="n">
-        <v>1.189066048255517</v>
+        <v>1.10253079413544</v>
       </c>
       <c r="L2" t="n">
-        <v>1.348215735246709</v>
+        <v>1.205408842950197</v>
       </c>
       <c r="M2" t="n">
-        <v>1.311987341087026</v>
+        <v>1.113309176470268</v>
       </c>
     </row>
     <row r="3">
@@ -554,40 +554,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.389774505806809</v>
+        <v>5.468070644224005</v>
       </c>
       <c r="C3" t="n">
-        <v>13.73107411465722</v>
+        <v>13.55802702067217</v>
       </c>
       <c r="D3" t="n">
-        <v>7.068054983044548</v>
+        <v>7.081260992044169</v>
       </c>
       <c r="E3" t="n">
-        <v>2.27050041176275</v>
+        <v>1.815727066037273</v>
       </c>
       <c r="F3" t="n">
-        <v>5.608554379989453</v>
+        <v>5.557196699707696</v>
       </c>
       <c r="G3" t="n">
-        <v>2.03525570098471</v>
+        <v>2.014562851264837</v>
       </c>
       <c r="H3" t="n">
-        <v>6.289658535181264</v>
+        <v>5.994904305324235</v>
       </c>
       <c r="I3" t="n">
-        <v>1.86794890200369</v>
+        <v>1.663881965322598</v>
       </c>
       <c r="J3" t="n">
-        <v>2.516362019253798</v>
+        <v>2.467248696097191</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7806256093770815</v>
+        <v>0.68769693965739</v>
       </c>
       <c r="L3" t="n">
-        <v>4.54099625882208</v>
+        <v>4.423434190957087</v>
       </c>
       <c r="M3" t="n">
-        <v>1.701099825768727</v>
+        <v>1.579181985027241</v>
       </c>
     </row>
     <row r="4">
@@ -597,40 +597,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.042546478917609</v>
+        <v>5.12936832006768</v>
       </c>
       <c r="C4" t="n">
-        <v>5.131407651472802</v>
+        <v>5.060040099531228</v>
       </c>
       <c r="D4" t="n">
-        <v>6.637697422782295</v>
+        <v>6.514011040704516</v>
       </c>
       <c r="E4" t="n">
-        <v>5.976788362989052</v>
+        <v>5.35262057129047</v>
       </c>
       <c r="F4" t="n">
-        <v>6.804221238542293</v>
+        <v>6.618634153687887</v>
       </c>
       <c r="G4" t="n">
-        <v>2.037344044489884</v>
+        <v>2.027951378110091</v>
       </c>
       <c r="H4" t="n">
-        <v>5.479331119751828</v>
+        <v>5.07339984971428</v>
       </c>
       <c r="I4" t="n">
-        <v>2.338107538765501</v>
+        <v>2.180531604306211</v>
       </c>
       <c r="J4" t="n">
-        <v>3.458345462376883</v>
+        <v>3.496007689524263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9349298033466301</v>
+        <v>0.8766385094677208</v>
       </c>
       <c r="L4" t="n">
-        <v>1.973621726895325</v>
+        <v>1.770279349259503</v>
       </c>
       <c r="M4" t="n">
-        <v>1.710575922590554</v>
+        <v>1.657993160755939</v>
       </c>
     </row>
     <row r="5">
@@ -640,40 +640,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.544205054574311</v>
+        <v>3.532536478220563</v>
       </c>
       <c r="C5" t="n">
-        <v>5.499528688513244</v>
+        <v>5.606515473584425</v>
       </c>
       <c r="D5" t="n">
-        <v>4.065361380291614</v>
+        <v>3.944963927582815</v>
       </c>
       <c r="E5" t="n">
-        <v>1.334986008582949</v>
+        <v>1.12096702412498</v>
       </c>
       <c r="F5" t="n">
-        <v>3.730342044934331</v>
+        <v>3.651891617448075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6120909498620069</v>
+        <v>0.5909297081802053</v>
       </c>
       <c r="H5" t="n">
-        <v>5.667561477981115</v>
+        <v>5.377962245967271</v>
       </c>
       <c r="I5" t="n">
-        <v>1.146836476483013</v>
+        <v>0.7459051973995274</v>
       </c>
       <c r="J5" t="n">
-        <v>2.734253845376015</v>
+        <v>2.677609822680058</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2658723428917711</v>
+        <v>0.220357085266617</v>
       </c>
       <c r="L5" t="n">
-        <v>1.418233939790418</v>
+        <v>1.219010041029387</v>
       </c>
       <c r="M5" t="n">
-        <v>1.291931458451632</v>
+        <v>1.261511590153372</v>
       </c>
     </row>
     <row r="6">
@@ -683,40 +683,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.509704152837628</v>
+        <v>6.462679321790205</v>
       </c>
       <c r="C6" t="n">
-        <v>15.61755706530277</v>
+        <v>15.60892251343701</v>
       </c>
       <c r="D6" t="n">
-        <v>4.446585522728934</v>
+        <v>4.288078635137205</v>
       </c>
       <c r="E6" t="n">
-        <v>2.175115874015678</v>
+        <v>1.990954307223145</v>
       </c>
       <c r="F6" t="n">
-        <v>3.317005928964701</v>
+        <v>2.659229569035828</v>
       </c>
       <c r="G6" t="n">
-        <v>1.714670672942095</v>
+        <v>1.646969711204214</v>
       </c>
       <c r="H6" t="n">
-        <v>5.22037379961303</v>
+        <v>5.037070470847479</v>
       </c>
       <c r="I6" t="n">
-        <v>2.26907060813497</v>
+        <v>1.638662480661325</v>
       </c>
       <c r="J6" t="n">
-        <v>3.109233841230591</v>
+        <v>2.816265056403963</v>
       </c>
       <c r="K6" t="n">
-        <v>0.453316059783306</v>
+        <v>0.4292812763824463</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8533248742805088</v>
+        <v>0.6051206454536177</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7841899935323602</v>
+        <v>0.6445335041453981</v>
       </c>
     </row>
     <row r="7">
@@ -726,40 +726,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.743660432526504</v>
+        <v>7.093149967011962</v>
       </c>
       <c r="C7" t="n">
-        <v>5.257459768889885</v>
+        <v>7.203512609046631</v>
       </c>
       <c r="D7" t="n">
-        <v>8.068180686159094</v>
+        <v>8.393412408454335</v>
       </c>
       <c r="E7" t="n">
-        <v>3.830570206150771</v>
+        <v>4.63381332007925</v>
       </c>
       <c r="F7" t="n">
-        <v>6.581093404213389</v>
+        <v>7.468411121136522</v>
       </c>
       <c r="G7" t="n">
-        <v>1.760043568885219</v>
+        <v>2.446736376569934</v>
       </c>
       <c r="H7" t="n">
-        <v>7.379645349483548</v>
+        <v>9.083168077597696</v>
       </c>
       <c r="I7" t="n">
-        <v>2.681089196857305</v>
+        <v>3.383232067707092</v>
       </c>
       <c r="J7" t="n">
-        <v>6.062210235445584</v>
+        <v>7.503692234923297</v>
       </c>
       <c r="K7" t="n">
-        <v>1.203130486764149</v>
+        <v>1.731696763952036</v>
       </c>
       <c r="L7" t="n">
-        <v>3.522548904601027</v>
+        <v>4.716950725595323</v>
       </c>
       <c r="M7" t="n">
-        <v>2.7824537829212</v>
+        <v>4.28737635800957</v>
       </c>
     </row>
     <row r="8">
@@ -769,40 +769,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.714007765496756</v>
+        <v>4.53118774007012</v>
       </c>
       <c r="C8" t="n">
-        <v>2.64017684613015</v>
+        <v>2.652072443163566</v>
       </c>
       <c r="D8" t="n">
-        <v>5.461485385475597</v>
+        <v>5.314415196264195</v>
       </c>
       <c r="E8" t="n">
-        <v>1.932526885151816</v>
+        <v>1.710509739537174</v>
       </c>
       <c r="F8" t="n">
-        <v>6.972912895071424</v>
+        <v>6.814624334246038</v>
       </c>
       <c r="G8" t="n">
-        <v>2.340390318003119</v>
+        <v>2.084772838681142</v>
       </c>
       <c r="H8" t="n">
-        <v>6.586759027894051</v>
+        <v>6.257734293630589</v>
       </c>
       <c r="I8" t="n">
-        <v>1.008031625736518</v>
+        <v>0.8627001221016651</v>
       </c>
       <c r="J8" t="n">
-        <v>2.307973370489197</v>
+        <v>2.226587888726212</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9364136502589662</v>
+        <v>0.7148298174415965</v>
       </c>
       <c r="L8" t="n">
-        <v>2.11701114746385</v>
+        <v>1.942743465805211</v>
       </c>
       <c r="M8" t="n">
-        <v>1.784609076485195</v>
+        <v>1.432694890272274</v>
       </c>
     </row>
     <row r="9">
@@ -812,40 +812,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.77260854828348</v>
+        <v>3.628042968423486</v>
       </c>
       <c r="C9" t="n">
-        <v>33.30631717218291</v>
+        <v>33.03881198583123</v>
       </c>
       <c r="D9" t="n">
-        <v>9.370296660176036</v>
+        <v>8.620176617121956</v>
       </c>
       <c r="E9" t="n">
-        <v>2.447068194753713</v>
+        <v>2.311456392304429</v>
       </c>
       <c r="F9" t="n">
-        <v>3.415669883561122</v>
+        <v>2.745506705187893</v>
       </c>
       <c r="G9" t="n">
-        <v>2.728208507371693</v>
+        <v>2.678015858627297</v>
       </c>
       <c r="H9" t="n">
-        <v>3.566775835263804</v>
+        <v>2.97933250063871</v>
       </c>
       <c r="I9" t="n">
-        <v>1.593369833202954</v>
+        <v>1.232967155402411</v>
       </c>
       <c r="J9" t="n">
-        <v>3.118299112938828</v>
+        <v>2.433224257427135</v>
       </c>
       <c r="K9" t="n">
-        <v>1.38617835954767</v>
+        <v>0.958207265286826</v>
       </c>
       <c r="L9" t="n">
-        <v>2.033551362553499</v>
+        <v>1.446850159429845</v>
       </c>
       <c r="M9" t="n">
-        <v>3.339267660370295</v>
+        <v>3.016695357704904</v>
       </c>
     </row>
     <row r="10">
@@ -855,40 +855,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.402676309718197</v>
+        <v>4.279032689873756</v>
       </c>
       <c r="C10" t="n">
-        <v>7.726943907551903</v>
+        <v>7.526082739939751</v>
       </c>
       <c r="D10" t="n">
-        <v>6.202319183566469</v>
+        <v>5.827518912508803</v>
       </c>
       <c r="E10" t="n">
-        <v>1.054065033993556</v>
+        <v>0.6560465290464126</v>
       </c>
       <c r="F10" t="n">
-        <v>5.115215317428872</v>
+        <v>4.978790143168785</v>
       </c>
       <c r="G10" t="n">
-        <v>1.282161976983578</v>
+        <v>1.220829476334176</v>
       </c>
       <c r="H10" t="n">
-        <v>10.20634605303563</v>
+        <v>10.03294194998872</v>
       </c>
       <c r="I10" t="n">
-        <v>1.374611059815929</v>
+        <v>1.111980962054401</v>
       </c>
       <c r="J10" t="n">
-        <v>2.44839388108458</v>
+        <v>2.326065850320613</v>
       </c>
       <c r="K10" t="n">
-        <v>0.351185955024545</v>
+        <v>0.2904768513272876</v>
       </c>
       <c r="L10" t="n">
-        <v>1.627478115296621</v>
+        <v>1.45323037980025</v>
       </c>
       <c r="M10" t="n">
-        <v>1.113514230839393</v>
+        <v>0.9607362663056205</v>
       </c>
     </row>
     <row r="11">
@@ -898,40 +898,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.754387884285606</v>
+        <v>3.870013393813582</v>
       </c>
       <c r="C11" t="n">
-        <v>3.434786555615676</v>
+        <v>3.423754381310495</v>
       </c>
       <c r="D11" t="n">
-        <v>6.259747153947708</v>
+        <v>6.089059158107964</v>
       </c>
       <c r="E11" t="n">
-        <v>2.660189839675893</v>
+        <v>2.478336973301073</v>
       </c>
       <c r="F11" t="n">
-        <v>4.305470952792636</v>
+        <v>4.235508457055161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8176346673601372</v>
+        <v>0.8138433472323552</v>
       </c>
       <c r="H11" t="n">
-        <v>5.221154820007677</v>
+        <v>4.856672165514713</v>
       </c>
       <c r="I11" t="n">
-        <v>1.202085744961461</v>
+        <v>0.9434961744511184</v>
       </c>
       <c r="J11" t="n">
-        <v>2.363505974851647</v>
+        <v>2.325404817034829</v>
       </c>
       <c r="K11" t="n">
-        <v>0.588105380029904</v>
+        <v>0.5203962663914449</v>
       </c>
       <c r="L11" t="n">
-        <v>1.783209195815051</v>
+        <v>1.751805289463205</v>
       </c>
       <c r="M11" t="n">
-        <v>1.598734777434961</v>
+        <v>1.462383016802448</v>
       </c>
     </row>
     <row r="12">
@@ -941,40 +941,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.410622368569146</v>
+        <v>3.402928058714931</v>
       </c>
       <c r="C12" t="n">
-        <v>3.716326603720542</v>
+        <v>3.632923437370266</v>
       </c>
       <c r="D12" t="n">
-        <v>5.497741160522041</v>
+        <v>5.382666559782129</v>
       </c>
       <c r="E12" t="n">
-        <v>3.531820784790186</v>
+        <v>3.082013558087768</v>
       </c>
       <c r="F12" t="n">
-        <v>4.32926923349044</v>
+        <v>4.150326410085265</v>
       </c>
       <c r="G12" t="n">
-        <v>1.436650113022006</v>
+        <v>1.392291611235239</v>
       </c>
       <c r="H12" t="n">
-        <v>6.340859287351431</v>
+        <v>6.009070745200369</v>
       </c>
       <c r="I12" t="n">
-        <v>1.193736330586638</v>
+        <v>0.9912443924571529</v>
       </c>
       <c r="J12" t="n">
-        <v>2.868308470830448</v>
+        <v>2.68633256001269</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6630582145658248</v>
+        <v>0.604825203366758</v>
       </c>
       <c r="L12" t="n">
-        <v>1.526271680914284</v>
+        <v>1.380981710240576</v>
       </c>
       <c r="M12" t="n">
-        <v>1.663599223403837</v>
+        <v>1.537772857025484</v>
       </c>
     </row>
     <row r="13">
@@ -984,40 +984,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.566168354307604</v>
+        <v>5.952324718409038</v>
       </c>
       <c r="C13" t="n">
-        <v>5.187281097814396</v>
+        <v>5.221943510982879</v>
       </c>
       <c r="D13" t="n">
-        <v>6.447730553994901</v>
+        <v>6.294307549283585</v>
       </c>
       <c r="E13" t="n">
-        <v>3.253862560272659</v>
+        <v>2.25120762687711</v>
       </c>
       <c r="F13" t="n">
-        <v>4.727338066059224</v>
+        <v>4.39026444993633</v>
       </c>
       <c r="G13" t="n">
-        <v>1.618167879144734</v>
+        <v>1.579469430354427</v>
       </c>
       <c r="H13" t="n">
-        <v>15.45228478157938</v>
+        <v>14.9865321675614</v>
       </c>
       <c r="I13" t="n">
-        <v>1.587243484598963</v>
+        <v>1.267284870172697</v>
       </c>
       <c r="J13" t="n">
-        <v>3.89823775036535</v>
+        <v>3.693846150772659</v>
       </c>
       <c r="K13" t="n">
-        <v>1.170738402099244</v>
+        <v>1.111398027149216</v>
       </c>
       <c r="L13" t="n">
-        <v>1.629698141926997</v>
+        <v>1.523737808546158</v>
       </c>
       <c r="M13" t="n">
-        <v>1.852524542333922</v>
+        <v>1.704864408966662</v>
       </c>
     </row>
     <row r="14">
@@ -1027,40 +1027,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.920643975071202</v>
+        <v>4.961962229036755</v>
       </c>
       <c r="C14" t="n">
-        <v>3.771686912941453</v>
+        <v>3.790383202599341</v>
       </c>
       <c r="D14" t="n">
-        <v>5.601062136808716</v>
+        <v>5.460740490432562</v>
       </c>
       <c r="E14" t="n">
-        <v>1.691566570704323</v>
+        <v>1.349593852465754</v>
       </c>
       <c r="F14" t="n">
-        <v>4.556563305689563</v>
+        <v>4.409011907310926</v>
       </c>
       <c r="G14" t="n">
-        <v>1.469129578170068</v>
+        <v>1.432214330696947</v>
       </c>
       <c r="H14" t="n">
-        <v>5.487458096508479</v>
+        <v>5.231077368805794</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8853131810280225</v>
+        <v>0.8327693240350269</v>
       </c>
       <c r="J14" t="n">
-        <v>4.360824456932137</v>
+        <v>4.326360864007245</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7451108967711648</v>
+        <v>0.7146121394710926</v>
       </c>
       <c r="L14" t="n">
-        <v>2.202467701289666</v>
+        <v>2.013226523944323</v>
       </c>
       <c r="M14" t="n">
-        <v>1.602122181799166</v>
+        <v>1.445294133620436</v>
       </c>
     </row>
     <row r="15">
@@ -1070,40 +1070,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.244679721488914</v>
+        <v>3.258926346405469</v>
       </c>
       <c r="C15" t="n">
-        <v>7.470731438344384</v>
+        <v>7.601540642920878</v>
       </c>
       <c r="D15" t="n">
-        <v>5.309658063112753</v>
+        <v>5.185379460754215</v>
       </c>
       <c r="E15" t="n">
-        <v>1.611194188675747</v>
+        <v>1.141361184540231</v>
       </c>
       <c r="F15" t="n">
-        <v>4.78743280361978</v>
+        <v>4.631768503584067</v>
       </c>
       <c r="G15" t="n">
-        <v>1.335879760721515</v>
+        <v>1.336423876384156</v>
       </c>
       <c r="H15" t="n">
-        <v>4.017044356966906</v>
+        <v>3.857284384509102</v>
       </c>
       <c r="I15" t="n">
-        <v>1.714510106996267</v>
+        <v>1.44595127211172</v>
       </c>
       <c r="J15" t="n">
-        <v>2.150545904149091</v>
+        <v>2.11230240852896</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4445150184888055</v>
+        <v>0.3819279699231227</v>
       </c>
       <c r="L15" t="n">
-        <v>1.228720427629567</v>
+        <v>1.021804941704711</v>
       </c>
       <c r="M15" t="n">
-        <v>1.233010276316093</v>
+        <v>1.117821732748607</v>
       </c>
     </row>
     <row r="16">
@@ -1113,40 +1113,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.152361658927881</v>
+        <v>5.38705050378711</v>
       </c>
       <c r="C16" t="n">
-        <v>5.366263682005872</v>
+        <v>5.411062120725379</v>
       </c>
       <c r="D16" t="n">
-        <v>7.12811197392343</v>
+        <v>7.015320785139648</v>
       </c>
       <c r="E16" t="n">
-        <v>4.413644112201343</v>
+        <v>3.710510399032857</v>
       </c>
       <c r="F16" t="n">
-        <v>5.958859059293637</v>
+        <v>5.914350680851439</v>
       </c>
       <c r="G16" t="n">
-        <v>1.657593886076153</v>
+        <v>1.658961218523601</v>
       </c>
       <c r="H16" t="n">
-        <v>6.928930090233258</v>
+        <v>6.712917811873123</v>
       </c>
       <c r="I16" t="n">
-        <v>1.136054904814531</v>
+        <v>0.931705582882092</v>
       </c>
       <c r="J16" t="n">
-        <v>6.365502128049885</v>
+        <v>6.444489430260084</v>
       </c>
       <c r="K16" t="n">
-        <v>1.429846771034875</v>
+        <v>1.390287517549083</v>
       </c>
       <c r="L16" t="n">
-        <v>2.796325812192273</v>
+        <v>2.679064387792696</v>
       </c>
       <c r="M16" t="n">
-        <v>2.661520960917582</v>
+        <v>2.511547240646002</v>
       </c>
     </row>
     <row r="17">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.753765575087837</v>
+        <v>3.803249862336488</v>
       </c>
       <c r="C17" t="n">
-        <v>3.383521117296283</v>
+        <v>3.13981169086165</v>
       </c>
       <c r="D17" t="n">
-        <v>5.980881901845489</v>
+        <v>5.845558415279452</v>
       </c>
       <c r="E17" t="n">
-        <v>2.455823516143702</v>
+        <v>1.936606005216325</v>
       </c>
       <c r="F17" t="n">
-        <v>4.836725566983755</v>
+        <v>4.691659616558259</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7823424339413094</v>
+        <v>0.7133975972730027</v>
       </c>
       <c r="H17" t="n">
-        <v>6.756416682291085</v>
+        <v>6.473606459053517</v>
       </c>
       <c r="I17" t="n">
-        <v>1.129549900805491</v>
+        <v>0.8559696297970453</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98570185649971</v>
+        <v>2.895003183758573</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6170475208701226</v>
+        <v>0.5317390875642044</v>
       </c>
       <c r="L17" t="n">
-        <v>1.278422164946941</v>
+        <v>1.049721334235236</v>
       </c>
       <c r="M17" t="n">
-        <v>1.267027654272385</v>
+        <v>1.087750260534156</v>
       </c>
     </row>
     <row r="18">
@@ -1199,40 +1199,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.002212692818651</v>
+        <v>2.96549954782432</v>
       </c>
       <c r="C18" t="n">
-        <v>4.853212364567277</v>
+        <v>4.738652287077305</v>
       </c>
       <c r="D18" t="n">
-        <v>6.378646715794776</v>
+        <v>6.243814262977756</v>
       </c>
       <c r="E18" t="n">
-        <v>1.744169114020731</v>
+        <v>1.359861158287379</v>
       </c>
       <c r="F18" t="n">
-        <v>4.414863887217376</v>
+        <v>4.287643751324998</v>
       </c>
       <c r="G18" t="n">
-        <v>1.35504055285149</v>
+        <v>1.382695507243103</v>
       </c>
       <c r="H18" t="n">
-        <v>6.459617879452363</v>
+        <v>6.243031433730158</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8449446971491336</v>
+        <v>0.6484917854887866</v>
       </c>
       <c r="J18" t="n">
-        <v>1.599635287657609</v>
+        <v>1.529594085187359</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6573619004012794</v>
+        <v>0.6461657947947631</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38641585165987</v>
+        <v>1.317585295510168</v>
       </c>
       <c r="M18" t="n">
-        <v>1.33626493475564</v>
+        <v>1.234350139527154</v>
       </c>
     </row>
     <row r="19">
@@ -1242,40 +1242,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.259483766965906</v>
+        <v>4.943731789225868</v>
       </c>
       <c r="C19" t="n">
-        <v>4.493982264847441</v>
+        <v>4.20263305839747</v>
       </c>
       <c r="D19" t="n">
-        <v>5.772778903738276</v>
+        <v>5.454745774728941</v>
       </c>
       <c r="E19" t="n">
-        <v>2.385211733770542</v>
+        <v>2.202335328535348</v>
       </c>
       <c r="F19" t="n">
-        <v>10.11282785200125</v>
+        <v>9.707273859868364</v>
       </c>
       <c r="G19" t="n">
-        <v>1.309388865285048</v>
+        <v>1.145699023735617</v>
       </c>
       <c r="H19" t="n">
-        <v>30.71280182800983</v>
+        <v>29.12298596483586</v>
       </c>
       <c r="I19" t="n">
-        <v>3.40708846093598</v>
+        <v>1.925429326970761</v>
       </c>
       <c r="J19" t="n">
-        <v>8.45715198893237</v>
+        <v>7.984252228098208</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2993283010909701</v>
+        <v>0.1821452120732359</v>
       </c>
       <c r="L19" t="n">
-        <v>1.507940685721701</v>
+        <v>1.27032270844426</v>
       </c>
       <c r="M19" t="n">
-        <v>3.99090262209525</v>
+        <v>3.703892736681829</v>
       </c>
     </row>
     <row r="20">
@@ -1285,40 +1285,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.522457028782399</v>
+        <v>5.58859528071592</v>
       </c>
       <c r="C20" t="n">
-        <v>5.149439900891104</v>
+        <v>5.189496047808585</v>
       </c>
       <c r="D20" t="n">
-        <v>4.778186012438452</v>
+        <v>4.683835819103025</v>
       </c>
       <c r="E20" t="n">
-        <v>1.041931549838255</v>
+        <v>0.7483356261713647</v>
       </c>
       <c r="F20" t="n">
-        <v>4.492764956906583</v>
+        <v>4.397104891852234</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8345041084752204</v>
+        <v>0.7676347499645398</v>
       </c>
       <c r="H20" t="n">
-        <v>5.477432955636271</v>
+        <v>4.967131697256816</v>
       </c>
       <c r="I20" t="n">
-        <v>1.170108150672108</v>
+        <v>0.9271680850753484</v>
       </c>
       <c r="J20" t="n">
-        <v>3.02542179535779</v>
+        <v>2.943508739688153</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3602666090794617</v>
+        <v>0.3379516586162899</v>
       </c>
       <c r="L20" t="n">
-        <v>2.092219234036002</v>
+        <v>1.872250248191161</v>
       </c>
       <c r="M20" t="n">
-        <v>1.49311697673822</v>
+        <v>1.41035152173169</v>
       </c>
     </row>
     <row r="21">
@@ -1328,40 +1328,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.580856632344492</v>
+        <v>4.615869658484308</v>
       </c>
       <c r="C21" t="n">
-        <v>2.803465519987361</v>
+        <v>2.812052026272073</v>
       </c>
       <c r="D21" t="n">
-        <v>4.386857415658551</v>
+        <v>4.285976852024797</v>
       </c>
       <c r="E21" t="n">
-        <v>2.152221798714451</v>
+        <v>2.101872149855421</v>
       </c>
       <c r="F21" t="n">
-        <v>3.876015420314288</v>
+        <v>3.821616348036266</v>
       </c>
       <c r="G21" t="n">
-        <v>1.132760711648719</v>
+        <v>1.162655375302484</v>
       </c>
       <c r="H21" t="n">
-        <v>4.160776396126416</v>
+        <v>3.965782074156824</v>
       </c>
       <c r="I21" t="n">
-        <v>1.062797251581863</v>
+        <v>0.9757310800753983</v>
       </c>
       <c r="J21" t="n">
-        <v>2.301829259735689</v>
+        <v>2.290033562359988</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5301660990999489</v>
+        <v>0.5548943862630242</v>
       </c>
       <c r="L21" t="n">
-        <v>1.184293647621442</v>
+        <v>1.111057876861241</v>
       </c>
       <c r="M21" t="n">
-        <v>1.135828022268373</v>
+        <v>1.12406270007359</v>
       </c>
     </row>
     <row r="22">
@@ -1371,40 +1371,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.811959391454151</v>
+        <v>1.786181882568284</v>
       </c>
       <c r="C22" t="n">
-        <v>3.065548053308805</v>
+        <v>3.113326973613104</v>
       </c>
       <c r="D22" t="n">
-        <v>5.252877343344661</v>
+        <v>5.178644110115298</v>
       </c>
       <c r="E22" t="n">
-        <v>1.095626184639966</v>
+        <v>1.028673886057624</v>
       </c>
       <c r="F22" t="n">
-        <v>5.934779399330036</v>
+        <v>5.864878176067081</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7820375112903269</v>
+        <v>0.7717446377087249</v>
       </c>
       <c r="H22" t="n">
-        <v>3.055799978766523</v>
+        <v>2.705133016836506</v>
       </c>
       <c r="I22" t="n">
-        <v>3.031453458718067</v>
+        <v>2.779181931779519</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63569817273152</v>
+        <v>2.535644138734476</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5369182876651633</v>
+        <v>0.4893915677441104</v>
       </c>
       <c r="L22" t="n">
-        <v>0.469753047868129</v>
+        <v>0.1904446330420941</v>
       </c>
       <c r="M22" t="n">
-        <v>2.316238704935665</v>
+        <v>2.158317472203527</v>
       </c>
     </row>
     <row r="23">
@@ -1414,40 +1414,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.786958876896281</v>
+        <v>3.77658229013332</v>
       </c>
       <c r="C23" t="n">
-        <v>5.975789769583548</v>
+        <v>6.096009446119619</v>
       </c>
       <c r="D23" t="n">
-        <v>4.981699327080734</v>
+        <v>4.858908776991918</v>
       </c>
       <c r="E23" t="n">
-        <v>3.99412648813899</v>
+        <v>3.158916977777867</v>
       </c>
       <c r="F23" t="n">
-        <v>3.730288327599395</v>
+        <v>3.60007216860534</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9325208208348026</v>
+        <v>0.7911876275044269</v>
       </c>
       <c r="H23" t="n">
-        <v>6.343802135288898</v>
+        <v>5.970451297297806</v>
       </c>
       <c r="I23" t="n">
-        <v>1.571390575982479</v>
+        <v>1.424767176523697</v>
       </c>
       <c r="J23" t="n">
-        <v>4.434537440361255</v>
+        <v>4.369895449883024</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7042877663995896</v>
+        <v>0.6073558058345081</v>
       </c>
       <c r="L23" t="n">
-        <v>1.721120925919926</v>
+        <v>1.58187536451005</v>
       </c>
       <c r="M23" t="n">
-        <v>1.446035910159731</v>
+        <v>1.099138030930338</v>
       </c>
     </row>
     <row r="24">
@@ -1457,40 +1457,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.998105748109809</v>
+        <v>2.795295496376317</v>
       </c>
       <c r="C24" t="n">
-        <v>14.86622046529252</v>
+        <v>14.89168879300582</v>
       </c>
       <c r="D24" t="n">
-        <v>1.849496730821216</v>
+        <v>1.788984618944645</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8967750929634399</v>
+        <v>0.6724924582484354</v>
       </c>
       <c r="F24" t="n">
-        <v>3.272828295682727</v>
+        <v>3.186710969066066</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4864465448910332</v>
+        <v>0.4354032512157531</v>
       </c>
       <c r="H24" t="n">
-        <v>3.800580730896759</v>
+        <v>3.618357470070309</v>
       </c>
       <c r="I24" t="n">
-        <v>1.078669417432095</v>
+        <v>0.9665070525365</v>
       </c>
       <c r="J24" t="n">
-        <v>1.900132134687938</v>
+        <v>1.829787877054448</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2066925304870185</v>
+        <v>0.1069729117526005</v>
       </c>
       <c r="L24" t="n">
-        <v>3.611447181327532</v>
+        <v>3.539393224390335</v>
       </c>
       <c r="M24" t="n">
-        <v>0.872953440803092</v>
+        <v>0.368576396197156</v>
       </c>
     </row>
     <row r="25">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.626571691738085</v>
+        <v>3.633392828601047</v>
       </c>
       <c r="C25" t="n">
-        <v>3.021087774338427</v>
+        <v>2.903723047369108</v>
       </c>
       <c r="D25" t="n">
-        <v>3.648068798590236</v>
+        <v>3.473744933165396</v>
       </c>
       <c r="E25" t="n">
-        <v>1.566282223870442</v>
+        <v>1.502063057337055</v>
       </c>
       <c r="F25" t="n">
-        <v>5.165827795659713</v>
+        <v>4.975563096333653</v>
       </c>
       <c r="G25" t="n">
-        <v>1.448518086293957</v>
+        <v>1.354998517473776</v>
       </c>
       <c r="H25" t="n">
-        <v>5.086986541033423</v>
+        <v>4.76108959190823</v>
       </c>
       <c r="I25" t="n">
-        <v>1.300687924899369</v>
+        <v>0.9423793709933185</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38372069940567</v>
+        <v>2.36074333070473</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5778327256106899</v>
+        <v>0.3942018633013971</v>
       </c>
       <c r="L25" t="n">
-        <v>2.091006324801167</v>
+        <v>1.850764238933969</v>
       </c>
       <c r="M25" t="n">
-        <v>1.74446598484628</v>
+        <v>1.269296238862247</v>
       </c>
     </row>
     <row r="26">
@@ -1543,40 +1543,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.155939191440895</v>
+        <v>6.314470525522187</v>
       </c>
       <c r="C26" t="n">
-        <v>2.813850949351309</v>
+        <v>3.304374416766212</v>
       </c>
       <c r="D26" t="n">
-        <v>6.382855604097291</v>
+        <v>6.485642223829652</v>
       </c>
       <c r="E26" t="n">
-        <v>1.70510807220075</v>
+        <v>2.025429027075639</v>
       </c>
       <c r="F26" t="n">
-        <v>5.612417895053435</v>
+        <v>5.862462243243455</v>
       </c>
       <c r="G26" t="n">
-        <v>2.201191554862286</v>
+        <v>2.766190570635618</v>
       </c>
       <c r="H26" t="n">
-        <v>4.136720146236606</v>
+        <v>4.787992243953166</v>
       </c>
       <c r="I26" t="n">
-        <v>1.135400011973641</v>
+        <v>2.087996092615237</v>
       </c>
       <c r="J26" t="n">
-        <v>3.443730275917465</v>
+        <v>4.265784842433288</v>
       </c>
       <c r="K26" t="n">
-        <v>1.039845504934082</v>
+        <v>1.15810867830433</v>
       </c>
       <c r="L26" t="n">
-        <v>0.964461168033373</v>
+        <v>1.313474810049211</v>
       </c>
       <c r="M26" t="n">
-        <v>2.460815513926137</v>
+        <v>3.340147962464424</v>
       </c>
     </row>
     <row r="27">
@@ -1586,40 +1586,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.096929322115589</v>
+        <v>9.244945809615288</v>
       </c>
       <c r="C27" t="n">
-        <v>4.288025116848184</v>
+        <v>4.445539263223852</v>
       </c>
       <c r="D27" t="n">
-        <v>9.017207080632767</v>
+        <v>8.964408665213256</v>
       </c>
       <c r="E27" t="n">
-        <v>2.641353039259692</v>
+        <v>2.004504995894929</v>
       </c>
       <c r="F27" t="n">
-        <v>5.74717527206221</v>
+        <v>5.754007918414615</v>
       </c>
       <c r="G27" t="n">
-        <v>1.295520773739399</v>
+        <v>1.214564265074245</v>
       </c>
       <c r="H27" t="n">
-        <v>5.320604896902867</v>
+        <v>5.116497696630756</v>
       </c>
       <c r="I27" t="n">
-        <v>1.403280220773421</v>
+        <v>1.152506435192793</v>
       </c>
       <c r="J27" t="n">
-        <v>3.285418905598516</v>
+        <v>3.216409168698391</v>
       </c>
       <c r="K27" t="n">
-        <v>1.778031689975728</v>
+        <v>1.682623681199801</v>
       </c>
       <c r="L27" t="n">
-        <v>2.60583838285694</v>
+        <v>2.678962447607905</v>
       </c>
       <c r="M27" t="n">
-        <v>2.46363310667159</v>
+        <v>2.170701951250039</v>
       </c>
     </row>
     <row r="28">
@@ -1629,40 +1629,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.897320095161309</v>
+        <v>3.92294374868125</v>
       </c>
       <c r="C28" t="n">
-        <v>3.127609670440391</v>
+        <v>3.124926799470462</v>
       </c>
       <c r="D28" t="n">
-        <v>4.755023421884263</v>
+        <v>4.703870530444513</v>
       </c>
       <c r="E28" t="n">
-        <v>2.924194247524486</v>
+        <v>2.799422399464869</v>
       </c>
       <c r="F28" t="n">
-        <v>5.403112529097021</v>
+        <v>5.324561149370962</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5259680721365213</v>
+        <v>0.5233599108113455</v>
       </c>
       <c r="H28" t="n">
-        <v>3.837049934434079</v>
+        <v>3.696150656373807</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8052068534325066</v>
+        <v>0.7908456259847253</v>
       </c>
       <c r="J28" t="n">
-        <v>4.312034318527711</v>
+        <v>4.240719957094557</v>
       </c>
       <c r="K28" t="n">
-        <v>0.207202130360542</v>
+        <v>0.2063150593589953</v>
       </c>
       <c r="L28" t="n">
-        <v>1.11825966437408</v>
+        <v>1.057796500366284</v>
       </c>
       <c r="M28" t="n">
-        <v>1.380923675388797</v>
+        <v>1.059134114464235</v>
       </c>
     </row>
     <row r="29">
@@ -1672,40 +1672,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.547907226740779</v>
+        <v>4.499727523964507</v>
       </c>
       <c r="C29" t="n">
-        <v>2.77581589092108</v>
+        <v>2.62477503836686</v>
       </c>
       <c r="D29" t="n">
-        <v>7.669588359354846</v>
+        <v>7.873574630531818</v>
       </c>
       <c r="E29" t="n">
-        <v>12.04290198639046</v>
+        <v>12.0288664227112</v>
       </c>
       <c r="F29" t="n">
-        <v>8.294803086284295</v>
+        <v>8.157472586809721</v>
       </c>
       <c r="G29" t="n">
-        <v>3.7968414097198</v>
+        <v>3.731963719618893</v>
       </c>
       <c r="H29" t="n">
-        <v>4.128943752285214</v>
+        <v>3.837329571679958</v>
       </c>
       <c r="I29" t="n">
-        <v>3.707013263984825</v>
+        <v>3.433293942760492</v>
       </c>
       <c r="J29" t="n">
-        <v>5.730945679270263</v>
+        <v>5.62961598376052</v>
       </c>
       <c r="K29" t="n">
-        <v>1.336563847727923</v>
+        <v>1.173323855489229</v>
       </c>
       <c r="L29" t="n">
-        <v>1.899347527717799</v>
+        <v>1.731936199225345</v>
       </c>
       <c r="M29" t="n">
-        <v>2.561923040569143</v>
+        <v>2.352643374437615</v>
       </c>
     </row>
     <row r="30">
@@ -1715,40 +1715,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.347390900417211</v>
+        <v>5.245134010894856</v>
       </c>
       <c r="C30" t="n">
-        <v>2.949150916312586</v>
+        <v>2.95146898563615</v>
       </c>
       <c r="D30" t="n">
-        <v>6.604514930367477</v>
+        <v>6.485288509872331</v>
       </c>
       <c r="E30" t="n">
-        <v>5.436892091532875</v>
+        <v>5.430658841834449</v>
       </c>
       <c r="F30" t="n">
-        <v>5.026602566247846</v>
+        <v>4.971757193042095</v>
       </c>
       <c r="G30" t="n">
-        <v>1.613863707812514</v>
+        <v>1.545600501421073</v>
       </c>
       <c r="H30" t="n">
-        <v>6.276007652378548</v>
+        <v>6.291284796680138</v>
       </c>
       <c r="I30" t="n">
-        <v>1.564642004046857</v>
+        <v>1.376171656835059</v>
       </c>
       <c r="J30" t="n">
-        <v>3.755600304286582</v>
+        <v>3.617067320137395</v>
       </c>
       <c r="K30" t="n">
-        <v>0.422313165972866</v>
+        <v>0.368078249463161</v>
       </c>
       <c r="L30" t="n">
-        <v>3.887378717275152</v>
+        <v>3.762354944399858</v>
       </c>
       <c r="M30" t="n">
-        <v>2.54580234984999</v>
+        <v>1.440430775627269</v>
       </c>
     </row>
     <row r="31">
@@ -1758,40 +1758,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.381538706929516</v>
+        <v>3.381597192820417</v>
       </c>
       <c r="C31" t="n">
-        <v>3.170205139999619</v>
+        <v>3.0874340755772</v>
       </c>
       <c r="D31" t="n">
-        <v>9.017381194829701</v>
+        <v>8.858586363677029</v>
       </c>
       <c r="E31" t="n">
-        <v>1.368036170053128</v>
+        <v>1.266057780858249</v>
       </c>
       <c r="F31" t="n">
-        <v>4.541822486364604</v>
+        <v>4.463034720577252</v>
       </c>
       <c r="G31" t="n">
-        <v>3.223985656235009</v>
+        <v>3.253667625852573</v>
       </c>
       <c r="H31" t="n">
-        <v>5.590377867777168</v>
+        <v>5.472043162007378</v>
       </c>
       <c r="I31" t="n">
-        <v>2.056395562098584</v>
+        <v>1.955383009671291</v>
       </c>
       <c r="J31" t="n">
-        <v>2.677156005360209</v>
+        <v>2.636478030592214</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6207594493725276</v>
+        <v>0.6190228053760513</v>
       </c>
       <c r="L31" t="n">
-        <v>1.589356157282289</v>
+        <v>1.547945606632466</v>
       </c>
       <c r="M31" t="n">
-        <v>3.245174449199973</v>
+        <v>3.224472417131722</v>
       </c>
     </row>
     <row r="32">
@@ -1801,40 +1801,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.568929635544798</v>
+        <v>4.481768150265455</v>
       </c>
       <c r="C32" t="n">
-        <v>4.035051621616353</v>
+        <v>3.745982826894635</v>
       </c>
       <c r="D32" t="n">
-        <v>4.819042682246657</v>
+        <v>4.749715330279561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7902953984632539</v>
+        <v>0.5456413003073789</v>
       </c>
       <c r="F32" t="n">
-        <v>3.831423405486716</v>
+        <v>3.657197708208637</v>
       </c>
       <c r="G32" t="n">
-        <v>1.045625386410613</v>
+        <v>0.9320761065935791</v>
       </c>
       <c r="H32" t="n">
-        <v>2.26504871279817</v>
+        <v>1.831242474212955</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6398491524303614</v>
+        <v>0.4474442264592903</v>
       </c>
       <c r="J32" t="n">
-        <v>2.310332450717233</v>
+        <v>2.143709371743205</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08328349260007757</v>
+        <v>0.07604238215840664</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3982005732778148</v>
+        <v>0.1039083701964885</v>
       </c>
       <c r="M32" t="n">
-        <v>1.162667614382418</v>
+        <v>1.080960761992619</v>
       </c>
     </row>
     <row r="33">
@@ -1844,40 +1844,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.164507754258644</v>
+        <v>4.170312820811242</v>
       </c>
       <c r="C33" t="n">
-        <v>2.991998110491123</v>
+        <v>2.874472064315746</v>
       </c>
       <c r="D33" t="n">
-        <v>7.035034514798979</v>
+        <v>6.900041253683383</v>
       </c>
       <c r="E33" t="n">
-        <v>5.149481373490469</v>
+        <v>4.601935457112184</v>
       </c>
       <c r="F33" t="n">
-        <v>5.65502886984227</v>
+        <v>5.555679876690493</v>
       </c>
       <c r="G33" t="n">
-        <v>1.52012714298835</v>
+        <v>1.456271463249361</v>
       </c>
       <c r="H33" t="n">
-        <v>6.620728610722875</v>
+        <v>6.261794550507878</v>
       </c>
       <c r="I33" t="n">
-        <v>1.675670525490061</v>
+        <v>1.368955108923024</v>
       </c>
       <c r="J33" t="n">
-        <v>2.660981306059984</v>
+        <v>2.632047751581791</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8558736553866471</v>
+        <v>0.7284013386836741</v>
       </c>
       <c r="L33" t="n">
-        <v>1.873612535117539</v>
+        <v>1.690270400478806</v>
       </c>
       <c r="M33" t="n">
-        <v>1.773548745093616</v>
+        <v>1.565261728418446</v>
       </c>
     </row>
     <row r="34">
@@ -1887,40 +1887,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.246117432713247</v>
+        <v>6.405704520068215</v>
       </c>
       <c r="C34" t="n">
-        <v>9.409621770222678</v>
+        <v>9.176745503451412</v>
       </c>
       <c r="D34" t="n">
-        <v>7.533990549029252</v>
+        <v>7.368291205224691</v>
       </c>
       <c r="E34" t="n">
-        <v>3.832164302256816</v>
+        <v>3.416017983456819</v>
       </c>
       <c r="F34" t="n">
-        <v>4.230547720504935</v>
+        <v>4.253572527017711</v>
       </c>
       <c r="G34" t="n">
-        <v>1.190031294494368</v>
+        <v>1.175082920825695</v>
       </c>
       <c r="H34" t="n">
-        <v>12.40600309109735</v>
+        <v>12.02034624764252</v>
       </c>
       <c r="I34" t="n">
-        <v>1.237441526984046</v>
+        <v>1.096572626099342</v>
       </c>
       <c r="J34" t="n">
-        <v>3.86096985594234</v>
+        <v>3.947312345738433</v>
       </c>
       <c r="K34" t="n">
-        <v>1.32502271035257</v>
+        <v>1.252083487299056</v>
       </c>
       <c r="L34" t="n">
-        <v>3.086905411268513</v>
+        <v>2.972936065988732</v>
       </c>
       <c r="M34" t="n">
-        <v>2.249729339558115</v>
+        <v>2.165681380555843</v>
       </c>
     </row>
     <row r="35">
@@ -1930,40 +1930,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.266739804785212</v>
+        <v>3.442995239686483</v>
       </c>
       <c r="C35" t="n">
-        <v>3.546346465625508</v>
+        <v>3.42732320929075</v>
       </c>
       <c r="D35" t="n">
-        <v>4.708746113909581</v>
+        <v>4.607517440835424</v>
       </c>
       <c r="E35" t="n">
-        <v>1.707318659303735</v>
+        <v>1.602150053928314</v>
       </c>
       <c r="F35" t="n">
-        <v>3.884578537482583</v>
+        <v>3.848323996731143</v>
       </c>
       <c r="G35" t="n">
-        <v>1.772143495052064</v>
+        <v>1.82409584547338</v>
       </c>
       <c r="H35" t="n">
-        <v>2.719522364416501</v>
+        <v>2.601663469500058</v>
       </c>
       <c r="I35" t="n">
-        <v>1.431266741184777</v>
+        <v>1.557733707774182</v>
       </c>
       <c r="J35" t="n">
-        <v>3.093911335401175</v>
+        <v>3.181994578325187</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4996612626730929</v>
+        <v>0.4918775256036301</v>
       </c>
       <c r="L35" t="n">
-        <v>1.390770632253459</v>
+        <v>1.297815791047041</v>
       </c>
       <c r="M35" t="n">
-        <v>1.455960320173308</v>
+        <v>1.482604006863751</v>
       </c>
     </row>
     <row r="36">
@@ -1973,40 +1973,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.095852195404938</v>
+        <v>4.129045264675938</v>
       </c>
       <c r="C36" t="n">
-        <v>3.853277471720418</v>
+        <v>3.848136694154462</v>
       </c>
       <c r="D36" t="n">
-        <v>4.149598258927345</v>
+        <v>3.933260306966042</v>
       </c>
       <c r="E36" t="n">
-        <v>2.383529081043952</v>
+        <v>2.269490074056775</v>
       </c>
       <c r="F36" t="n">
-        <v>3.700179528643675</v>
+        <v>3.524558108694555</v>
       </c>
       <c r="G36" t="n">
-        <v>1.152841120438975</v>
+        <v>1.072093301679886</v>
       </c>
       <c r="H36" t="n">
-        <v>5.504777546154707</v>
+        <v>5.128880932611391</v>
       </c>
       <c r="I36" t="n">
-        <v>1.189370737723131</v>
+        <v>0.647519536802392</v>
       </c>
       <c r="J36" t="n">
-        <v>2.887009610428331</v>
+        <v>2.506395720133255</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2393609611515714</v>
+        <v>0.1972651203866068</v>
       </c>
       <c r="L36" t="n">
-        <v>1.374233514827073</v>
+        <v>1.223580848899681</v>
       </c>
       <c r="M36" t="n">
-        <v>1.317246563374191</v>
+        <v>1.045630718082126</v>
       </c>
     </row>
     <row r="37">
@@ -2016,40 +2016,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.813186779165521</v>
+        <v>1.811795922151149</v>
       </c>
       <c r="C37" t="n">
-        <v>2.200299298508564</v>
+        <v>2.210771933436325</v>
       </c>
       <c r="D37" t="n">
-        <v>3.04207000636047</v>
+        <v>2.919719427800144</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9340154234816511</v>
+        <v>0.8119128132630935</v>
       </c>
       <c r="F37" t="n">
-        <v>2.590193669492892</v>
+        <v>2.554804725560233</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2043494138483647</v>
+        <v>0.1966067490772347</v>
       </c>
       <c r="H37" t="n">
-        <v>2.23965768690006</v>
+        <v>2.079026837041813</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6749846124971146</v>
+        <v>0.6260432070959144</v>
       </c>
       <c r="J37" t="n">
-        <v>1.956477357868471</v>
+        <v>1.975859801348219</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1134513067965661</v>
+        <v>0.08097329436778243</v>
       </c>
       <c r="L37" t="n">
-        <v>1.695610889233704</v>
+        <v>1.845496283049915</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4184545770977668</v>
+        <v>0.4113972874583551</v>
       </c>
     </row>
     <row r="38">
@@ -2059,40 +2059,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.493880020264723</v>
+        <v>4.435528980426131</v>
       </c>
       <c r="C38" t="n">
-        <v>3.466347344214547</v>
+        <v>3.526915083356704</v>
       </c>
       <c r="D38" t="n">
-        <v>7.622532373948214</v>
+        <v>7.490330255714616</v>
       </c>
       <c r="E38" t="n">
-        <v>2.986666473162005</v>
+        <v>2.829328348761408</v>
       </c>
       <c r="F38" t="n">
-        <v>4.740245786656569</v>
+        <v>4.658262253475302</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6961891479726743</v>
+        <v>0.6656203364091687</v>
       </c>
       <c r="H38" t="n">
-        <v>5.843919479931665</v>
+        <v>5.613152220773787</v>
       </c>
       <c r="I38" t="n">
-        <v>1.403759624087322</v>
+        <v>1.337848422979179</v>
       </c>
       <c r="J38" t="n">
-        <v>4.302787204344589</v>
+        <v>4.24668272166958</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3192730799954682</v>
+        <v>0.3081584526936458</v>
       </c>
       <c r="L38" t="n">
-        <v>2.800141668477115</v>
+        <v>2.370065578939273</v>
       </c>
       <c r="M38" t="n">
-        <v>1.106630790477185</v>
+        <v>1.045606921242079</v>
       </c>
     </row>
     <row r="39">
@@ -2102,40 +2102,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.007291578849437</v>
+        <v>4.143515559559785</v>
       </c>
       <c r="C39" t="n">
-        <v>5.517849356530459</v>
+        <v>5.556851686833411</v>
       </c>
       <c r="D39" t="n">
-        <v>6.530261040181754</v>
+        <v>6.356381717326414</v>
       </c>
       <c r="E39" t="n">
-        <v>2.92008309109163</v>
+        <v>2.655796991839797</v>
       </c>
       <c r="F39" t="n">
-        <v>4.676844763538723</v>
+        <v>4.565557152887932</v>
       </c>
       <c r="G39" t="n">
-        <v>1.067090748035084</v>
+        <v>1.019808131932653</v>
       </c>
       <c r="H39" t="n">
-        <v>4.723969475767338</v>
+        <v>4.261269468953931</v>
       </c>
       <c r="I39" t="n">
-        <v>1.022377674149816</v>
+        <v>0.8502386744188701</v>
       </c>
       <c r="J39" t="n">
-        <v>4.433014487211694</v>
+        <v>4.403071125779914</v>
       </c>
       <c r="K39" t="n">
-        <v>1.045906054019685</v>
+        <v>0.9899234979054008</v>
       </c>
       <c r="L39" t="n">
-        <v>2.537683345479942</v>
+        <v>2.329283268846363</v>
       </c>
       <c r="M39" t="n">
-        <v>1.560677796894632</v>
+        <v>1.442458233296945</v>
       </c>
     </row>
     <row r="40">
@@ -2145,40 +2145,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.478264137099837</v>
+        <v>3.485564869555189</v>
       </c>
       <c r="C40" t="n">
-        <v>5.882842785336321</v>
+        <v>5.723422816734999</v>
       </c>
       <c r="D40" t="n">
-        <v>5.04664511570887</v>
+        <v>4.951953669070859</v>
       </c>
       <c r="E40" t="n">
-        <v>1.947922251679627</v>
+        <v>1.48297861080294</v>
       </c>
       <c r="F40" t="n">
-        <v>4.20971099324877</v>
+        <v>4.063521730384896</v>
       </c>
       <c r="G40" t="n">
-        <v>1.65493497256203</v>
+        <v>1.642622805419006</v>
       </c>
       <c r="H40" t="n">
-        <v>3.91692724299275</v>
+        <v>3.421551735758451</v>
       </c>
       <c r="I40" t="n">
-        <v>1.335885417954182</v>
+        <v>1.132210877121477</v>
       </c>
       <c r="J40" t="n">
-        <v>3.14536381857523</v>
+        <v>3.043053113770586</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6629103085593224</v>
+        <v>0.633817584462549</v>
       </c>
       <c r="L40" t="n">
-        <v>1.886180612571235</v>
+        <v>1.70294428242041</v>
       </c>
       <c r="M40" t="n">
-        <v>1.707057090982055</v>
+        <v>1.533773973243268</v>
       </c>
     </row>
     <row r="41">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.661738929063043</v>
+        <v>3.679930709869139</v>
       </c>
       <c r="C41" t="n">
-        <v>3.235452145711311</v>
+        <v>3.227710835675771</v>
       </c>
       <c r="D41" t="n">
-        <v>4.589556196094013</v>
+        <v>4.475007275549824</v>
       </c>
       <c r="E41" t="n">
-        <v>4.84753498390487</v>
+        <v>4.719770089657594</v>
       </c>
       <c r="F41" t="n">
-        <v>3.747372555214724</v>
+        <v>3.703931554770728</v>
       </c>
       <c r="G41" t="n">
-        <v>1.008195793996351</v>
+        <v>1.018992333750212</v>
       </c>
       <c r="H41" t="n">
-        <v>3.882676901321212</v>
+        <v>3.654554772556691</v>
       </c>
       <c r="I41" t="n">
-        <v>1.451723761842884</v>
+        <v>1.298656708738879</v>
       </c>
       <c r="J41" t="n">
-        <v>2.515316171951811</v>
+        <v>2.595070420961973</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6841270623759399</v>
+        <v>0.7096587179711216</v>
       </c>
       <c r="L41" t="n">
-        <v>1.652115149422087</v>
+        <v>1.601556249066747</v>
       </c>
       <c r="M41" t="n">
-        <v>1.312301969679915</v>
+        <v>1.276535285410959</v>
       </c>
     </row>
     <row r="42">
@@ -2231,40 +2231,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.533344168365746</v>
+        <v>4.771564195151075</v>
       </c>
       <c r="C42" t="n">
-        <v>5.500636426799156</v>
+        <v>5.570257010900417</v>
       </c>
       <c r="D42" t="n">
-        <v>3.913174521461279</v>
+        <v>3.824527089155137</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8790653866306332</v>
+        <v>0.8652089681637098</v>
       </c>
       <c r="F42" t="n">
-        <v>4.759826953675333</v>
+        <v>4.780964583994</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9099946313070808</v>
+        <v>0.9228688072119023</v>
       </c>
       <c r="H42" t="n">
-        <v>2.661024847850618</v>
+        <v>2.195955336230754</v>
       </c>
       <c r="I42" t="n">
-        <v>2.000988127041439</v>
+        <v>1.657433859532616</v>
       </c>
       <c r="J42" t="n">
-        <v>2.406079178660039</v>
+        <v>2.41284513934619</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2400518530466877</v>
+        <v>0.2427904976815577</v>
       </c>
       <c r="L42" t="n">
-        <v>2.005397074196748</v>
+        <v>1.755380574473701</v>
       </c>
       <c r="M42" t="n">
-        <v>1.581824424165301</v>
+        <v>1.64228356887274</v>
       </c>
     </row>
     <row r="43">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.159103731857688</v>
+        <v>5.556593666822356</v>
       </c>
       <c r="C43" t="n">
-        <v>5.215151496056873</v>
+        <v>5.260893320103206</v>
       </c>
       <c r="D43" t="n">
-        <v>3.882642400611714</v>
+        <v>3.841124003323514</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8710409486620624</v>
+        <v>0.7218790108578804</v>
       </c>
       <c r="F43" t="n">
-        <v>5.204242872062077</v>
+        <v>5.197775977260994</v>
       </c>
       <c r="G43" t="n">
-        <v>1.32227034268894</v>
+        <v>1.253490619506442</v>
       </c>
       <c r="H43" t="n">
-        <v>12.26869330343493</v>
+        <v>12.07781530391092</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7800400278278595</v>
+        <v>0.6399204031448791</v>
       </c>
       <c r="J43" t="n">
-        <v>2.366839410948712</v>
+        <v>2.32110116225686</v>
       </c>
       <c r="K43" t="n">
-        <v>1.040609454355221</v>
+        <v>0.968894165521443</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4314782382382003</v>
+        <v>0.3818107975163486</v>
       </c>
       <c r="M43" t="n">
-        <v>1.542229740507999</v>
+        <v>1.289794000161668</v>
       </c>
     </row>
     <row r="44">
@@ -2317,40 +2317,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.266688616385752</v>
+        <v>5.246959955651773</v>
       </c>
       <c r="C44" t="n">
-        <v>5.042811025361512</v>
+        <v>5.287449759846618</v>
       </c>
       <c r="D44" t="n">
-        <v>7.518641015043721</v>
+        <v>7.362509375484316</v>
       </c>
       <c r="E44" t="n">
-        <v>2.003042305943328</v>
+        <v>1.40731845636989</v>
       </c>
       <c r="F44" t="n">
-        <v>5.64535417041127</v>
+        <v>5.542020320102339</v>
       </c>
       <c r="G44" t="n">
-        <v>1.675435244372908</v>
+        <v>1.561602577796664</v>
       </c>
       <c r="H44" t="n">
-        <v>3.850282061350204</v>
+        <v>3.693048984489694</v>
       </c>
       <c r="I44" t="n">
-        <v>1.308485294627403</v>
+        <v>0.791539909064167</v>
       </c>
       <c r="J44" t="n">
-        <v>3.234685625554577</v>
+        <v>3.113524030051037</v>
       </c>
       <c r="K44" t="n">
-        <v>2.255365424370368</v>
+        <v>2.005328184650121</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7231260238050127</v>
+        <v>0.6267372807046248</v>
       </c>
       <c r="M44" t="n">
-        <v>1.90788494587499</v>
+        <v>1.767658579489513</v>
       </c>
     </row>
     <row r="45">
@@ -2360,40 +2360,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.756005056610023</v>
+        <v>3.761237504725575</v>
       </c>
       <c r="C45" t="n">
-        <v>7.238243417969832</v>
+        <v>7.096363509293504</v>
       </c>
       <c r="D45" t="n">
-        <v>5.337972555195054</v>
+        <v>5.236417408649271</v>
       </c>
       <c r="E45" t="n">
-        <v>1.698968231386004</v>
+        <v>1.189664762595667</v>
       </c>
       <c r="F45" t="n">
-        <v>4.585721670840353</v>
+        <v>4.438009973406634</v>
       </c>
       <c r="G45" t="n">
-        <v>1.156725460385617</v>
+        <v>1.082285241915336</v>
       </c>
       <c r="H45" t="n">
-        <v>3.579182359004864</v>
+        <v>3.379624868690945</v>
       </c>
       <c r="I45" t="n">
-        <v>1.89968626591184</v>
+        <v>1.695223332700871</v>
       </c>
       <c r="J45" t="n">
-        <v>3.030380548151694</v>
+        <v>2.893524932463808</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3966820780751992</v>
+        <v>0.3599231133731522</v>
       </c>
       <c r="L45" t="n">
-        <v>1.14219268109484</v>
+        <v>1.027060860702867</v>
       </c>
       <c r="M45" t="n">
-        <v>1.744687832606014</v>
+        <v>1.484964962185485</v>
       </c>
     </row>
     <row r="46">
@@ -2403,40 +2403,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.571904939531226</v>
+        <v>3.576218516187207</v>
       </c>
       <c r="C46" t="n">
-        <v>2.630687609756267</v>
+        <v>2.640285546699111</v>
       </c>
       <c r="D46" t="n">
-        <v>6.459412974495295</v>
+        <v>6.510957559363304</v>
       </c>
       <c r="E46" t="n">
-        <v>1.720366372250842</v>
+        <v>1.666149939227027</v>
       </c>
       <c r="F46" t="n">
-        <v>4.900132443548761</v>
+        <v>4.877891236708164</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7968271441612644</v>
+        <v>0.7943531120483579</v>
       </c>
       <c r="H46" t="n">
-        <v>5.559105150781045</v>
+        <v>5.521277843299363</v>
       </c>
       <c r="I46" t="n">
-        <v>1.017817204790302</v>
+        <v>0.9901248502202283</v>
       </c>
       <c r="J46" t="n">
-        <v>4.85435015297909</v>
+        <v>4.862588667347874</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4537797439748941</v>
+        <v>0.4517622730868745</v>
       </c>
       <c r="L46" t="n">
-        <v>2.939688805165281</v>
+        <v>2.895627047028315</v>
       </c>
       <c r="M46" t="n">
-        <v>1.870490810206846</v>
+        <v>1.840884631867955</v>
       </c>
     </row>
     <row r="47">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.431676569375425</v>
+        <v>2.360623673210268</v>
       </c>
       <c r="C47" t="n">
-        <v>2.711744193493841</v>
+        <v>2.614470943180873</v>
       </c>
       <c r="D47" t="n">
-        <v>3.220326355476774</v>
+        <v>3.165426137771393</v>
       </c>
       <c r="E47" t="n">
-        <v>1.119695933706098</v>
+        <v>0.9551470129917451</v>
       </c>
       <c r="F47" t="n">
-        <v>2.818724978085052</v>
+        <v>2.732185937858336</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8544971566526912</v>
+        <v>0.8194430746636497</v>
       </c>
       <c r="H47" t="n">
-        <v>2.555214657726266</v>
+        <v>2.384775522073854</v>
       </c>
       <c r="I47" t="n">
-        <v>1.215769536271966</v>
+        <v>1.059773229404396</v>
       </c>
       <c r="J47" t="n">
-        <v>2.455255988098618</v>
+        <v>2.406889987352633</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4137226542158582</v>
+        <v>0.3906842172601284</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9413886666350241</v>
+        <v>0.8726978970674839</v>
       </c>
       <c r="M47" t="n">
-        <v>1.072357313868008</v>
+        <v>0.9529647032852174</v>
       </c>
     </row>
     <row r="48">
@@ -2489,40 +2489,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.402612617601005</v>
+        <v>4.404113990171696</v>
       </c>
       <c r="C48" t="n">
-        <v>5.55531459601301</v>
+        <v>5.458002778556773</v>
       </c>
       <c r="D48" t="n">
-        <v>7.212692711107638</v>
+        <v>7.108066602980004</v>
       </c>
       <c r="E48" t="n">
-        <v>1.358278932583501</v>
+        <v>1.102994875924211</v>
       </c>
       <c r="F48" t="n">
-        <v>3.658816003602348</v>
+        <v>3.548031012150004</v>
       </c>
       <c r="G48" t="n">
-        <v>1.003819009397482</v>
+        <v>0.9784702211580193</v>
       </c>
       <c r="H48" t="n">
-        <v>3.390943167108179</v>
+        <v>3.253999624489032</v>
       </c>
       <c r="I48" t="n">
-        <v>1.432684730661727</v>
+        <v>1.26762103963214</v>
       </c>
       <c r="J48" t="n">
-        <v>3.072767083947173</v>
+        <v>2.98952910118702</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4426673157367432</v>
+        <v>0.4086763336153494</v>
       </c>
       <c r="L48" t="n">
-        <v>1.077950953010375</v>
+        <v>0.9991484801023985</v>
       </c>
       <c r="M48" t="n">
-        <v>1.484258833916276</v>
+        <v>1.372616128292365</v>
       </c>
     </row>
     <row r="49">
@@ -2532,40 +2532,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.666981048839784</v>
+        <v>3.631761583961571</v>
       </c>
       <c r="C49" t="n">
-        <v>6.100993916830836</v>
+        <v>5.908091166788283</v>
       </c>
       <c r="D49" t="n">
-        <v>9.55155392728077</v>
+        <v>9.457364293117489</v>
       </c>
       <c r="E49" t="n">
-        <v>1.690783801839413</v>
+        <v>1.325907111093868</v>
       </c>
       <c r="F49" t="n">
-        <v>5.969382153589869</v>
+        <v>5.782400897888002</v>
       </c>
       <c r="G49" t="n">
-        <v>1.126620353660029</v>
+        <v>1.04315912095893</v>
       </c>
       <c r="H49" t="n">
-        <v>5.369084994386913</v>
+        <v>5.166935490772874</v>
       </c>
       <c r="I49" t="n">
-        <v>1.220505716422229</v>
+        <v>1.035996477579896</v>
       </c>
       <c r="J49" t="n">
-        <v>3.815034592584401</v>
+        <v>3.649102267267051</v>
       </c>
       <c r="K49" t="n">
-        <v>1.100811191998087</v>
+        <v>0.9988635577984275</v>
       </c>
       <c r="L49" t="n">
-        <v>1.843440111285748</v>
+        <v>1.622191952957407</v>
       </c>
       <c r="M49" t="n">
-        <v>2.250708338439641</v>
+        <v>1.955128715160067</v>
       </c>
     </row>
     <row r="50">
@@ -2575,40 +2575,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.879483691548513</v>
+        <v>7.875959265689024</v>
       </c>
       <c r="C50" t="n">
-        <v>4.452019216018526</v>
+        <v>4.375312806814033</v>
       </c>
       <c r="D50" t="n">
-        <v>6.008649446791869</v>
+        <v>5.834249000643477</v>
       </c>
       <c r="E50" t="n">
-        <v>1.745626288693682</v>
+        <v>1.674792644352417</v>
       </c>
       <c r="F50" t="n">
-        <v>5.08535224035237</v>
+        <v>4.955006650134423</v>
       </c>
       <c r="G50" t="n">
-        <v>1.778191784392893</v>
+        <v>1.639424165008257</v>
       </c>
       <c r="H50" t="n">
-        <v>9.104103343150802</v>
+        <v>8.859077453533263</v>
       </c>
       <c r="I50" t="n">
-        <v>4.565789448499379</v>
+        <v>4.495963098954161</v>
       </c>
       <c r="J50" t="n">
-        <v>5.563032542515567</v>
+        <v>5.498646720247509</v>
       </c>
       <c r="K50" t="n">
-        <v>1.044391506506796</v>
+        <v>0.7957155233121597</v>
       </c>
       <c r="L50" t="n">
-        <v>1.607840916801635</v>
+        <v>1.618228600774851</v>
       </c>
       <c r="M50" t="n">
-        <v>1.471520933978803</v>
+        <v>1.259149129760407</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.962818001598389</v>
+        <v>3.966432770385047</v>
       </c>
     </row>
     <row r="3">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.409583784508648</v>
+        <v>6.497251451111998</v>
       </c>
     </row>
     <row r="4">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.184000748634162</v>
+        <v>5.083431086803365</v>
       </c>
     </row>
     <row r="5">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.846980610469851</v>
+        <v>1.565645446476724</v>
       </c>
     </row>
     <row r="6">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.63538951720356</v>
+        <v>4.491713845421185</v>
       </c>
     </row>
     <row r="7">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.531378736105046</v>
+        <v>1.515214542743081</v>
       </c>
     </row>
     <row r="8">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.614134561885957</v>
+        <v>4.427106353805464</v>
       </c>
     </row>
     <row r="9">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.37818533528489</v>
+        <v>1.172457666587954</v>
       </c>
     </row>
     <row r="10">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.072560318507993</v>
+        <v>2.889149565942133</v>
       </c>
     </row>
     <row r="11">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6964971603713522</v>
+        <v>0.5991624351206748</v>
       </c>
     </row>
     <row r="12">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.336414013114877</v>
+        <v>1.185621752843877</v>
       </c>
     </row>
     <row r="13">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.956958048872367</v>
+        <v>1.826366872469138</v>
       </c>
     </row>
   </sheetData>
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01012233173029181</v>
+        <v>0.01399963694797041</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05284647177491739</v>
+        <v>-0.05119973376572073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02326445321585592</v>
+        <v>0.02498486458782982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06290365371592928</v>
+        <v>0.05966571323069585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02783429113022679</v>
+        <v>0.02907186309547793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01649144436191346</v>
+        <v>0.01651398762149812</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03317525833216771</v>
+        <v>0.03338707568333881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002790687910167082</v>
+        <v>0.003440805473230676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01243902294480242</v>
+        <v>0.01460841076948699</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01148232600778276</v>
+        <v>0.01107694104688993</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005659550105780196</v>
+        <v>0.006971075882667641</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006579853410805738</v>
+        <v>0.0076597189368843</v>
       </c>
     </row>
     <row r="3">
@@ -2891,40 +2891,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.004733597974298</v>
+        <v>3.950239853246576</v>
       </c>
       <c r="C3" t="n">
-        <v>7.614627387479086</v>
+        <v>7.558424837029761</v>
       </c>
       <c r="D3" t="n">
-        <v>4.994046645151863</v>
+        <v>4.814473057692262</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2348079105261913</v>
+        <v>0.09528080638749659</v>
       </c>
       <c r="F3" t="n">
-        <v>3.831557783903058</v>
+        <v>3.672974488061269</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7733159679751954</v>
+        <v>0.7524027193137636</v>
       </c>
       <c r="H3" t="n">
-        <v>4.867294307214226</v>
+        <v>4.611163091986425</v>
       </c>
       <c r="I3" t="n">
-        <v>1.442577334501988</v>
+        <v>1.222602524902628</v>
       </c>
       <c r="J3" t="n">
-        <v>2.915229059659247</v>
+        <v>2.790105924772623</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3005661296920626</v>
+        <v>0.2591257816479247</v>
       </c>
       <c r="L3" t="n">
-        <v>1.614340162842436</v>
+        <v>1.454323751837418</v>
       </c>
       <c r="M3" t="n">
-        <v>1.50389911920022</v>
+        <v>1.335365528391502</v>
       </c>
     </row>
     <row r="4">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1538810381907677</v>
+        <v>0.1987660934220064</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2147179959085907</v>
+        <v>-0.209245849573493</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2796648351405039</v>
+        <v>0.3012965330922677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6750434708824087</v>
+        <v>0.6377697674744659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4189081396764599</v>
+        <v>0.4228811225541855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4978634864243208</v>
+        <v>0.4757628154408277</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1514079568269982</v>
+        <v>0.1573386382368822</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07190664411651566</v>
+        <v>0.08858879432692573</v>
       </c>
       <c r="J4" t="n">
-        <v>0.191252523719741</v>
+        <v>0.2129831494134744</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5133896547620183</v>
+        <v>0.5092010906659634</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1296041454343576</v>
+        <v>0.1473307341410574</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1946520843170642</v>
+        <v>0.1966157286511984</v>
       </c>
     </row>
     <row r="5">
@@ -2977,40 +2977,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2911220037172084</v>
+        <v>0.1709523972085747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1384556168006148</v>
+        <v>0.1490381628728464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05163742519283938</v>
+        <v>0.03539674804862115</v>
       </c>
       <c r="E5" t="n">
-        <v>1.039261905478894e-07</v>
+        <v>8.277226025334006e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002737507969982851</v>
+        <v>0.002468594407136379</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002726722146919703</v>
+        <v>0.0005502982352755113</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2990386441457246</v>
+        <v>0.2802845214006498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6234343131274958</v>
+        <v>0.5449763866492205</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1880410231971147</v>
+        <v>0.1417481130476204</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001616926132188605</v>
+        <v>0.0001866342434432581</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3747773423988602</v>
+        <v>0.3123909923378022</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1801640438903997</v>
+        <v>0.1757237292712747</v>
       </c>
     </row>
     <row r="6">
@@ -3020,40 +3020,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009480751458213076</v>
+        <v>0.01006867742171431</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03506300865263182</v>
+        <v>0.03490116822239948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0116498808871002</v>
+        <v>0.01153369657860322</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01002815127563633</v>
+        <v>0.01051067848457802</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008800593744150716</v>
+        <v>0.009087043061959609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004190313415588398</v>
+        <v>0.004453328408470453</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03159226591811202</v>
+        <v>0.03056686031074824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005646347910316994</v>
+        <v>0.005643148929826974</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009311905314486644</v>
+        <v>0.009775257307222252</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002799625113180021</v>
+        <v>0.002730907183474862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006315905642181544</v>
+        <v>0.006826406508146765</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004836383412112468</v>
+        <v>0.005571660736217052</v>
       </c>
     </row>
     <row r="7">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02367937391466851</v>
+        <v>0.03950795989424577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04610381776700157</v>
+        <v>0.04378382556373286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07821242001416524</v>
+        <v>0.09077960085341995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4556836875809693</v>
+        <v>0.4067502763044343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1754840294871924</v>
+        <v>0.178828443812688</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2478680511145798</v>
+        <v>0.2263502565561831</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02292436939052614</v>
+        <v>0.02475544708223648</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005170565468099237</v>
+        <v>0.007847974480298349</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03657752782917009</v>
+        <v>0.04536182193408236</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2635689376166643</v>
+        <v>0.2592857507354067</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0167972345137701</v>
+        <v>0.02170634522254292</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03788943392897746</v>
+        <v>0.03865774475304166</v>
       </c>
     </row>
   </sheetData>
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07643634989938952</v>
+        <v>0.06425272110277518</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5697369951189181</v>
+        <v>-0.6007500656845993</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05964101215483642</v>
+        <v>-0.06721138578778488</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7534778119874864</v>
+        <v>0.8576025421284592</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1711178045083588</v>
+        <v>-0.2706581135648311</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0579274533776784</v>
+        <v>-0.0931219772911952</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1771820466375928</v>
+        <v>0.09498050230433441</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3193336222197447</v>
+        <v>-0.5054705310843632</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07155859859947239</v>
+        <v>-0.09196202021439352</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5348597283496714</v>
+        <v>0.6098307996029089</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008792123504635435</v>
+        <v>0.01655147522080159</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3998482098231074</v>
+        <v>-0.4949918576075455</v>
       </c>
     </row>
     <row r="3">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3075481596357791</v>
+        <v>0.3210586940893383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7618671113300081</v>
+        <v>0.735599538176987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3100082301165224</v>
+        <v>0.3314655536762873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2064480495978377</v>
+        <v>0.1481878100198145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1905727663329775</v>
+        <v>0.2128594587249608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2844529982551986</v>
+        <v>0.2848451832921584</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3097824591534</v>
+        <v>0.3031636485759654</v>
       </c>
       <c r="I3" t="n">
-        <v>0.304073325644451</v>
+        <v>0.3500512901507268</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1996969786877592</v>
+        <v>-0.1578585493933995</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1140319452924947</v>
+        <v>0.1378155076864027</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22315651108445</v>
+        <v>1.316649037755692</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1401162535260543</v>
+        <v>-0.1454216959369578</v>
       </c>
     </row>
     <row r="4">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2409558194864438</v>
+        <v>0.2571153728495777</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2224143190688734</v>
+        <v>-0.2500048257221719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2471880262086646</v>
+        <v>0.2479689573806965</v>
       </c>
       <c r="E4" t="n">
-        <v>1.174331157335866</v>
+        <v>1.229288102559885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3838229562392768</v>
+        <v>0.3876546957759825</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2854785562862981</v>
+        <v>0.2914690688437246</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1718587119199952</v>
+        <v>0.1362649972997997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5285741986420321</v>
+        <v>0.6204665868284795</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1182790906347472</v>
+        <v>0.1906594663325684</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2944077336214664</v>
+        <v>0.3805619789933748</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3898803777712592</v>
+        <v>0.4008700356414149</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.134561141088912</v>
+        <v>-0.09672074620327095</v>
       </c>
     </row>
     <row r="5">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1116414980407333</v>
+        <v>-0.1158509822782946</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1531319410414731</v>
+        <v>-0.1474498349471204</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.243074463973312</v>
+        <v>-0.2535466339671925</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3246313919762692</v>
+        <v>-0.3341064376551573</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2172203032122044</v>
+        <v>-0.2069890469864218</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9170428609610803</v>
+        <v>-0.9416152470458643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.205634627650246</v>
+        <v>0.1945633603726596</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1837603976912374</v>
+        <v>-0.4522588835187681</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1166526123956273</v>
+        <v>-0.07603765160640294</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.9630474365687723</v>
+        <v>-1.000283393143283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05942247603359398</v>
+        <v>0.02777176463713768</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4152528985175994</v>
+        <v>-0.3700180012578715</v>
       </c>
     </row>
     <row r="6">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4963386214025712</v>
+        <v>0.4881768432405245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8906013977017262</v>
+        <v>0.8764634729418703</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1534406000714099</v>
+        <v>-0.1701476823726935</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1635297352197195</v>
+        <v>0.2403159103251374</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3346576863072014</v>
+        <v>-0.5241978865503346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1130525704038642</v>
+        <v>0.08338001943667353</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1234446853012629</v>
+        <v>0.1290784799429425</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4986026645271287</v>
+        <v>0.3347782330822791</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01186514853805194</v>
+        <v>-0.02555063196921662</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4294741302973523</v>
+        <v>-0.3334203785339019</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4486048603427942</v>
+        <v>-0.6725947497904503</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.91449520103851</v>
+        <v>-1.041557151155807</v>
       </c>
     </row>
     <row r="7">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3711413243458409</v>
+        <v>0.5812623806942767</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1981463601819807</v>
+        <v>0.1031895356247555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4423509117876857</v>
+        <v>0.5014607166944831</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7294614676903824</v>
+        <v>1.085081975533062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3504806686670532</v>
+        <v>0.5084479435095746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1391700994566812</v>
+        <v>0.47919800403159</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4696012586813931</v>
+        <v>0.7186768616221748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6654554692953374</v>
+        <v>1.059729370213775</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6795632649050941</v>
+        <v>0.9544330064141663</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5466184616788865</v>
+        <v>1.061324256728078</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9691949310219599</v>
+        <v>1.380895235183803</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3519419423813597</v>
+        <v>0.8533462963827687</v>
       </c>
     </row>
     <row r="8">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06484383495279784</v>
+        <v>0.1331169551422993</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.886948434525256</v>
+        <v>-0.8960378454214749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05214369791778447</v>
+        <v>0.04443653242415348</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04527621018092404</v>
+        <v>0.08849325455851374</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4083128226987618</v>
+        <v>0.4168366085703891</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4241492536896466</v>
+        <v>0.3191028577355012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3559371028561047</v>
+        <v>0.3460720083118181</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.312768115504706</v>
+        <v>-0.3067902467962959</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2861413833380723</v>
+        <v>-0.2604918720389651</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2959935966766549</v>
+        <v>0.1765117582824995</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4600153406634832</v>
+        <v>0.4938338087958306</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.09219186526038201</v>
+        <v>-0.2427714685028353</v>
       </c>
     </row>
     <row r="9">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0491887039391888</v>
+        <v>-0.08917376852230111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.64795274725461</v>
+        <v>1.626303757362324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5919676529245101</v>
+        <v>0.5281191292997464</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2813384494791719</v>
+        <v>0.3895796338965782</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3053466007636617</v>
+        <v>-0.4922686817102509</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5774767050460186</v>
+        <v>0.5695191277620409</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2574622628015201</v>
+        <v>-0.3960468950086124</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1450835060405209</v>
+        <v>0.05032147044215143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01477650305935054</v>
+        <v>-0.1717449582123146</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6882421417985671</v>
+        <v>0.4695313681274255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4197937870835342</v>
+        <v>0.1991215667847129</v>
       </c>
       <c r="M9" t="n">
-        <v>0.534360267847958</v>
+        <v>0.5018333019284538</v>
       </c>
     </row>
     <row r="10">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1052572194698723</v>
+        <v>0.07585983274972809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1869190930357418</v>
+        <v>0.1469954521919751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1793461805104901</v>
+        <v>0.1366048929210259</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5608980530145022</v>
+        <v>-0.8698217289606086</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09849926009319541</v>
+        <v>0.1029525866916934</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1776207667169675</v>
+        <v>-0.2160265149535482</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7938853657392213</v>
+        <v>0.8181276966576331</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002596833884212995</v>
+        <v>-0.05295904020385124</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2270789431580108</v>
+        <v>-0.216783826741269</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6847478466408938</v>
+        <v>-0.7240088510200856</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1970417310233321</v>
+        <v>0.203521603664854</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.5638702638252638</v>
+        <v>-0.6423840223146641</v>
       </c>
     </row>
     <row r="11">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05403013033050568</v>
+        <v>-0.02460917629225227</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6238395509699421</v>
+        <v>-0.6406415125225757</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1885626900906842</v>
+        <v>0.180507135758369</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3648452852348688</v>
+        <v>0.4592895951272293</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07383370512231339</v>
+        <v>-0.05873095009550156</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6275081233969766</v>
+        <v>-0.6215444209245296</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1235942841626089</v>
+        <v>0.09260728640366772</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1367094905890568</v>
+        <v>-0.217265084248567</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2623650947854169</v>
+        <v>-0.2170680522421943</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1691575666352302</v>
+        <v>-0.1409421664016259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2884247428290999</v>
+        <v>0.3903795272552282</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.2021786994130076</v>
+        <v>-0.2222613694979721</v>
       </c>
     </row>
     <row r="12">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1500606013337567</v>
+        <v>-0.153230889514458</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5450586283153219</v>
+        <v>-0.5813415549985149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0587602063295489</v>
+        <v>0.05719745007417357</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6482613377098938</v>
+        <v>0.6772849711765562</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06832147419400054</v>
+        <v>-0.07904734750839199</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06385437121269705</v>
+        <v>-0.08460601050491669</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3178899703970096</v>
+        <v>0.3055239411279333</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1436794974705502</v>
+        <v>-0.167896278522055</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.06878872096987484</v>
+        <v>-0.07278528817693271</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.04920092510796012</v>
+        <v>0.009406757713824702</v>
       </c>
       <c r="L12" t="n">
-        <v>0.132838034526633</v>
+        <v>0.1525273075558378</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1624077896668683</v>
+        <v>-0.1719935049744373</v>
       </c>
     </row>
     <row r="13">
@@ -3665,40 +3665,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3397515208048187</v>
+        <v>0.4059147079652745</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2115846499556788</v>
+        <v>-0.2185095810864118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2181511133369787</v>
+        <v>0.2136592169408083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5662905674308072</v>
+        <v>0.3631686304568514</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01964203363548839</v>
+        <v>-0.02284486725237996</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05512610611548875</v>
+        <v>0.0415319457641648</v>
       </c>
       <c r="H13" t="n">
-        <v>1.208632551562373</v>
+        <v>1.219405764931156</v>
       </c>
       <c r="I13" t="n">
-        <v>0.141231194823621</v>
+        <v>0.07777459897241835</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2380133981348632</v>
+        <v>0.2457060415205403</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5193262254149321</v>
+        <v>0.6178412472234351</v>
       </c>
       <c r="L13" t="n">
-        <v>0.198404891502735</v>
+        <v>0.2508990778954621</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0548419254129507</v>
+        <v>-0.06884309587104027</v>
       </c>
     </row>
     <row r="14">
@@ -3708,40 +3708,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2164840224284541</v>
+        <v>0.2239341289347568</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.530271978215921</v>
+        <v>-0.5389121109502485</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07737914358139115</v>
+        <v>0.07159795712822875</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0878971388292256</v>
+        <v>-0.1484944676711456</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01715155537037168</v>
+        <v>-0.01858372463554702</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04149836261305077</v>
+        <v>-0.05633531169383671</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1733408190498145</v>
+        <v>0.1668710773603304</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.442581479106352</v>
+        <v>-0.342100712523</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3501499411101847</v>
+        <v>0.4037645505502537</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06746934581398104</v>
+        <v>0.1762071947132915</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4995884969884898</v>
+        <v>0.5294713479185742</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2000621377097321</v>
+        <v>-0.2340158243825858</v>
       </c>
     </row>
     <row r="15">
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1999387425465657</v>
+        <v>-0.1964693447213471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1531985745204425</v>
+        <v>0.1569717091232499</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0239503348239698</v>
+        <v>0.01985657894301969</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.136576567165544</v>
+        <v>-0.3160765931755225</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03227408489240242</v>
+        <v>0.03070442969387388</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1365783927310824</v>
+        <v>-0.1255597437701857</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1385779255226638</v>
+        <v>-0.1377827688054637</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2183597285140929</v>
+        <v>0.2096653093364585</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.356789475184356</v>
+        <v>-0.3131836495285583</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.4490798744546396</v>
+        <v>-0.450300708100479</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.08401659201082778</v>
+        <v>-0.1486967087549478</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.4619326931885379</v>
+        <v>-0.4909467678166731</v>
       </c>
     </row>
     <row r="16">
@@ -3794,40 +3794,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2624997953589455</v>
+        <v>0.3061308745156635</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1776624464170274</v>
+        <v>-0.1829338347520624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3184692956067558</v>
+        <v>0.3221099965766375</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8711484742226683</v>
+        <v>0.8628712761885631</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2511587960287744</v>
+        <v>0.2751473847100448</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07919862032151777</v>
+        <v>0.09063459321079766</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4065810899982643</v>
+        <v>0.4162875243909119</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1932060085663632</v>
+        <v>-0.2298405278290817</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7283819238283705</v>
+        <v>0.8022632227644633</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7192588481759735</v>
+        <v>0.8417331133757956</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7383164283839774</v>
+        <v>0.8152003016056913</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3075064974659982</v>
+        <v>0.3185703158532396</v>
       </c>
     </row>
     <row r="17">
@@ -3837,40 +3837,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05419589923828333</v>
+        <v>-0.04201121609687825</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6388774186818325</v>
+        <v>-0.727216406740031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1429909288517194</v>
+        <v>0.1396956832285017</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2849099461439392</v>
+        <v>0.2126387942657293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04251772230937987</v>
+        <v>0.04355205097850528</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.671631203554675</v>
+        <v>-0.7532734153640445</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3813683497797103</v>
+        <v>0.3799871883822727</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1989484238969484</v>
+        <v>-0.3146224981098665</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02867634698911741</v>
+        <v>0.002024019789275767</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1211176760362019</v>
+        <v>-0.1193798063878941</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0443632832475777</v>
+        <v>-0.1217425899525045</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.4347175240594652</v>
+        <v>-0.5182170957762479</v>
       </c>
     </row>
     <row r="18">
@@ -3880,40 +3880,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2776058076784911</v>
+        <v>-0.2908216444437952</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2781535077037676</v>
+        <v>-0.3156264661412861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2073788578832381</v>
+        <v>0.2056048113393314</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.05727391347717284</v>
+        <v>-0.1409155597897692</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04874322976008196</v>
+        <v>-0.04649699175476761</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1223370821478937</v>
+        <v>-0.09152218116344613</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3364458411066706</v>
+        <v>0.3437196937415251</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4892517603278265</v>
+        <v>-0.5922080576778364</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.6527355359527884</v>
+        <v>-0.6359597945730184</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.05782901163573847</v>
+        <v>0.07552338062653925</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03673197587367026</v>
+        <v>0.105533416831231</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.3815128918242</v>
+        <v>-0.391784049136814</v>
       </c>
     </row>
     <row r="19">
@@ -3923,40 +3923,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2830774900182606</v>
+        <v>0.2202533246700734</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3550551092619904</v>
+        <v>-0.4356679862747146</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1075764735525232</v>
+        <v>0.07049956972510373</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2557356943507674</v>
+        <v>0.3412201454967118</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7800844686104927</v>
+        <v>0.7706411552580154</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1566079510239202</v>
+        <v>-0.279542089501545</v>
       </c>
       <c r="H19" t="n">
-        <v>1.895555242178091</v>
+        <v>1.883781580711378</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9050904434075364</v>
+        <v>0.4960468544397115</v>
       </c>
       <c r="J19" t="n">
-        <v>1.012501278605402</v>
+        <v>1.016508939226851</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.8445227482215335</v>
+        <v>-1.190728501033467</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1207550185719102</v>
+        <v>0.06900364639773343</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7126261746574077</v>
+        <v>0.7070556796739673</v>
       </c>
     </row>
     <row r="20">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3318674864124214</v>
+        <v>0.3428608198622644</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2189063849578136</v>
+        <v>-0.224742641950377</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.08151612429138243</v>
+        <v>-0.08186905069983942</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5724759532720447</v>
+        <v>-0.7382018683841544</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03125191817336993</v>
+        <v>-0.02128798645414742</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6070860769500888</v>
+        <v>-0.6799982862519378</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1715122293049665</v>
+        <v>0.1150963728589515</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1636714783907513</v>
+        <v>-0.2347225237356771</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.01546067575671452</v>
+        <v>0.01864012765114406</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.6592193780823959</v>
+        <v>-0.5726298751075082</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4482354199317479</v>
+        <v>0.4568737257786227</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.2705253861228275</v>
+        <v>-0.2584896984003078</v>
       </c>
     </row>
     <row r="21">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1449306295139111</v>
+        <v>0.1516331476486201</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8269379990210762</v>
+        <v>-0.8374647585021913</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1669639833660098</v>
+        <v>-0.1706379481885966</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1529484999943436</v>
+        <v>0.2945302826788202</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1789125612885596</v>
+        <v>-0.1615608708072426</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3015107034930212</v>
+        <v>-0.2648505355845543</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1034226326072368</v>
+        <v>-0.1100430972968346</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2598633105164507</v>
+        <v>-0.1836703786757988</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.2888070568536651</v>
+        <v>-0.2323957174678261</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2728733642376431</v>
+        <v>-0.07675493790016978</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.120843398259082</v>
+        <v>-0.06495471924657002</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.544029331746491</v>
+        <v>-0.4853791450121402</v>
       </c>
     </row>
     <row r="22">
@@ -4052,40 +4052,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7825465922802356</v>
+        <v>-0.797786829048352</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7375679729919734</v>
+        <v>-0.7356873129648235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01319888840711006</v>
+        <v>0.0185568228123882</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5222261453727398</v>
+        <v>-0.4200276813809506</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2471096242050657</v>
+        <v>0.2667473788550448</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6720210355207181</v>
+        <v>-0.6746586051541519</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.412082905962849</v>
+        <v>-0.4925950918408091</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7882745344527036</v>
+        <v>0.8630544998218169</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1533630859153287</v>
+        <v>-0.1305144880931763</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.2602177977804383</v>
+        <v>-0.2023698174396773</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.045538069597087</v>
+        <v>-1.828661089790164</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1685533704244069</v>
+        <v>0.1670002921930306</v>
       </c>
     </row>
     <row r="23">
@@ -4095,40 +4095,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04539209891060335</v>
+        <v>-0.04904769967521572</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07007806851795415</v>
+        <v>-0.0637448658552386</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03980604029418983</v>
+        <v>-0.04517256317294831</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7712727007198595</v>
+        <v>0.7019310754709919</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2172347034256596</v>
+        <v>-0.2212804395946593</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4960322640758512</v>
+        <v>-0.6497771777362557</v>
       </c>
       <c r="H23" t="n">
-        <v>0.31835397142821</v>
+        <v>0.2990763413731793</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1311932851301859</v>
+        <v>0.1949063000451866</v>
       </c>
       <c r="J23" t="n">
-        <v>0.366912118770091</v>
+        <v>0.4137768933304373</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01112331551492151</v>
+        <v>0.0135820518735085</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2529858625121493</v>
+        <v>0.2883437598145827</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.3025652941731675</v>
+        <v>-0.5078024135336949</v>
       </c>
     </row>
     <row r="24">
@@ -4138,40 +4138,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.278974716809102</v>
+        <v>-0.3499293200313757</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8412972197516952</v>
+        <v>0.8294240243977911</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.030663538775005</v>
+        <v>-1.044338237473083</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7225023841555656</v>
+        <v>-0.8450625469011619</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3480657004118181</v>
+        <v>-0.3432449909654533</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.146796724622457</v>
+        <v>-1.247039704323669</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1939704441745898</v>
+        <v>-0.2017259920434613</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2450393987220683</v>
+        <v>-0.1931687988058698</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.4805877656741885</v>
+        <v>-0.456762145022107</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.214831387155647</v>
+        <v>-1.722957097296079</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9941186561030385</v>
+        <v>1.093687983982868</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.8072643087149084</v>
+        <v>-1.600435950069764</v>
       </c>
     </row>
     <row r="25">
@@ -4181,40 +4181,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.08866762427571701</v>
+        <v>-0.08770026898444906</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.752177379898296</v>
+        <v>-0.8053855107473403</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3513791721654917</v>
+        <v>-0.3807532009243053</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1648474023951261</v>
+        <v>-0.04145863012258277</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1083451262261311</v>
+        <v>0.1023042177076842</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.05562743996312269</v>
+        <v>-0.111756681091147</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09756129692924295</v>
+        <v>0.07273037054998061</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.05787436189596724</v>
+        <v>-0.2184494716181891</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2538486079508695</v>
+        <v>-0.2019856508966939</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.186779291484318</v>
+        <v>-0.4186696170172063</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4476555280508224</v>
+        <v>0.4453313329817586</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1149427687938794</v>
+        <v>-0.363866073662871</v>
       </c>
     </row>
     <row r="26">
@@ -4224,40 +4224,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2631939025078496</v>
+        <v>0.4649767640861795</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.8232403468579323</v>
+        <v>-0.6761320622946368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2080384806062716</v>
+        <v>0.2436044006757545</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.07992370912965863</v>
+        <v>0.2574833785091049</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1912613902992355</v>
+        <v>0.2663353616761412</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3628303652544423</v>
+        <v>0.6019140871167745</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1092210845062268</v>
+        <v>0.07836499044012039</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1937826371000801</v>
+        <v>0.5771026832347752</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1140440724003342</v>
+        <v>0.3896639923630428</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4007637119381297</v>
+        <v>0.6590107652164122</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.326175625852023</v>
+        <v>0.102408829295956</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2291015529963965</v>
+        <v>0.6036864282349876</v>
       </c>
     </row>
     <row r="27">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8309815306953029</v>
+        <v>0.8462098589718182</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4019680553851824</v>
+        <v>-0.3794780531308982</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5535575463714155</v>
+        <v>0.5672757001126018</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3577390974270803</v>
+        <v>0.2470989806053508</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2149882433519061</v>
+        <v>0.2476623095960617</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1672557081375673</v>
+        <v>-0.2211716584058919</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1424626761645292</v>
+        <v>0.1447239839985512</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01804485147976615</v>
+        <v>-0.01716303587655046</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06698297053556808</v>
+        <v>0.1073033813176988</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9371985230842308</v>
+        <v>1.032576830671849</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6677645422922664</v>
+        <v>0.8151622502155302</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2302458813344501</v>
+        <v>0.172721917171325</v>
       </c>
     </row>
     <row r="28">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.01666622690313701</v>
+        <v>-0.01102481598968274</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7175253073786025</v>
+        <v>-0.7319683750541257</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.08637548173917962</v>
+        <v>-0.07760075746354297</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4594667684915828</v>
+        <v>0.5811149451642221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1532549480776534</v>
+        <v>0.1700959632450548</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.068683231782331</v>
+        <v>-1.063042926914493</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1844204980446046</v>
+        <v>-0.1804542624068819</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5374237331869349</v>
+        <v>-0.3937546087963038</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3388985984161876</v>
+        <v>0.3837708650518485</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.212368924218889</v>
+        <v>-1.066128323726022</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1782163114618255</v>
+        <v>-0.1140793516952316</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.3486386464771586</v>
+        <v>-0.5448769767570956</v>
       </c>
     </row>
     <row r="29">
@@ -4353,40 +4353,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1377117882338458</v>
+        <v>0.1261497004512296</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8368496178795841</v>
+        <v>-0.906384041097295</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3916858415527704</v>
+        <v>0.4375257246405612</v>
       </c>
       <c r="E29" t="n">
-        <v>1.874923236296529</v>
+        <v>2.039011131514005</v>
       </c>
       <c r="F29" t="n">
-        <v>0.581908950797643</v>
+        <v>0.5967000572999323</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9080010487835766</v>
+        <v>0.9013775201997614</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1111026989394304</v>
+        <v>-0.142969476722977</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9894588428532796</v>
+        <v>1.074418018088274</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6233693631202355</v>
+        <v>0.6670790399227617</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6517935905603462</v>
+        <v>0.6720631636667331</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3515205035660827</v>
+        <v>0.3789726500550364</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2693669124767716</v>
+        <v>0.2532108582721237</v>
       </c>
     </row>
     <row r="30">
@@ -4396,40 +4396,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2996533710346569</v>
+        <v>0.2794336474784391</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.7762770326670668</v>
+        <v>-0.7890762261559173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2421763920523568</v>
+        <v>0.2435498611882387</v>
       </c>
       <c r="E30" t="n">
-        <v>1.079655387595127</v>
+        <v>1.24376229542501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08102408803925802</v>
+        <v>0.1015390058985633</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05246265821228446</v>
+        <v>0.019855467587542</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3076097310275443</v>
+        <v>0.3514191326961217</v>
       </c>
       <c r="I30" t="n">
-        <v>0.126889387016448</v>
+        <v>0.1602033669063059</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2007369464232771</v>
+        <v>0.224701373965254</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.500316577936083</v>
+        <v>-0.4872371885404291</v>
       </c>
       <c r="L30" t="n">
-        <v>1.067745161725609</v>
+        <v>1.154777753416629</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2630546137471173</v>
+        <v>-0.2373864593187423</v>
       </c>
     </row>
     <row r="31">
@@ -4439,40 +4439,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.158624544110873</v>
+        <v>-0.1595190041251385</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7039980378814203</v>
+        <v>-0.7440388841123239</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5535768552898427</v>
+        <v>0.5554007548634857</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3001759443632098</v>
+        <v>-0.2123902016628308</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.02039187350144745</v>
+        <v>-0.006405366423890248</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7444499112404671</v>
+        <v>0.7642258190192855</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1919225588295662</v>
+        <v>0.211905890721415</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4001870637040687</v>
+        <v>0.5114839716932382</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.1377561549710035</v>
+        <v>-0.09151824381793881</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.1151200694326879</v>
+        <v>0.03260937577694762</v>
       </c>
       <c r="L31" t="n">
-        <v>0.17333908453347</v>
+        <v>0.2666613137841097</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5057778563579896</v>
+        <v>0.5684406673666615</v>
       </c>
     </row>
     <row r="32">
@@ -4482,40 +4482,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1423235733038783</v>
+        <v>0.122150500699494</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4627752415090732</v>
+        <v>-0.5506952141720741</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.07300180876798203</v>
+        <v>-0.06790175860805224</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8489006846184843</v>
+        <v>-1.054091643105113</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1904838532280861</v>
+        <v>-0.2055371310345765</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3815533020266155</v>
+        <v>-0.4858978495022433</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.7115280576928545</v>
+        <v>-0.8827514932314786</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.7672904891377473</v>
+        <v>-0.9633054980761755</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.2851197617631706</v>
+        <v>-0.2984245111829722</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.123813354745593</v>
+        <v>-2.064241893685808</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.210789364844505</v>
+        <v>-2.434513146933303</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.520674219235955</v>
+        <v>-0.5244784377923294</v>
       </c>
     </row>
     <row r="33">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04964269362920659</v>
+        <v>0.05012390571649434</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.7618529080187669</v>
+        <v>-0.8155102062146095</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3053254932466944</v>
+        <v>0.3055409459887948</v>
       </c>
       <c r="E33" t="n">
-        <v>1.02534380211668</v>
+        <v>1.078178801718397</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1988249810253582</v>
+        <v>0.2125864739552308</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.007374486272540974</v>
+        <v>-0.03967766437165029</v>
       </c>
       <c r="H33" t="n">
-        <v>0.361081102784521</v>
+        <v>0.3467206360789151</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1954457394979614</v>
+        <v>0.1549456391930466</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1438162271861573</v>
+        <v>-0.09320003498222913</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2060590501863766</v>
+        <v>0.1953194471765303</v>
       </c>
       <c r="L33" t="n">
-        <v>0.337878487065955</v>
+        <v>0.3546211934878661</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.09840877163136651</v>
+        <v>-0.1542756292961126</v>
       </c>
     </row>
     <row r="34">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4550046711984482</v>
+        <v>0.4793217803647689</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3839384217287181</v>
+        <v>0.3452933876553284</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3738477513640187</v>
+        <v>0.3711993767482753</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7298775322499182</v>
+        <v>0.7801773755587893</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09138876428972505</v>
+        <v>-0.0544751072636484</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.2521888596633166</v>
+        <v>-0.25421832528532</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9890561525616332</v>
+        <v>0.9988545572909826</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1077216959779508</v>
+        <v>-0.06691259427588631</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2284072159318103</v>
+        <v>0.3120727375437319</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6431211619479599</v>
+        <v>0.7370314940664014</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8371791868975883</v>
+        <v>0.9192827159719557</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1394186637140166</v>
+        <v>0.1704063594572962</v>
       </c>
     </row>
     <row r="35">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1931629027748829</v>
+        <v>-0.1415253425125724</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5918764276891975</v>
+        <v>-0.6395996827502917</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.09615544872994609</v>
+        <v>-0.09829724852230827</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0786280989459721</v>
+        <v>0.02304834604997369</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1767057403441568</v>
+        <v>-0.1545966036969553</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1460213637178772</v>
+        <v>0.1855273958250899</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5286680595800173</v>
+        <v>-0.5315951409546551</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03779222574934998</v>
+        <v>0.2841298981371559</v>
       </c>
       <c r="J35" t="n">
-        <v>0.006924900790632073</v>
+        <v>0.09654603507759391</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3321333220354846</v>
+        <v>-0.1973029847129006</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0398680880418607</v>
+        <v>0.09041536774965538</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.2957255549618265</v>
+        <v>-0.2085286720820432</v>
       </c>
     </row>
     <row r="36">
@@ -4654,40 +4654,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03301941322727991</v>
+        <v>0.04017906520651732</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.5088702590977811</v>
+        <v>-0.5237901781972558</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2225655789834726</v>
+        <v>-0.2565177677856631</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2550299932603687</v>
+        <v>0.3712570044475832</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2253388939903164</v>
+        <v>-0.2424792625200865</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2839390292137559</v>
+        <v>-0.345943947296499</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1764920367895615</v>
+        <v>0.1471413162336734</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1473432839658852</v>
+        <v>-0.5937084286268532</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.06228996446251858</v>
+        <v>-0.14211643789989</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.068091005929928</v>
+        <v>-1.110984125776186</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02790621476237412</v>
+        <v>0.03151435880173361</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.3958476305725757</v>
+        <v>-0.5577084165892058</v>
       </c>
     </row>
     <row r="37">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.7818694401321551</v>
+        <v>-0.7835485687280628</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.069200940722813</v>
+        <v>-1.07803748810932</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5330388966223757</v>
+        <v>-0.5544989190974532</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.681814530837337</v>
+        <v>-0.6566604822457049</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5819875849365722</v>
+        <v>-0.5642585393078924</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.014092401682468</v>
+        <v>-2.042106784186401</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.7228012873098965</v>
+        <v>-0.7558462599388911</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.7138330440703334</v>
+        <v>-0.6274380047748919</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.4513656041732955</v>
+        <v>-0.3799585449051252</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.814689986354247</v>
+        <v>-2.001413337370091</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2380531653646062</v>
+        <v>0.4424809064928589</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.542578184080752</v>
+        <v>-1.490524573137508</v>
       </c>
     </row>
     <row r="38">
@@ -4740,40 +4740,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1257610868937097</v>
+        <v>0.1117797384405052</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6146929356196317</v>
+        <v>-0.6109556590022571</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3855315435650469</v>
+        <v>0.3876264450516229</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4806056702178692</v>
+        <v>0.591741186062499</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02236875436921738</v>
+        <v>0.03640813992030216</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7883023555757962</v>
+        <v>-0.8225928777494527</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2362773923970087</v>
+        <v>0.2373662775563247</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01838642363054241</v>
+        <v>0.13196055359396</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3367518057728307</v>
+        <v>0.3851759511027201</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.7800169294887774</v>
+        <v>-0.6649186310330352</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7396800946214204</v>
+        <v>0.6926503022709789</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.5700711762454417</v>
+        <v>-0.5577311752079307</v>
       </c>
     </row>
     <row r="39">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01116020762342634</v>
+        <v>0.04367745221132446</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1498061615630721</v>
+        <v>-0.1563475292878072</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2308698145524591</v>
+        <v>0.2234728586986843</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4580598684172774</v>
+        <v>0.5284466300660507</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008903453013865165</v>
+        <v>0.01630622373437027</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.361232445927444</v>
+        <v>-0.3959425376532602</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02352511364091751</v>
+        <v>-0.03817906406557499</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.2986366917055336</v>
+        <v>-0.3213402909099183</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3665686297943345</v>
+        <v>0.4213400896001047</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4065751098643652</v>
+        <v>0.5020949267831203</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6412616789695225</v>
+        <v>0.6752932873870313</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.2262710396477846</v>
+        <v>-0.2359799133173832</v>
       </c>
     </row>
     <row r="40">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1304220305921337</v>
+        <v>-0.1292370272281399</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.08575422463844794</v>
+        <v>-0.1268122128395085</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0268534144654405</v>
+        <v>-0.02620426505617319</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0532110892437181</v>
+        <v>-0.05424552470440223</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.09632623606487221</v>
+        <v>-0.1001843127923185</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0775932522183917</v>
+        <v>0.08073719465315984</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.1638168433159079</v>
+        <v>-0.2576520052825449</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.03117335296824442</v>
+        <v>-0.03492986578954104</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02341837104268414</v>
+        <v>0.05189913419384989</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.04942401638733268</v>
+        <v>0.05622845285287033</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3445640273456145</v>
+        <v>0.3620913609031874</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1366203632686848</v>
+        <v>-0.1745973305141601</v>
       </c>
     </row>
     <row r="41">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.07901723694146663</v>
+        <v>-0.07497322109802897</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6836256515890351</v>
+        <v>-0.6996060674296092</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1217937733688122</v>
+        <v>-0.1274784668445523</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9649181216935889</v>
+        <v>1.103461923761128</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.212665291250131</v>
+        <v>-0.1928394938110109</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.4180060734726373</v>
+        <v>-0.3967428104015866</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1725994843821086</v>
+        <v>-0.1917719048335504</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05198399223841621</v>
+        <v>0.1022283138428992</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.2001126838570107</v>
+        <v>-0.1073485375570824</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0179200521360848</v>
+        <v>0.1692514370416732</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2120664585451534</v>
+        <v>0.3007084892576826</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3996084278805403</v>
+        <v>-0.3581790782823302</v>
       </c>
     </row>
     <row r="42">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1345045053990923</v>
+        <v>0.1848070303951463</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1529305371028878</v>
+        <v>-0.1539380389311108</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2812281608041574</v>
+        <v>-0.2845516215785882</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.7424481998542959</v>
+        <v>-0.5930823843659342</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02649107959418375</v>
+        <v>0.062407990269367</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.5204850434865909</v>
+        <v>-0.4958252332538949</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.5504129934120102</v>
+        <v>-0.7011289926137568</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3728734626711529</v>
+        <v>0.3461684230996329</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.2445126681538084</v>
+        <v>-0.1801555840390689</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.065208761847401</v>
+        <v>-0.9033338164992886</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4058521659797026</v>
+        <v>0.3924183620291433</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.2128123720110154</v>
+        <v>-0.1062409845488259</v>
       </c>
     </row>
     <row r="43">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2638074802776381</v>
+        <v>0.3371181264020943</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2062261985208163</v>
+        <v>-0.2110783887497726</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2890611505381771</v>
+        <v>-0.2802214114237516</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.7516184931568004</v>
+        <v>-0.7741958939523217</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1157539961083912</v>
+        <v>0.1459965057278859</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1468182485860751</v>
+        <v>-0.189624886159919</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9779264346634785</v>
+        <v>1.003624146464188</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.5691777022874999</v>
+        <v>-0.6055135958801567</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.2609557107438813</v>
+        <v>-0.2189204790023487</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4014981180852699</v>
+        <v>0.4806226471010543</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.130528119714855</v>
+        <v>-1.133097410465953</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.2381619990370186</v>
+        <v>-0.347846162086797</v>
       </c>
     </row>
     <row r="44">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.28444643027168</v>
+        <v>0.2797817085577952</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2398306668807787</v>
+        <v>-0.2060431911552877</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3718083020836005</v>
+        <v>0.3704143779960887</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0811149744390085</v>
+        <v>-0.1066120751599182</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1971127024662498</v>
+        <v>0.2101247813082988</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08990451457395758</v>
+        <v>0.03015554610910249</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1809779148462662</v>
+        <v>-0.1812937774334154</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.05189745481899997</v>
+        <v>-0.3928770942985844</v>
       </c>
       <c r="J44" t="n">
-        <v>0.051420550112001</v>
+        <v>0.07479302234025455</v>
       </c>
       <c r="K44" t="n">
-        <v>1.175003573312337</v>
+        <v>1.208030270946686</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.6141616823932782</v>
+        <v>-0.6374951591306769</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0253959814329095</v>
+        <v>-0.03267284349282083</v>
       </c>
     </row>
     <row r="45">
@@ -5041,40 +5041,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.05359948113221824</v>
+        <v>-0.05311911741195575</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121584218522365</v>
+        <v>0.08820323724903734</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02926880610449759</v>
+        <v>0.02965111947239168</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.08353105921544129</v>
+        <v>-0.2746266095010206</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01077274217543606</v>
+        <v>-0.01202825990768693</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2805753300319881</v>
+        <v>-0.3364822709348123</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.2539899401628321</v>
+        <v>-0.2699814596202963</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3209210899334469</v>
+        <v>0.3687123764273841</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.01382298891658561</v>
+        <v>0.001513267730299795</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.5629285672410559</v>
+        <v>-0.5096423038401087</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.1570400976628552</v>
+        <v>-0.1435661330762611</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1148156045749086</v>
+        <v>-0.2069375004230281</v>
       </c>
     </row>
     <row r="46">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1038563387657273</v>
+        <v>-0.10356118250101</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.8905490760159744</v>
+        <v>-0.9004921608610592</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2199613393819282</v>
+        <v>0.2475000915444848</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.07101492804620282</v>
+        <v>0.06221737439929792</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05554200032853732</v>
+        <v>0.08247867115675475</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.6532859711599449</v>
+        <v>-0.6457842324012852</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1863128280547263</v>
+        <v>0.2208631494884147</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.3031073204697227</v>
+        <v>-0.1690263479023134</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4573640476976955</v>
+        <v>0.5206087527294926</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.4284517813237295</v>
+        <v>-0.2823766415397873</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7883138100005027</v>
+        <v>0.8929343611951073</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.04519038995699322</v>
+        <v>0.007917556361748866</v>
       </c>
     </row>
     <row r="47">
@@ -5127,40 +5127,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.4883744230586294</v>
+        <v>-0.5189412918274605</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.860202294914034</v>
+        <v>-0.9103174729337041</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4760943964093929</v>
+        <v>-0.4736987571722792</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5004950426262343</v>
+        <v>-0.4941881748751759</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4974355864432788</v>
+        <v>-0.4971323330526226</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.5834105682657389</v>
+        <v>-0.6146873880155529</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.5909880882584569</v>
+        <v>-0.6186411781745516</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.125390419910813</v>
+        <v>-0.1010471647184441</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.2242801660526182</v>
+        <v>-0.1826267385185122</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.5208678842367914</v>
+        <v>-0.4276331333295774</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.3503891060931181</v>
+        <v>-0.3064331574330051</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.6015319294499099</v>
+        <v>-0.6505060914014497</v>
       </c>
     </row>
     <row r="48">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.10524275268344</v>
+        <v>0.1046719575906767</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1430392821768068</v>
+        <v>-0.1742963024330129</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33026524705924</v>
+        <v>0.3352438360007671</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.307333795720421</v>
+        <v>-0.3502690701520452</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.2365806349248711</v>
+        <v>-0.2358415265402083</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.4223567288407846</v>
+        <v>-0.4373219670708309</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3080162200686059</v>
+        <v>-0.3078612839644382</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03878245872414532</v>
+        <v>0.07803983127166325</v>
       </c>
       <c r="J48" t="n">
-        <v>6.729191976857733e-05</v>
+        <v>0.03415369277877593</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.4532452085742512</v>
+        <v>-0.382609256118398</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.2149279438478473</v>
+        <v>-0.1711192055783625</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.2764757058146887</v>
+        <v>-0.2856101763115098</v>
       </c>
     </row>
     <row r="49">
@@ -5213,40 +5213,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.07758666770521262</v>
+        <v>-0.08814932885964398</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.04934264151862468</v>
+        <v>-0.09505643817408925</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6111267526920984</v>
+        <v>0.620807283902388</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08835999382215531</v>
+        <v>-0.1662013274871596</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2529231964694408</v>
+        <v>0.252584645004624</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.3069461505723726</v>
+        <v>-0.3733033160818101</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1515331787449251</v>
+        <v>0.1545335870142505</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1215023648879529</v>
+        <v>-0.1237383716189044</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2164385382130871</v>
+        <v>0.2335189921903295</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4577389180626105</v>
+        <v>0.5110854520238384</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3216435345804258</v>
+        <v>0.3135109691363893</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1398537320193748</v>
+        <v>0.06812735231514808</v>
       </c>
     </row>
     <row r="50">
@@ -5256,40 +5256,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6873069915934489</v>
+        <v>0.685947844547647</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3644365869399531</v>
+        <v>-0.39540121784467</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1476229021599977</v>
+        <v>0.1377591070902585</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.05643880735232459</v>
+        <v>0.06739119836573278</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09264406385545308</v>
+        <v>0.09816417819628255</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1494285321771263</v>
+        <v>0.07878801997511174</v>
       </c>
       <c r="H50" t="n">
-        <v>0.679600905569376</v>
+        <v>0.693696456950767</v>
       </c>
       <c r="I50" t="n">
-        <v>1.197823774744226</v>
+        <v>1.344077789598709</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5936321868890269</v>
+        <v>0.6435398201198839</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4051259881636752</v>
+        <v>0.28370900067764</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1849023163608629</v>
+        <v>0.3110647717412128</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.2850947368612519</v>
+        <v>-0.3718924789025956</v>
       </c>
     </row>
   </sheetData>
